--- a/HyperRail_BOMv3.xlsx
+++ b/HyperRail_BOMv3.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorian Brusind\Documents\GitHub\HyperRail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34CB405-BD18-4C81-90B6-C95CE41C3E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151F8590-5926-490B-B1F0-37C306A63AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="4" xr2:uid="{9AA5CA3B-103F-4503-BB38-84DF181EF15E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="3" xr2:uid="{9AA5CA3B-103F-4503-BB38-84DF181EF15E}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
     <sheet name="Electrical " sheetId="2" r:id="rId2"/>
     <sheet name="Mechanical - Rail_AssemblyV2_0" sheetId="9" r:id="rId3"/>
-    <sheet name="Mechanical - Top_Rail_Full" sheetId="12" r:id="rId4"/>
-    <sheet name="Mechanical - Carriage Assembly" sheetId="4" r:id="rId5"/>
-    <sheet name="Mechanical - Top_Rail_Section" sheetId="13" r:id="rId6"/>
-    <sheet name="Mechanical - Yaxis_Carriage" sheetId="14" r:id="rId7"/>
-    <sheet name="Mechanical - Buffer" sheetId="6" r:id="rId8"/>
-    <sheet name="Mechanical - X_CarriageFWD_V2_1" sheetId="7" r:id="rId9"/>
-    <sheet name="Mechanical - X_Carriage_v2_1" sheetId="15" r:id="rId10"/>
-    <sheet name="Mechanical - X_CarriageFWDBeari" sheetId="8" r:id="rId11"/>
-    <sheet name="Mechanical - Bottom_Foot_Assemb" sheetId="10" r:id="rId12"/>
+    <sheet name="Mechanical - Ebox_Assy" sheetId="16" r:id="rId4"/>
+    <sheet name="Mechanical - Top_Rail_Full" sheetId="12" r:id="rId5"/>
+    <sheet name="Mechanical - Carriage Assembly" sheetId="4" r:id="rId6"/>
+    <sheet name="Mechanical - Top_Rail_Section" sheetId="13" r:id="rId7"/>
+    <sheet name="Mechanical - Yaxis_Carriage" sheetId="14" r:id="rId8"/>
+    <sheet name="Mechanical - Buffer" sheetId="6" r:id="rId9"/>
+    <sheet name="Mechanical - X_CarriageFWD_V2_1" sheetId="7" r:id="rId10"/>
+    <sheet name="Mechanical - X_Carriage_v2_1" sheetId="15" r:id="rId11"/>
+    <sheet name="Mechanical - X_CarriageFWDBeari" sheetId="8" r:id="rId12"/>
+    <sheet name="Mechanical - Bottom_Foot_Assemb" sheetId="10" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="447">
   <si>
     <t>Manufacturer Part Number</t>
   </si>
@@ -1323,6 +1324,81 @@
   </si>
   <si>
     <t>Nylon Spacers M3 - 10mm long</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ebox_Assy</t>
+  </si>
+  <si>
+    <t>Jetson nano_fixed</t>
+  </si>
+  <si>
+    <t>IEC320-C14</t>
+  </si>
+  <si>
+    <t>se300-t-b</t>
+  </si>
+  <si>
+    <t>Waterproof Ethernet RJ45 Passthrough</t>
+  </si>
+  <si>
+    <t>DELL_DA-130PE1-00</t>
+  </si>
+  <si>
+    <t>PowerBrick_Clamp</t>
+  </si>
+  <si>
+    <t>12_24_5VUSBConverter</t>
+  </si>
+  <si>
+    <t>25W_1224_5V</t>
+  </si>
+  <si>
+    <t>EboxBottom</t>
+  </si>
+  <si>
+    <t>95783A051_Nylon 6 6 Male-Female Threaded Hex Standoff</t>
+  </si>
+  <si>
+    <t>95783A057_Nylon 6 6 Male-Female Threaded Hex Standoff</t>
+  </si>
+  <si>
+    <t>95783A069_Nylon 6 6 Male-Female Threaded Hex Standoff</t>
+  </si>
+  <si>
+    <t>Jetson_Mount</t>
+  </si>
+  <si>
+    <t>ESP32GRBL_Mount</t>
+  </si>
+  <si>
+    <t>Bolt M3 10mm</t>
+  </si>
+  <si>
+    <t>98952A407_Aluminum Male-Female Threaded Hex Standoff</t>
+  </si>
+  <si>
+    <t>EboxTslotMount</t>
+  </si>
+  <si>
+    <t>M5-6mm-HeatInsert</t>
+  </si>
+  <si>
+    <t>GRBL ESP32 Controller for Stepper control</t>
+  </si>
+  <si>
+    <t>Seahorse</t>
+  </si>
+  <si>
+    <t>Ebox Assembly</t>
+  </si>
+  <si>
+    <t>Plate to Mount Jetson</t>
+  </si>
+  <si>
+    <t>Plate to Mount ESP32 Board</t>
+  </si>
+  <si>
+    <t>Bracket to hold Power Adapter</t>
   </si>
 </sst>
 </file>
@@ -1697,6 +1773,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1718,9 +1797,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1732,7 +1808,131 @@
     <cellStyle name="Note" xfId="6" builtinId="10"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="64">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF70AD47"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF70AD47"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF70AD47"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF70AD47"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -1923,15 +2123,8 @@
       </fill>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF70AD47"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1946,23 +2139,10 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF70AD47"/>
-        </top>
-      </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1977,43 +2157,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF70AD47"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border outline="0">
@@ -4483,6 +4626,191 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28CE99C3-C1E3-468E-A792-23C5FFC9139E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="200025"/>
+          <a:ext cx="876300" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1724025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7231C6AE-2C43-4481-8492-021858635882}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="1066800"/>
+          <a:ext cx="876300" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1724025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CE94B8C-DF88-4394-933A-5F13E41FFC46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="1933575"/>
+          <a:ext cx="876300" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1724025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DA8FEF3-EB87-4D16-A5A2-953A10BD380C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="2800350"/>
+          <a:ext cx="876300" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1724025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -4713,6 +5041,956 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1BFEEA0-BFD7-4C8D-A806-9C433D5E34B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="200025"/>
+          <a:ext cx="876300" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1724025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F811FC31-CA62-44B9-BD29-A483E72EB9E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="1066800"/>
+          <a:ext cx="876300" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1724025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D1FBEA9-0021-42A6-94BA-95DA496706B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="1933575"/>
+          <a:ext cx="876300" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1724025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{565621F4-C45F-47C2-8CC0-D4D42C979E0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="2800350"/>
+          <a:ext cx="876300" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1724025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB4148E-9FB0-417B-A394-7319853A9665}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="3667125"/>
+          <a:ext cx="876300" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1724025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4764FA8-448D-4659-A400-B0C0E0E83FBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="4533900"/>
+          <a:ext cx="876300" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1724025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A1246EA-CCC9-4B91-AF60-39BB47B53E3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="5400675"/>
+          <a:ext cx="876300" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1724025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{148DF38A-0633-4A4A-89E2-4E404303EF34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="6267450"/>
+          <a:ext cx="876300" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1724025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14C598C3-B1C1-469C-96DC-D82D3414F860}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="7134225"/>
+          <a:ext cx="876300" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1724025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F574BC2F-6212-4A95-89A4-4FAFB0EC6A06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="8001000"/>
+          <a:ext cx="876300" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1724025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDD0E839-ECA7-455D-BA43-A13A3615CD81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="8867775"/>
+          <a:ext cx="876300" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1724025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1B21F77-038D-4ABA-BFEA-F39BEC22A4E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="9734550"/>
+          <a:ext cx="876300" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1724025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF692EB1-A1DA-487C-90DC-3BB0D40AB8A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="10601325"/>
+          <a:ext cx="876300" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1724025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B84BBE85-E8E7-4BDA-B274-C0AE43032F4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="11468100"/>
+          <a:ext cx="876300" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1724025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1530925F-CA8C-4F00-BD22-C9E8745DB1FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="12334875"/>
+          <a:ext cx="876300" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1724025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2257D60B-6422-4C61-9A85-074BA25CF812}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="13201650"/>
+          <a:ext cx="876300" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1724025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05DCC22-32D2-4B09-B8E2-9F5DFA2EA5C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="14068425"/>
+          <a:ext cx="876300" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1724025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE069BC7-1EB4-45BF-B240-DED4ED280C50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="14935200"/>
+          <a:ext cx="876300" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1724025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C0D14CD-3F37-4FF9-8D11-763CB95BC2EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="15801975"/>
+          <a:ext cx="876300" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1724025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C373482-7720-46EF-8C45-7C3EF277E975}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="16668750"/>
+          <a:ext cx="876300" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1724025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8540D3C2-7A21-44C8-B481-E8082CF1CAE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="17535525"/>
+          <a:ext cx="876300" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1724025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -4971,7 +6249,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5606,7 +6884,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5701,7 +6979,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7191,7 +8469,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7736,7 +9014,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8056,7 +9334,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8331,200 +9609,15 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1724025</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1724025</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28CE99C3-C1E3-468E-A792-23C5FFC9139E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1228725" y="200025"/>
-          <a:ext cx="876300" cy="857250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1724025</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1724025</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7231C6AE-2C43-4481-8492-021858635882}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1228725" y="1066800"/>
-          <a:ext cx="876300" cy="857250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1724025</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1724025</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CE94B8C-DF88-4394-933A-5F13E41FFC46}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1228725" y="1933575"/>
-          <a:ext cx="876300" cy="857250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1724025</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1724025</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DA8FEF3-EB87-4D16-A5A2-953A10BD380C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1228725" y="2800350"/>
-          <a:ext cx="876300" cy="857250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C189F622-D48C-46EA-96AA-41B0884FFA52}" name="Table13" displayName="Table13" ref="A2:I9" totalsRowShown="0" headerRowDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C189F622-D48C-46EA-96AA-41B0884FFA52}" name="Table13" displayName="Table13" ref="A2:I9" totalsRowShown="0" headerRowDxfId="63">
   <autoFilter ref="A2:I9" xr:uid="{68A6F1D8-FEED-47EA-906C-768CE612E1F0}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{1C4C2997-D62C-4993-A88D-33BDE9A5D934}" name="Manufacturer Part Number"/>
     <tableColumn id="2" xr3:uid="{12EB43DB-2BD8-4FFD-B48B-5C8C35CE848F}" name="Vendor"/>
     <tableColumn id="3" xr3:uid="{7FB24B5C-C6CD-41DC-A94B-1034232532D2}" name="Customer Reference"/>
     <tableColumn id="4" xr3:uid="{5FF9DFE0-1CDD-4783-8665-FD1FFBD1A64E}" name="Quantity"/>
-    <tableColumn id="5" xr3:uid="{734760D5-EC2D-4EA0-8E69-A372A88E5237}" name="Unit Price" dataDxfId="58">
+    <tableColumn id="5" xr3:uid="{734760D5-EC2D-4EA0-8E69-A372A88E5237}" name="Unit Price" dataDxfId="62">
       <calculatedColumnFormula>Overall!I29</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{1DEFD9D4-8D71-4994-9ED5-1DE782BBB5B8}" name="Extended Price">
@@ -8539,7 +9632,33 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{13CC5DBC-959F-4256-BCFF-6680FDF34F8A}" name="RBA_47" displayName="RBA_47" ref="A2:L21" totalsRowShown="0" headerRowDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{0597874C-7453-4A6F-A610-8F4D8D47EB3F}" name="RBA_47891151213" displayName="RBA_47891151213" ref="A2:K35" totalsRowShown="0" headerRowDxfId="13" tableBorderDxfId="12">
+  <autoFilter ref="A2:K35" xr:uid="{AEB73607-C281-450A-B481-305282F70C69}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{7AFE4DA7-458C-4B5D-9F3E-7B2FC1AC1F30}" name="Part Number - Assembly" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{D09B2BF6-3EEA-49BD-A815-693278D52D4E}" name="Thumbnail"/>
+    <tableColumn id="3" xr3:uid="{D220CA10-E01E-4F84-B86E-AAD6D96BE7A6}" name="Quantity" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{EBBFBA49-83B8-4467-B584-F209D45D0777}" name="Vendor"/>
+    <tableColumn id="5" xr3:uid="{F66B6064-99C8-4A8B-BBE9-3358FCC8A0D7}" name="Vendor Link">
+      <calculatedColumnFormula>HYPERLINK("https://8020.net/20-2040.html", "20-2040")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{DF84A1FF-16CC-4D3C-8626-363C794C0911}" name="Unit Price" dataCellStyle="Currency"/>
+    <tableColumn id="9" xr3:uid="{65648BEE-77DD-4D42-B639-6FFFD268AF96}" name="Extended Price" dataCellStyle="Currency">
+      <calculatedColumnFormula>RBA_47891151213[[#This Row],[Unit Price]]*RBA_47891151213[[#This Row],[Quantity]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{B23B2726-0613-444C-83C6-160616321B7C}" name="Description"/>
+    <tableColumn id="16" xr3:uid="{2C126F60-921E-4CDC-9256-9570FC692729}" name="Comments"/>
+    <tableColumn id="6" xr3:uid="{091EC87E-7971-478C-A108-1D714813D8A4}" name="Alternative Vendor"/>
+    <tableColumn id="7" xr3:uid="{6D405A3A-B1BF-4651-BDE5-DD392243CD75}" name="Alternative Vendor Link">
+      <calculatedColumnFormula>HYPERLINK("https://www.amazon.com/Aluminum-Extrusion-European-Standard-Anodized/dp/B08CN92SP1/ref=sr_1_7?crid=3VIGODRUEW0NZ&amp;keywords=150mm+2040&amp;qid=1645476496&amp;sprefix=150mm+2040%2Caps%2C147&amp;sr=8-7", "Amazon")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{13CC5DBC-959F-4256-BCFF-6680FDF34F8A}" name="RBA_47" displayName="RBA_47" ref="A2:L21" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="A2:L21" xr:uid="{AEB73607-C281-450A-B481-305282F70C69}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{5BF06E3B-8E83-4B50-A29A-31F2D60EADCE}" name="Part Number - Assembly"/>
@@ -8565,8 +9684,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C27F918E-56F2-415D-815F-8578A43A006A}" name="RBA_478" displayName="RBA_478" ref="A2:K21" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C27F918E-56F2-415D-815F-8578A43A006A}" name="RBA_478" displayName="RBA_478" ref="A2:K21" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A2:K21" xr:uid="{AEB73607-C281-450A-B481-305282F70C69}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{06216075-4489-44F7-BF72-3F973EC9AAD8}" name="Part Number - Assembly"/>
@@ -8591,8 +9710,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{2A23F2F7-67C2-4498-BB0E-5EA323EB74BF}" name="RBA_47815" displayName="RBA_47815" ref="A2:K21" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{2A23F2F7-67C2-4498-BB0E-5EA323EB74BF}" name="RBA_47815" displayName="RBA_47815" ref="A2:K21" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A2:K21" xr:uid="{AEB73607-C281-450A-B481-305282F70C69}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{CA99BB82-BB66-4ED2-A867-6C992B1C1571}" name="Part Number - Assembly"/>
@@ -8617,8 +9736,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3CD00DD8-7230-4F18-8143-A0987C5D0CBD}" name="RBA_4789" displayName="RBA_4789" ref="A2:K21" totalsRowShown="0" headerRowDxfId="15" tableBorderDxfId="14">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3CD00DD8-7230-4F18-8143-A0987C5D0CBD}" name="RBA_4789" displayName="RBA_4789" ref="A2:K21" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A2:K21" xr:uid="{AEB73607-C281-450A-B481-305282F70C69}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{5561EB81-DB1F-4FD1-B823-5AEA29E3528C}" name="Part Number - Assembly"/>
@@ -8643,8 +9762,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{352DEE47-6D00-4A01-9D85-5821DFFD0E0D}" name="RBA_478911" displayName="RBA_478911" ref="A2:K21" totalsRowShown="0" headerRowDxfId="11" tableBorderDxfId="10">
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{352DEE47-6D00-4A01-9D85-5821DFFD0E0D}" name="RBA_478911" displayName="RBA_478911" ref="A2:K21" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A2:K21" xr:uid="{AEB73607-C281-450A-B481-305282F70C69}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{769116A9-6701-431A-B87F-E8B659355301}" name="Part Number - Assembly"/>
@@ -8670,7 +9789,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D47D8DE9-2DF6-4639-8D5D-1D3F411550FF}" name="Table1" displayName="Table1" ref="A2:P23" totalsRowShown="0" headerRowDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D47D8DE9-2DF6-4639-8D5D-1D3F411550FF}" name="Table1" displayName="Table1" ref="A2:P23" totalsRowShown="0" headerRowDxfId="61">
   <autoFilter ref="A2:P23" xr:uid="{4CC865C4-70F4-4E79-B894-F6854082DA6C}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{94934CA5-B853-46A9-A868-2C7E751C9D63}" name="Manufacturer Part Number"/>
@@ -8695,55 +9814,55 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{89B47C9D-53AE-490D-9D1B-D29177F34A8D}" name="Table2" displayName="Table2" ref="A26:O51" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{89B47C9D-53AE-490D-9D1B-D29177F34A8D}" name="Table2" displayName="Table2" ref="A26:O51" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="A26:O51" xr:uid="{3D413324-657D-4CBA-A833-F88007EF4264}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{B2E70E41-9E16-49CA-A688-7AC18C1ED016}" name="Manufacturer Part Number" dataDxfId="54" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{6B59215C-904B-43A0-9B4A-AB0E67299905}" name="Manufacturer" dataDxfId="53" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{DD20B8A8-53CD-4A48-AEE1-70BA807C8EEA}" name="Digi-Key Part Number" dataDxfId="52" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{D6FF6B24-3A2F-4CC8-A2BF-EC9E5C63F221}" name="Customer Reference" dataDxfId="51" dataCellStyle="Normal 2"/>
-    <tableColumn id="6" xr3:uid="{00154DED-35B4-4DC6-A5CA-366FDF6CF4A8}" name="Packaging" dataDxfId="50" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{7510C95A-484A-4DC4-9287-E7E4048CE55F}" name="Part Status" dataDxfId="49" dataCellStyle="Normal 2"/>
-    <tableColumn id="8" xr3:uid="{86130162-85F0-4EF0-90A3-60A56AACDF7B}" name="Quantity" dataDxfId="48" dataCellStyle="Normal 2"/>
-    <tableColumn id="9" xr3:uid="{A253EF67-AEDC-4815-89E7-BF69910B09B6}" name="Unit Price" dataDxfId="47" dataCellStyle="Normal 2"/>
-    <tableColumn id="10" xr3:uid="{92B290F7-25C2-4F72-A522-FCE1AA821946}" name="Extended Price" dataDxfId="46" dataCellStyle="Currency"/>
-    <tableColumn id="11" xr3:uid="{513AEB4C-DFAB-4E29-92B7-65C904FF7D01}" name="Quantity Available" dataDxfId="45" dataCellStyle="Normal 2"/>
-    <tableColumn id="12" xr3:uid="{69413C94-7AF0-479A-AEDD-64F66D6F47DE}" name="Mfg Std Lead Time" dataDxfId="44" dataCellStyle="Normal 2"/>
-    <tableColumn id="13" xr3:uid="{7240CA0E-359D-4DB8-8A48-E5A9E8C25292}" name="Description" dataDxfId="43" dataCellStyle="Normal 2"/>
-    <tableColumn id="14" xr3:uid="{83DDBE5C-9AB8-432E-B6EC-0900714F0852}" name="RoHS Status" dataDxfId="42" dataCellStyle="Normal 2"/>
-    <tableColumn id="15" xr3:uid="{E5A739E3-772E-4109-84A6-8264447B7682}" name="Lead Free Status" dataDxfId="41" dataCellStyle="Normal 2"/>
-    <tableColumn id="16" xr3:uid="{4317AFA4-A1A2-480B-9930-78E13685E7A5}" name="REACH Status" dataDxfId="40" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{B2E70E41-9E16-49CA-A688-7AC18C1ED016}" name="Manufacturer Part Number" dataDxfId="58" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{6B59215C-904B-43A0-9B4A-AB0E67299905}" name="Manufacturer" dataDxfId="57" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{DD20B8A8-53CD-4A48-AEE1-70BA807C8EEA}" name="Digi-Key Part Number" dataDxfId="56" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{D6FF6B24-3A2F-4CC8-A2BF-EC9E5C63F221}" name="Customer Reference" dataDxfId="55" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{00154DED-35B4-4DC6-A5CA-366FDF6CF4A8}" name="Packaging" dataDxfId="54" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{7510C95A-484A-4DC4-9287-E7E4048CE55F}" name="Part Status" dataDxfId="53" dataCellStyle="Normal 2"/>
+    <tableColumn id="8" xr3:uid="{86130162-85F0-4EF0-90A3-60A56AACDF7B}" name="Quantity" dataDxfId="52" dataCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{A253EF67-AEDC-4815-89E7-BF69910B09B6}" name="Unit Price" dataDxfId="51" dataCellStyle="Normal 2"/>
+    <tableColumn id="10" xr3:uid="{92B290F7-25C2-4F72-A522-FCE1AA821946}" name="Extended Price" dataDxfId="50" dataCellStyle="Currency"/>
+    <tableColumn id="11" xr3:uid="{513AEB4C-DFAB-4E29-92B7-65C904FF7D01}" name="Quantity Available" dataDxfId="49" dataCellStyle="Normal 2"/>
+    <tableColumn id="12" xr3:uid="{69413C94-7AF0-479A-AEDD-64F66D6F47DE}" name="Mfg Std Lead Time" dataDxfId="48" dataCellStyle="Normal 2"/>
+    <tableColumn id="13" xr3:uid="{7240CA0E-359D-4DB8-8A48-E5A9E8C25292}" name="Description" dataDxfId="47" dataCellStyle="Normal 2"/>
+    <tableColumn id="14" xr3:uid="{83DDBE5C-9AB8-432E-B6EC-0900714F0852}" name="RoHS Status" dataDxfId="46" dataCellStyle="Normal 2"/>
+    <tableColumn id="15" xr3:uid="{E5A739E3-772E-4109-84A6-8264447B7682}" name="Lead Free Status" dataDxfId="45" dataCellStyle="Normal 2"/>
+    <tableColumn id="16" xr3:uid="{4317AFA4-A1A2-480B-9930-78E13685E7A5}" name="REACH Status" dataDxfId="44" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{51F21E7A-B121-45DE-A450-51DFD62AB368}" name="Table5" displayName="Table5" ref="A54:O59" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" tableBorderDxfId="37" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{51F21E7A-B121-45DE-A450-51DFD62AB368}" name="Table5" displayName="Table5" ref="A54:O59" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41" headerRowCellStyle="Normal 2">
   <autoFilter ref="A54:O59" xr:uid="{E5775DE7-B0D6-434B-9E81-8E797CB33C8F}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{20A9B34A-0BDE-406C-9284-42396D12E1E8}" name="Manufacturer Part Number" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{370D2A53-7D06-4073-A070-AAD23FF99906}" name="Manufacturer" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{C2834F26-8D66-4C19-8B65-AAA5D1688301}" name="Digi-Key Part Number" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{FB6416D0-BFFD-46A4-B485-8DCAF43A11AB}" name="Customer Reference" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{56A695A0-C403-4B74-B146-F0D3B63EA053}" name="Packaging" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{20E6FA99-F191-48F9-ACD1-BC6CF10711CE}" name="Part Status" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{35B7773A-8FD8-428B-873D-343086AC7F9A}" name="Quantity" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{7E0C5B7A-E6F5-442F-8138-B9CC70588614}" name="Unit Price" dataDxfId="29" dataCellStyle="Currency"/>
-    <tableColumn id="9" xr3:uid="{AC6F2354-427F-4590-BBC4-C2CCD5E5D76F}" name="Extended Price" dataDxfId="28" dataCellStyle="Currency"/>
-    <tableColumn id="10" xr3:uid="{9CB6BCD3-C29A-4EEB-8E62-7BD5605AC29E}" name="Quantity Available" dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{B7AA4FE9-D5A6-41AB-8B53-DEDADD7AB2C1}" name="Mfg Std Lead Time" dataDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{08002C5C-4042-403A-B796-9C757374529C}" name="Description" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{C1F04F0D-0F9F-4D6E-B682-02A8FAA992EC}" name="RoHS Status" dataDxfId="24"/>
-    <tableColumn id="14" xr3:uid="{DACC60B8-D45B-4197-BD16-E6A586A16303}" name="Lead Free Status" dataDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{068DA1C5-D89C-4B2F-A7BC-588FDBF44AE5}" name="REACH Status" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{20A9B34A-0BDE-406C-9284-42396D12E1E8}" name="Manufacturer Part Number" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{370D2A53-7D06-4073-A070-AAD23FF99906}" name="Manufacturer" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{C2834F26-8D66-4C19-8B65-AAA5D1688301}" name="Digi-Key Part Number" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{FB6416D0-BFFD-46A4-B485-8DCAF43A11AB}" name="Customer Reference" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{56A695A0-C403-4B74-B146-F0D3B63EA053}" name="Packaging" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{20E6FA99-F191-48F9-ACD1-BC6CF10711CE}" name="Part Status" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{35B7773A-8FD8-428B-873D-343086AC7F9A}" name="Quantity" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{7E0C5B7A-E6F5-442F-8138-B9CC70588614}" name="Unit Price" dataDxfId="33" dataCellStyle="Currency"/>
+    <tableColumn id="9" xr3:uid="{AC6F2354-427F-4590-BBC4-C2CCD5E5D76F}" name="Extended Price" dataDxfId="32" dataCellStyle="Currency"/>
+    <tableColumn id="10" xr3:uid="{9CB6BCD3-C29A-4EEB-8E62-7BD5605AC29E}" name="Quantity Available" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{B7AA4FE9-D5A6-41AB-8B53-DEDADD7AB2C1}" name="Mfg Std Lead Time" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{08002C5C-4042-403A-B796-9C757374529C}" name="Description" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{C1F04F0D-0F9F-4D6E-B682-02A8FAA992EC}" name="RoHS Status" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{DACC60B8-D45B-4197-BD16-E6A586A16303}" name="Lead Free Status" dataDxfId="27"/>
+    <tableColumn id="15" xr3:uid="{068DA1C5-D89C-4B2F-A7BC-588FDBF44AE5}" name="REACH Status" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{51B03A55-5760-438D-B7E3-27AE5EDA14E2}" name="RBA_478910" displayName="RBA_478910" ref="A2:K35" totalsRowShown="0" headerRowDxfId="13" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{51B03A55-5760-438D-B7E3-27AE5EDA14E2}" name="RBA_478910" displayName="RBA_478910" ref="A2:K35" totalsRowShown="0" headerRowDxfId="25" tableBorderDxfId="24">
   <autoFilter ref="A2:K35" xr:uid="{AEB73607-C281-450A-B481-305282F70C69}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{28EB3F0E-7C21-4114-A71E-1D2D6860B112}" name="Part Number - Assembly"/>
@@ -8769,7 +9888,33 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2EB5B78D-F75B-4ADB-AD4F-10833E759F0D}" name="RBA_4789115" displayName="RBA_4789115" ref="A2:K21" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{B925081B-F596-441A-B7D7-B2545F85C26A}" name="RBA_47816" displayName="RBA_47816" ref="A2:K23" totalsRowShown="0" headerRowDxfId="23" tableBorderDxfId="22">
+  <autoFilter ref="A2:K23" xr:uid="{AEB73607-C281-450A-B481-305282F70C69}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{9EAF2B20-D6AC-4F9A-8E78-132DF715467C}" name="Part Number - Assembly" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{EB443697-152E-4F70-A2A0-8273888F1490}" name="Thumbnail"/>
+    <tableColumn id="3" xr3:uid="{5DBB9DB6-E618-475C-9C52-7AF33214A21C}" name="Quantity" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{0C044D75-7433-413C-97D5-717D6C270EEA}" name="Vendor"/>
+    <tableColumn id="5" xr3:uid="{B0D37B4D-9649-4597-9482-8F85281F68E0}" name="Vendor Link">
+      <calculatedColumnFormula>HYPERLINK("https://8020.net/20-2040.html", "20-2040")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{9B1F7DA3-464C-49E0-9953-BD51FCEFC195}" name="Unit Price" dataCellStyle="Currency"/>
+    <tableColumn id="9" xr3:uid="{30B684D1-A350-438D-974B-B87094D99B43}" name="Extended Price" dataCellStyle="Currency">
+      <calculatedColumnFormula>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{D2F81D07-C88C-4F65-87D4-9C6419D50FC9}" name="Description"/>
+    <tableColumn id="16" xr3:uid="{05D8F828-BDB8-4A0B-B1AE-74F49932D77B}" name="Comments"/>
+    <tableColumn id="6" xr3:uid="{D7C9A8B2-432D-43C1-907D-1B8273A9832F}" name="Alternative Vendor"/>
+    <tableColumn id="7" xr3:uid="{7453B8B8-662C-421F-B848-EC6E87E78D1F}" name="Alternative Vendor Link">
+      <calculatedColumnFormula>HYPERLINK("https://www.amazon.com/Aluminum-Extrusion-European-Standard-Anodized/dp/B08CN92SP1/ref=sr_1_7?crid=3VIGODRUEW0NZ&amp;keywords=150mm+2040&amp;qid=1645476496&amp;sprefix=150mm+2040%2Caps%2C147&amp;sr=8-7", "Amazon")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2EB5B78D-F75B-4ADB-AD4F-10833E759F0D}" name="RBA_4789115" displayName="RBA_4789115" ref="A2:K21" totalsRowShown="0" headerRowDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="A2:K21" xr:uid="{AEB73607-C281-450A-B481-305282F70C69}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{96A5D40A-13D5-47DE-BB1C-E84B57C35604}" name="Part Number - Assembly"/>
@@ -8794,8 +9939,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5F19F858-3852-46DB-93B7-7E1A804E28EC}" name="RBA_4" displayName="RBA_4" ref="A2:K20" totalsRowShown="0" headerRowDxfId="21" tableBorderDxfId="20">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5F19F858-3852-46DB-93B7-7E1A804E28EC}" name="RBA_4" displayName="RBA_4" ref="A2:K20" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
   <autoFilter ref="A2:K20" xr:uid="{AEB73607-C281-450A-B481-305282F70C69}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{60D8FA4B-5C61-44F5-8793-485C259B3860}" name="Part Number - Assembly"/>
@@ -8820,8 +9965,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{ACF8698A-0D3D-4C41-B020-0B1752F956DC}" name="RBA_478911512" displayName="RBA_478911512" ref="A2:K21" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{ACF8698A-0D3D-4C41-B020-0B1752F956DC}" name="RBA_478911512" displayName="RBA_478911512" ref="A2:K21" totalsRowShown="0" headerRowDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="A2:K21" xr:uid="{AEB73607-C281-450A-B481-305282F70C69}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{62957102-9908-4A5A-871C-4E9FF0EE8FEA}" name="Part Number - Assembly"/>
@@ -8839,32 +9984,6 @@
     <tableColumn id="16" xr3:uid="{42EAB9A2-76A8-4C9B-80C1-CE964487A54C}" name="Comments"/>
     <tableColumn id="6" xr3:uid="{C5C92A0A-5E82-4E8B-8E58-B74553ACA743}" name="Alternative Vendor"/>
     <tableColumn id="7" xr3:uid="{67448936-178B-4A04-AD8A-1ED3150735E5}" name="Alternative Vendor Link">
-      <calculatedColumnFormula>HYPERLINK("https://www.amazon.com/Aluminum-Extrusion-European-Standard-Anodized/dp/B08CN92SP1/ref=sr_1_7?crid=3VIGODRUEW0NZ&amp;keywords=150mm+2040&amp;qid=1645476496&amp;sprefix=150mm+2040%2Caps%2C147&amp;sr=8-7", "Amazon")</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{0597874C-7453-4A6F-A610-8F4D8D47EB3F}" name="RBA_47891151213" displayName="RBA_47891151213" ref="A2:K35" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A2:K35" xr:uid="{AEB73607-C281-450A-B481-305282F70C69}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{7AFE4DA7-458C-4B5D-9F3E-7B2FC1AC1F30}" name="Part Number - Assembly" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{D09B2BF6-3EEA-49BD-A815-693278D52D4E}" name="Thumbnail"/>
-    <tableColumn id="3" xr3:uid="{D220CA10-E01E-4F84-B86E-AAD6D96BE7A6}" name="Quantity" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{EBBFBA49-83B8-4467-B584-F209D45D0777}" name="Vendor"/>
-    <tableColumn id="5" xr3:uid="{F66B6064-99C8-4A8B-BBE9-3358FCC8A0D7}" name="Vendor Link">
-      <calculatedColumnFormula>HYPERLINK("https://8020.net/20-2040.html", "20-2040")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{DF84A1FF-16CC-4D3C-8626-363C794C0911}" name="Unit Price" dataCellStyle="Currency"/>
-    <tableColumn id="9" xr3:uid="{65648BEE-77DD-4D42-B639-6FFFD268AF96}" name="Extended Price" dataCellStyle="Currency">
-      <calculatedColumnFormula>RBA_47891151213[[#This Row],[Unit Price]]*RBA_47891151213[[#This Row],[Quantity]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" xr3:uid="{B23B2726-0613-444C-83C6-160616321B7C}" name="Description"/>
-    <tableColumn id="16" xr3:uid="{2C126F60-921E-4CDC-9256-9570FC692729}" name="Comments"/>
-    <tableColumn id="6" xr3:uid="{091EC87E-7971-478C-A108-1D714813D8A4}" name="Alternative Vendor"/>
-    <tableColumn id="7" xr3:uid="{6D405A3A-B1BF-4651-BDE5-DD392243CD75}" name="Alternative Vendor Link">
       <calculatedColumnFormula>HYPERLINK("https://www.amazon.com/Aluminum-Extrusion-European-Standard-Anodized/dp/B08CN92SP1/ref=sr_1_7?crid=3VIGODRUEW0NZ&amp;keywords=150mm+2040&amp;qid=1645476496&amp;sprefix=150mm+2040%2Caps%2C147&amp;sr=8-7", "Amazon")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9172,7 +10291,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9195,16 +10314,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="33.75">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:18" ht="23.25">
       <c r="A2" s="18" t="s">
@@ -9239,7 +10358,7 @@
       </c>
       <c r="L2" s="28">
         <f>SUM(Table13[Extended Price])</f>
-        <v>1367.3957792125987</v>
+        <v>1583.4433625459321</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -9302,14 +10421,14 @@
       <c r="I5" t="s">
         <v>228</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36" t="s">
+      <c r="L5" s="39"/>
+      <c r="M5" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="N5" s="36"/>
+      <c r="N5" s="39"/>
       <c r="P5" s="29" t="s">
         <v>235</v>
       </c>
@@ -9404,8 +10523,20 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="C8" t="s">
+        <v>443</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <f>'Mechanical - Ebox_Assy'!L3</f>
+        <v>216.04758333333342</v>
+      </c>
+      <c r="F8" s="7">
+        <f>Table13[[#This Row],[Unit Price]]*Table13[[#This Row],[Quantity]]</f>
+        <v>216.04758333333342</v>
+      </c>
       <c r="K8" s="24" t="s">
         <v>231</v>
       </c>
@@ -9448,6 +10579,18 @@
     <mergeCell ref="M5:N5"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F9">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E9">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -9459,7 +10602,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E9">
+  <conditionalFormatting sqref="E3:E8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -9480,6 +10623,817 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DDB37D-6351-42A1-98A8-C85275010919}">
+  <dimension ref="A1:AF22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="50.1" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="47" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A1" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+    </row>
+    <row r="2" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A3" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="34">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E3" s="32" t="str">
+        <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
+        <v>PETG</v>
+      </c>
+      <c r="F3" s="5">
+        <f>0.01899*27</f>
+        <v>0.51273000000000002</v>
+      </c>
+      <c r="G3" s="5">
+        <f>RBA_478[[#This Row],[Unit Price]]*RBA_478[[#This Row],[Quantity]]</f>
+        <v>0.51273000000000002</v>
+      </c>
+      <c r="H3" t="s">
+        <v>299</v>
+      </c>
+      <c r="I3" t="s">
+        <v>258</v>
+      </c>
+      <c r="J3" t="s">
+        <v>221</v>
+      </c>
+      <c r="K3" s="32" t="str">
+        <f>HYPERLINK("https://www.amazon.com/Aluminum-Extrusion-European-Standard-Anodized/dp/B08CN92SP1/ref=sr_1_7?crid=3VIGODRUEW0NZ&amp;keywords=150mm+2040&amp;qid=1645476496&amp;sprefix=150mm+2040%2Caps%2C147&amp;sr=8-7", "Amazon")</f>
+        <v>Amazon</v>
+      </c>
+      <c r="L3" s="7">
+        <f>SUM(RBA_478[Extended Price])</f>
+        <v>7.3609699999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A4" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="31">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" s="32" t="str">
+        <f>HYPERLINK("https://amzn.to/3pcU6xT", "Amazon")</f>
+        <v>Amazon</v>
+      </c>
+      <c r="F4" s="5">
+        <f>15.99/20</f>
+        <v>0.79949999999999999</v>
+      </c>
+      <c r="G4" s="5">
+        <f>RBA_478[[#This Row],[Unit Price]]*RBA_478[[#This Row],[Quantity]]</f>
+        <v>3.198</v>
+      </c>
+      <c r="H4" t="s">
+        <v>271</v>
+      </c>
+      <c r="K4" s="32"/>
+    </row>
+    <row r="5" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A5" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="34">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="32" t="str">
+        <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
+        <v>PETG</v>
+      </c>
+      <c r="F5" s="5">
+        <f>0.01899*8</f>
+        <v>0.15192</v>
+      </c>
+      <c r="G5" s="5">
+        <f>RBA_478[[#This Row],[Unit Price]]*RBA_478[[#This Row],[Quantity]]</f>
+        <v>0.30384</v>
+      </c>
+      <c r="H5" t="s">
+        <v>295</v>
+      </c>
+      <c r="I5" t="s">
+        <v>219</v>
+      </c>
+      <c r="K5" s="32"/>
+    </row>
+    <row r="6" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A6" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="34">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E6" s="32" t="str">
+        <f>HYPERLINK("https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/970300581/6174852", "DigiKey")</f>
+        <v>DigiKey</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="G6" s="5">
+        <f>RBA_478[[#This Row],[Quantity]]*RBA_478[[#This Row],[Unit Price]]</f>
+        <v>0.76</v>
+      </c>
+      <c r="H6" t="s">
+        <v>282</v>
+      </c>
+      <c r="K6" s="32" t="str">
+        <f t="shared" ref="K6" si="0">HYPERLINK("", "Amazon")</f>
+        <v>Amazon</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A7" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="C7" s="34">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E7" s="32" t="str">
+        <f>HYPERLINK("https://www.mcmaster.com/92095A218/", "McMaster")</f>
+        <v>McMaster</v>
+      </c>
+      <c r="F7" s="5">
+        <f>9.22/25</f>
+        <v>0.36880000000000002</v>
+      </c>
+      <c r="G7" s="5">
+        <f>RBA_478[[#This Row],[Unit Price]]*RBA_478[[#This Row],[Quantity]]</f>
+        <v>0.73760000000000003</v>
+      </c>
+      <c r="H7" t="s">
+        <v>296</v>
+      </c>
+      <c r="I7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K7" s="32" t="str">
+        <f>HYPERLINK("https://amzn.to/3I2Pemt", "Amazon")</f>
+        <v>Amazon</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A8" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="C8" s="34">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" s="32" t="str">
+        <f>HYPERLINK("https://www.mcmaster.com/92095A223/", "McMaster")</f>
+        <v>McMaster</v>
+      </c>
+      <c r="F8" s="5">
+        <f>11.11/25</f>
+        <v>0.44439999999999996</v>
+      </c>
+      <c r="G8" s="5">
+        <f>RBA_478[[#This Row],[Unit Price]]*RBA_478[[#This Row],[Quantity]]</f>
+        <v>1.7775999999999998</v>
+      </c>
+      <c r="H8" t="s">
+        <v>297</v>
+      </c>
+      <c r="I8" t="s">
+        <v>281</v>
+      </c>
+      <c r="K8" s="32" t="str">
+        <f>HYPERLINK("https://amzn.to/3sVaTGL", "Amazon")</f>
+        <v>Amazon</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A9" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" s="34">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E9" s="32" t="str">
+        <f>HYPERLINK("https://www.mcmaster.com/90591A260/", "McMaster")</f>
+        <v>McMaster</v>
+      </c>
+      <c r="F9" s="5">
+        <f>3.56/100</f>
+        <v>3.56E-2</v>
+      </c>
+      <c r="G9" s="5">
+        <f>RBA_478[[#This Row],[Unit Price]]*RBA_478[[#This Row],[Quantity]]</f>
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>275</v>
+      </c>
+      <c r="I9" t="s">
+        <v>281</v>
+      </c>
+      <c r="K9" s="32" t="str">
+        <f>HYPERLINK("https://amzn.to/3v5pm5K", "Amazon")</f>
+        <v>Amazon</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="K10" s="32"/>
+    </row>
+    <row r="11" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="K11" s="32"/>
+    </row>
+    <row r="12" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="K12" s="32"/>
+    </row>
+    <row r="13" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="K13" s="32"/>
+    </row>
+    <row r="14" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="K14" s="32"/>
+    </row>
+    <row r="15" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="K15" s="32"/>
+    </row>
+    <row r="16" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="K16" s="32"/>
+    </row>
+    <row r="17" spans="1:11" ht="50.1" customHeight="1">
+      <c r="E17" s="32"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="K17" s="32"/>
+    </row>
+    <row r="18" spans="1:11" ht="50.1" customHeight="1">
+      <c r="E18" s="32"/>
+      <c r="G18" s="5"/>
+      <c r="K18" s="32"/>
+    </row>
+    <row r="19" spans="1:11" ht="50.1" customHeight="1">
+      <c r="E19" s="32"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="K19" s="32"/>
+    </row>
+    <row r="20" spans="1:11" ht="50.1" customHeight="1">
+      <c r="E20" s="32"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="K20" s="32"/>
+    </row>
+    <row r="21" spans="1:11" ht="50.1" customHeight="1">
+      <c r="E21" s="32"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="K21" s="32"/>
+    </row>
+    <row r="22" spans="1:11" ht="50.1" customHeight="1">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A22:H22"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G18:G21">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:F21">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:F8 F10:F17">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:G8 G10:G21">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:F8 F10:F21">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F9">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G9">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F9">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G9">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G9">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03C23AA-A26F-4100-BA01-76F4BB73F917}">
   <dimension ref="A1:AF22"/>
   <sheetViews>
@@ -9524,23 +11478,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>414</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
@@ -9862,14 +11816,14 @@
       <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="5"/>
     </row>
   </sheetData>
@@ -10305,7 +12259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39530449-7EC3-47DC-B268-2C2AD3FB1A65}">
   <dimension ref="A1:AF22"/>
   <sheetViews>
@@ -10350,23 +12304,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
@@ -10653,16 +12607,16 @@
       <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="5">
         <f>SUM(RBA_4789[Extended Price])</f>
         <v>6.5005199999999999</v>
@@ -11041,7 +12995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88A1ECB-E919-4492-974C-48D8F04B0F0F}">
   <dimension ref="A1:AF22"/>
   <sheetViews>
@@ -11086,23 +13040,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
@@ -11416,16 +13370,16 @@
       <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="5">
         <f>SUM(RBA_478911[Extended Price])</f>
         <v>6.8655099999999996</v>
@@ -11808,8 +13762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0E5AEB-69FF-447D-8154-D544AC848EA4}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11836,23 +13790,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="58.5" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
@@ -12563,52 +14517,52 @@
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="43">
+      <c r="G17" s="36">
         <v>1</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="37">
         <v>0</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="37">
         <v>0</v>
       </c>
-      <c r="J17" s="43">
+      <c r="J17" s="36">
         <v>1001</v>
       </c>
-      <c r="K17" s="43" t="s">
+      <c r="K17" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="L17" s="43" t="s">
+      <c r="L17" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="M17" s="43" t="s">
+      <c r="M17" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="N17" s="43" t="s">
+      <c r="N17" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="O17" s="43" t="s">
+      <c r="O17" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="P17" s="43" t="s">
+      <c r="P17" s="36" t="s">
         <v>356</v>
       </c>
     </row>
@@ -12763,39 +14717,39 @@
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
       <c r="I24" s="5">
         <f>SUM(Table1[Extended Price])</f>
         <v>17.48</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="47.25" customHeight="1">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="3" t="s">
@@ -13930,39 +15884,39 @@
       <c r="O51" s="9"/>
     </row>
     <row r="52" spans="1:15" ht="27.75" customHeight="1">
-      <c r="A52" s="37" t="s">
+      <c r="A52" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
       <c r="I52" s="7">
         <f>SUM(Table2[Extended Price])</f>
         <v>34.43</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="41.25" customHeight="1">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="40"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="43"/>
+      <c r="N53" s="43"/>
+      <c r="O53" s="43"/>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="11" t="s">
@@ -14154,16 +16108,16 @@
       <c r="O59" s="12"/>
     </row>
     <row r="60" spans="1:15" ht="27.75" customHeight="1">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
       <c r="I60" s="7">
         <f>SUM(Table5[Extended Price])</f>
         <v>105.52000000000001</v>
@@ -14305,23 +16259,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>303</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
@@ -14779,7 +16733,7 @@
       <c r="D17" t="s">
         <v>222</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="35">
         <f>'Mechanical - Carriage Assembly'!L3</f>
         <v>107.97528</v>
       </c>
@@ -16033,6 +17987,1239 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CADD61D-F9D2-4804-993E-5F65E31FCDDD}">
+  <dimension ref="A1:AF23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="50.1" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="47" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A1" s="44" t="s">
+        <v>422</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+    </row>
+    <row r="2" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A3" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" s="34">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" s="5">
+        <f>'Electrical '!I52</f>
+        <v>34.43</v>
+      </c>
+      <c r="G3" s="5">
+        <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
+        <v>34.43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>441</v>
+      </c>
+      <c r="K3" s="32"/>
+      <c r="L3" s="7">
+        <f>SUM(RBA_47816[Extended Price])</f>
+        <v>216.04758333333342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A4" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="C4" s="34">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="32" t="str">
+        <f>HYPERLINK("https://developer.nvidia.com/embedded/jetson-nano-2gb-developer-kit","Nvidia")</f>
+        <v>Nvidia</v>
+      </c>
+      <c r="F4" s="5">
+        <v>59.99</v>
+      </c>
+      <c r="G4" s="5">
+        <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
+        <v>59.99</v>
+      </c>
+      <c r="K4" s="32"/>
+    </row>
+    <row r="5" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A5" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="C5" s="34">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="32" t="str">
+        <f>HYPERLINK("https://amzn.to/3t85BIe","Amazon")</f>
+        <v>Amazon</v>
+      </c>
+      <c r="F5" s="5">
+        <f>7.99/2</f>
+        <v>3.9950000000000001</v>
+      </c>
+      <c r="G5" s="5">
+        <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
+        <v>3.9950000000000001</v>
+      </c>
+      <c r="K5" s="32"/>
+    </row>
+    <row r="6" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A6" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="C6" s="34">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E6" s="32" t="str">
+        <f>HYPERLINK("https://bit.ly/3pgw6dg","Seahorse")</f>
+        <v>Seahorse</v>
+      </c>
+      <c r="F6" s="5">
+        <v>27.21</v>
+      </c>
+      <c r="G6" s="5">
+        <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
+        <v>27.21</v>
+      </c>
+      <c r="K6" s="32"/>
+    </row>
+    <row r="7" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A7" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="C7" s="34">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" s="32" t="str">
+        <f>HYPERLINK("https://amzn.to/3JW5hmK","Amazon")</f>
+        <v>Amazon</v>
+      </c>
+      <c r="F7" s="5">
+        <f>26.99/5</f>
+        <v>5.3979999999999997</v>
+      </c>
+      <c r="G7" s="5">
+        <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
+        <v>32.387999999999998</v>
+      </c>
+      <c r="K7" s="32"/>
+    </row>
+    <row r="8" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A8" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="C8" s="34">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E8" s="32" t="str">
+        <f>HYPERLINK("https://amzn.to/3JNUvPk", "Amazon")</f>
+        <v>Amazon</v>
+      </c>
+      <c r="F8" s="5">
+        <v>28.49</v>
+      </c>
+      <c r="G8" s="5">
+        <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
+        <v>28.49</v>
+      </c>
+      <c r="K8" s="32"/>
+    </row>
+    <row r="9" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A9" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="C9" s="34">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" s="32" t="str">
+        <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
+        <v>PETG</v>
+      </c>
+      <c r="F9" s="5">
+        <f>0.01899*14</f>
+        <v>0.26585999999999999</v>
+      </c>
+      <c r="G9" s="5">
+        <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
+        <v>0.53171999999999997</v>
+      </c>
+      <c r="H9" t="s">
+        <v>446</v>
+      </c>
+      <c r="K9" s="32"/>
+    </row>
+    <row r="10" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A10" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="C10" s="34">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" s="32" t="str">
+        <f>HYPERLINK("https://amzn.to/3M5yQ72", "Amazon")</f>
+        <v>Amazon</v>
+      </c>
+      <c r="F10" s="5">
+        <f>13.99/2</f>
+        <v>6.9950000000000001</v>
+      </c>
+      <c r="G10" s="5">
+        <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
+        <v>6.9950000000000001</v>
+      </c>
+      <c r="K10" s="32"/>
+    </row>
+    <row r="11" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A11" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="C11" s="34">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E11" s="32" t="str">
+        <f>HYPERLINK("https://amzn.to/35rtwKr", "Amazon")</f>
+        <v>Amazon</v>
+      </c>
+      <c r="F11" s="5">
+        <v>11.99</v>
+      </c>
+      <c r="G11" s="5">
+        <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
+        <v>11.99</v>
+      </c>
+      <c r="K11" s="32"/>
+    </row>
+    <row r="12" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A12" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="C12" s="34">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E12" s="32" t="str">
+        <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
+        <v>PETG</v>
+      </c>
+      <c r="F12" s="5">
+        <f>0.01899*27</f>
+        <v>0.51273000000000002</v>
+      </c>
+      <c r="G12" s="5">
+        <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
+        <v>0.51273000000000002</v>
+      </c>
+      <c r="H12" t="s">
+        <v>299</v>
+      </c>
+      <c r="I12" t="s">
+        <v>258</v>
+      </c>
+      <c r="J12" t="s">
+        <v>221</v>
+      </c>
+      <c r="K12" s="32"/>
+    </row>
+    <row r="13" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A13" s="34" t="s">
+        <v>432</v>
+      </c>
+      <c r="C13" s="34">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" s="32" t="str">
+        <f>HYPERLINK("https://amzn.to/35x7YMk","Amazon")</f>
+        <v>Amazon</v>
+      </c>
+      <c r="F13" s="5">
+        <f>15.99/200</f>
+        <v>7.9950000000000007E-2</v>
+      </c>
+      <c r="G13" s="5">
+        <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
+        <v>0.31980000000000003</v>
+      </c>
+      <c r="K13" s="32"/>
+    </row>
+    <row r="14" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A14" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="C14" s="34">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="32" t="str">
+        <f>HYPERLINK("https://amzn.to/359tuHm", "Amazon")</f>
+        <v>Amazon</v>
+      </c>
+      <c r="F14" s="5">
+        <f>6.99/50</f>
+        <v>0.13980000000000001</v>
+      </c>
+      <c r="G14" s="5">
+        <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
+        <v>1.1184000000000001</v>
+      </c>
+      <c r="K14" s="32"/>
+    </row>
+    <row r="15" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A15" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="C15" s="34">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="32" t="str">
+        <f>HYPERLINK("https://amzn.to/3HoIvlN", "Amazon")</f>
+        <v>Amazon</v>
+      </c>
+      <c r="F15" s="5">
+        <f>9.79/30</f>
+        <v>0.32633333333333331</v>
+      </c>
+      <c r="G15" s="5">
+        <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
+        <v>1.3053333333333332</v>
+      </c>
+      <c r="K15" s="32"/>
+    </row>
+    <row r="16" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A16" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="C16" s="34">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E16" s="32" t="str">
+        <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
+        <v>PETG</v>
+      </c>
+      <c r="F16" s="5">
+        <f>0.01899*43</f>
+        <v>0.81657000000000002</v>
+      </c>
+      <c r="G16" s="5">
+        <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
+        <v>0.81657000000000002</v>
+      </c>
+      <c r="H16" t="s">
+        <v>444</v>
+      </c>
+      <c r="K16" s="32"/>
+    </row>
+    <row r="17" spans="1:11" ht="50.1" customHeight="1">
+      <c r="A17" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="C17" s="34">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" s="32" t="str">
+        <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
+        <v>PETG</v>
+      </c>
+      <c r="F17" s="5">
+        <f>0.01899*43</f>
+        <v>0.81657000000000002</v>
+      </c>
+      <c r="G17" s="5">
+        <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
+        <v>0.81657000000000002</v>
+      </c>
+      <c r="H17" t="s">
+        <v>445</v>
+      </c>
+      <c r="K17" s="32"/>
+    </row>
+    <row r="18" spans="1:11" ht="50.1" customHeight="1">
+      <c r="A18" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="C18" s="34">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>269</v>
+      </c>
+      <c r="E18" s="32" t="str">
+        <f>HYPERLINK("https://www.mcmaster.com/94500A223/", "McMaster")</f>
+        <v>McMaster</v>
+      </c>
+      <c r="F18">
+        <f>10.68/100</f>
+        <v>0.10679999999999999</v>
+      </c>
+      <c r="G18" s="5">
+        <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
+        <v>1.4951999999999999</v>
+      </c>
+      <c r="K18" s="32"/>
+    </row>
+    <row r="19" spans="1:11" ht="50.1" customHeight="1">
+      <c r="A19" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="C19" s="34">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>221</v>
+      </c>
+      <c r="E19" s="32" t="str">
+        <f>HYPERLINK("https://amzn.to/3pifPEE", "Amazon")</f>
+        <v>Amazon</v>
+      </c>
+      <c r="F19" s="5">
+        <f>8.09/25</f>
+        <v>0.3236</v>
+      </c>
+      <c r="G19" s="5">
+        <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
+        <v>0.6472</v>
+      </c>
+      <c r="K19" s="32"/>
+    </row>
+    <row r="20" spans="1:11" ht="50.1" customHeight="1">
+      <c r="A20" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="C20" s="34">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>221</v>
+      </c>
+      <c r="E20" s="32" t="str">
+        <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
+        <v>PETG</v>
+      </c>
+      <c r="F20" s="5">
+        <f>0.01899*27</f>
+        <v>0.51273000000000002</v>
+      </c>
+      <c r="G20" s="5">
+        <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
+        <v>1.02546</v>
+      </c>
+      <c r="H20" t="s">
+        <v>299</v>
+      </c>
+      <c r="K20" s="32"/>
+    </row>
+    <row r="21" spans="1:11" ht="50.1" customHeight="1">
+      <c r="A21" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="C21" s="34">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>221</v>
+      </c>
+      <c r="E21" s="32" t="str">
+        <f>HYPERLINK("https://amzn.to/3slfva4", "Amazon")</f>
+        <v>Amazon</v>
+      </c>
+      <c r="F21" s="5">
+        <f>9.49/100</f>
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="G21" s="5">
+        <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
+        <v>0.37959999999999999</v>
+      </c>
+      <c r="K21" s="32"/>
+    </row>
+    <row r="22" spans="1:11" ht="50.1" customHeight="1">
+      <c r="A22" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="C22" s="34">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>269</v>
+      </c>
+      <c r="E22" s="32" t="str">
+        <f>HYPERLINK("https://www.mcmaster.com/92095A216/", "McMaster")</f>
+        <v>McMaster</v>
+      </c>
+      <c r="F22" s="5">
+        <f>7.64/25</f>
+        <v>0.30559999999999998</v>
+      </c>
+      <c r="G22" s="5">
+        <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
+        <v>0.61119999999999997</v>
+      </c>
+      <c r="H22" t="s">
+        <v>358</v>
+      </c>
+      <c r="K22" s="32"/>
+    </row>
+    <row r="23" spans="1:11" ht="50.1" customHeight="1">
+      <c r="A23" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C23" s="34">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>269</v>
+      </c>
+      <c r="E23" s="32" t="str">
+        <f>HYPERLINK("https://www.mcmaster.com/92095A208/", "McMaster")</f>
+        <v>McMaster</v>
+      </c>
+      <c r="F23" s="5">
+        <f>16.33/100</f>
+        <v>0.16329999999999997</v>
+      </c>
+      <c r="G23" s="5">
+        <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
+        <v>0.97979999999999978</v>
+      </c>
+      <c r="H23" t="s">
+        <v>285</v>
+      </c>
+      <c r="I23" t="s">
+        <v>286</v>
+      </c>
+      <c r="J23" t="s">
+        <v>221</v>
+      </c>
+      <c r="K23" s="32" t="str">
+        <f>HYPERLINK("https://amzn.to/3I9bwDb", "Amazon")</f>
+        <v>Amazon</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:O1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F18:F19 F21">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:F8 F10:F11 F13:F15">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:F8 F10:F11 F13:F15 F18:F19 F21">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F8">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F8">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F8 F12">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G23">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F8 F10:F23">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F23">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC9B82A-8476-4336-B4EB-9B033A2A00A7}">
   <dimension ref="A1:AF22"/>
   <sheetViews>
@@ -16077,23 +19264,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>377</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
@@ -16420,16 +19607,16 @@
       <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="5">
         <f>SUM(RBA_4789115[Extended Price])</f>
         <v>261.02616</v>
@@ -16620,7 +19807,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F6">
+  <conditionalFormatting sqref="F6 F3">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -16856,12 +20043,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD99E806-9200-462B-9863-0A0AB9EEB52E}">
   <dimension ref="A1:AF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1"/>
@@ -16901,23 +20088,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
@@ -17440,14 +20627,14 @@
       <c r="K20" s="32"/>
     </row>
     <row r="21" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="5"/>
     </row>
   </sheetData>
@@ -17559,7 +20746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932F0640-2BF0-4AC3-9F0A-10A047BD7334}">
   <dimension ref="A1:AF22"/>
   <sheetViews>
@@ -17604,23 +20791,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>379</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
@@ -17872,16 +21059,16 @@
       <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="5">
         <f>SUM(RBA_478911512[Extended Price])</f>
         <v>60.720000000000006</v>
@@ -18272,12 +21459,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735882B8-B540-46F3-A58B-0AB3F309C260}">
   <dimension ref="A1:AF35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1"/>
@@ -18317,23 +21504,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>379</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
@@ -18984,7 +22171,7 @@
         <v>69.959999999999994</v>
       </c>
       <c r="K25" s="32" t="str">
-        <f t="shared" ref="K22:K35" si="2">HYPERLINK("https://www.amazon.com/Aluminum-Extrusion-European-Standard-Anodized/dp/B08CN92SP1/ref=sr_1_7?crid=3VIGODRUEW0NZ&amp;keywords=150mm+2040&amp;qid=1645476496&amp;sprefix=150mm+2040%2Caps%2C147&amp;sr=8-7", "Amazon")</f>
+        <f t="shared" ref="K25:K32" si="2">HYPERLINK("https://www.amazon.com/Aluminum-Extrusion-European-Standard-Anodized/dp/B08CN92SP1/ref=sr_1_7?crid=3VIGODRUEW0NZ&amp;keywords=150mm+2040&amp;qid=1645476496&amp;sprefix=150mm+2040%2Caps%2C147&amp;sr=8-7", "Amazon")</f>
         <v>Amazon</v>
       </c>
     </row>
@@ -18996,7 +22183,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="32" t="str">
-        <f t="shared" ref="E22:E35" si="3">HYPERLINK("https://8020.net/20-2040.html", "20-2040")</f>
+        <f t="shared" ref="E26:E27" si="3">HYPERLINK("https://8020.net/20-2040.html", "20-2040")</f>
         <v>20-2040</v>
       </c>
       <c r="F26" s="5">
@@ -20315,7 +23502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352BB881-1A8F-42B7-8D24-2632762BB81C}">
   <dimension ref="A1:AF22"/>
   <sheetViews>
@@ -20360,23 +23547,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
@@ -20715,14 +23902,14 @@
       <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="5"/>
     </row>
   </sheetData>
@@ -20881,815 +24068,4 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DDB37D-6351-42A1-98A8-C85275010919}">
-  <dimension ref="A1:AF22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="50.1" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="89.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="47" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A1" s="41" t="s">
-        <v>298</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-    </row>
-    <row r="2" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A3" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="C3" s="34">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E3" s="32" t="str">
-        <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
-        <v>PETG</v>
-      </c>
-      <c r="F3" s="5">
-        <f>0.01899*27</f>
-        <v>0.51273000000000002</v>
-      </c>
-      <c r="G3" s="5">
-        <f>RBA_478[[#This Row],[Unit Price]]*RBA_478[[#This Row],[Quantity]]</f>
-        <v>0.51273000000000002</v>
-      </c>
-      <c r="H3" t="s">
-        <v>299</v>
-      </c>
-      <c r="I3" t="s">
-        <v>258</v>
-      </c>
-      <c r="J3" t="s">
-        <v>221</v>
-      </c>
-      <c r="K3" s="32" t="str">
-        <f>HYPERLINK("https://www.amazon.com/Aluminum-Extrusion-European-Standard-Anodized/dp/B08CN92SP1/ref=sr_1_7?crid=3VIGODRUEW0NZ&amp;keywords=150mm+2040&amp;qid=1645476496&amp;sprefix=150mm+2040%2Caps%2C147&amp;sr=8-7", "Amazon")</f>
-        <v>Amazon</v>
-      </c>
-      <c r="L3" s="7">
-        <f>SUM(RBA_478[Extended Price])</f>
-        <v>7.3609699999999991</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A4" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="C4" s="31">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E4" s="32" t="str">
-        <f>HYPERLINK("https://amzn.to/3pcU6xT", "Amazon")</f>
-        <v>Amazon</v>
-      </c>
-      <c r="F4" s="5">
-        <f>15.99/20</f>
-        <v>0.79949999999999999</v>
-      </c>
-      <c r="G4" s="5">
-        <f>RBA_478[[#This Row],[Unit Price]]*RBA_478[[#This Row],[Quantity]]</f>
-        <v>3.198</v>
-      </c>
-      <c r="H4" t="s">
-        <v>271</v>
-      </c>
-      <c r="K4" s="32"/>
-    </row>
-    <row r="5" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A5" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="C5" s="34">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E5" s="32" t="str">
-        <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
-        <v>PETG</v>
-      </c>
-      <c r="F5" s="5">
-        <f>0.01899*8</f>
-        <v>0.15192</v>
-      </c>
-      <c r="G5" s="5">
-        <f>RBA_478[[#This Row],[Unit Price]]*RBA_478[[#This Row],[Quantity]]</f>
-        <v>0.30384</v>
-      </c>
-      <c r="H5" t="s">
-        <v>295</v>
-      </c>
-      <c r="I5" t="s">
-        <v>219</v>
-      </c>
-      <c r="K5" s="32"/>
-    </row>
-    <row r="6" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A6" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="C6" s="34">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>283</v>
-      </c>
-      <c r="E6" s="32" t="str">
-        <f>HYPERLINK("https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/970300581/6174852", "DigiKey")</f>
-        <v>DigiKey</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.76</v>
-      </c>
-      <c r="G6" s="5">
-        <f>RBA_478[[#This Row],[Quantity]]*RBA_478[[#This Row],[Unit Price]]</f>
-        <v>0.76</v>
-      </c>
-      <c r="H6" t="s">
-        <v>282</v>
-      </c>
-      <c r="K6" s="32" t="str">
-        <f t="shared" ref="K6" si="0">HYPERLINK("", "Amazon")</f>
-        <v>Amazon</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A7" s="34" t="s">
-        <v>293</v>
-      </c>
-      <c r="C7" s="34">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E7" s="32" t="str">
-        <f>HYPERLINK("https://www.mcmaster.com/92095A218/", "McMaster")</f>
-        <v>McMaster</v>
-      </c>
-      <c r="F7" s="5">
-        <f>9.22/25</f>
-        <v>0.36880000000000002</v>
-      </c>
-      <c r="G7" s="5">
-        <f>RBA_478[[#This Row],[Unit Price]]*RBA_478[[#This Row],[Quantity]]</f>
-        <v>0.73760000000000003</v>
-      </c>
-      <c r="H7" t="s">
-        <v>296</v>
-      </c>
-      <c r="I7" t="s">
-        <v>281</v>
-      </c>
-      <c r="K7" s="32" t="str">
-        <f>HYPERLINK("https://amzn.to/3I2Pemt", "Amazon")</f>
-        <v>Amazon</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A8" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="C8" s="34">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E8" s="32" t="str">
-        <f>HYPERLINK("https://www.mcmaster.com/92095A223/", "McMaster")</f>
-        <v>McMaster</v>
-      </c>
-      <c r="F8" s="5">
-        <f>11.11/25</f>
-        <v>0.44439999999999996</v>
-      </c>
-      <c r="G8" s="5">
-        <f>RBA_478[[#This Row],[Unit Price]]*RBA_478[[#This Row],[Quantity]]</f>
-        <v>1.7775999999999998</v>
-      </c>
-      <c r="H8" t="s">
-        <v>297</v>
-      </c>
-      <c r="I8" t="s">
-        <v>281</v>
-      </c>
-      <c r="K8" s="32" t="str">
-        <f>HYPERLINK("https://amzn.to/3sVaTGL", "Amazon")</f>
-        <v>Amazon</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A9" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="C9" s="34">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>269</v>
-      </c>
-      <c r="E9" s="32" t="str">
-        <f>HYPERLINK("https://www.mcmaster.com/90591A260/", "McMaster")</f>
-        <v>McMaster</v>
-      </c>
-      <c r="F9" s="5">
-        <f>3.56/100</f>
-        <v>3.56E-2</v>
-      </c>
-      <c r="G9" s="5">
-        <f>RBA_478[[#This Row],[Unit Price]]*RBA_478[[#This Row],[Quantity]]</f>
-        <v>7.1199999999999999E-2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>275</v>
-      </c>
-      <c r="I9" t="s">
-        <v>281</v>
-      </c>
-      <c r="K9" s="32" t="str">
-        <f>HYPERLINK("https://amzn.to/3v5pm5K", "Amazon")</f>
-        <v>Amazon</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="K10" s="32"/>
-    </row>
-    <row r="11" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="K11" s="32"/>
-    </row>
-    <row r="12" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="K12" s="32"/>
-    </row>
-    <row r="13" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="K13" s="32"/>
-    </row>
-    <row r="14" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="K14" s="32"/>
-    </row>
-    <row r="15" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="K15" s="32"/>
-    </row>
-    <row r="16" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="K16" s="32"/>
-    </row>
-    <row r="17" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E17" s="32"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="K17" s="32"/>
-    </row>
-    <row r="18" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E18" s="32"/>
-      <c r="G18" s="5"/>
-      <c r="K18" s="32"/>
-    </row>
-    <row r="19" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E19" s="32"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="K19" s="32"/>
-    </row>
-    <row r="20" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E20" s="32"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="K20" s="32"/>
-    </row>
-    <row r="21" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E21" s="32"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="K21" s="32"/>
-    </row>
-    <row r="22" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A22:H22"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G18:G21">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18:F21">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F8 F10:F17">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:G8 G10:G21">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F8 F10:F21">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F9">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G9">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F9">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G9">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F9">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G9">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/HyperRail_BOMv3.xlsx
+++ b/HyperRail_BOMv3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorian Brusind\Documents\GitHub\HyperRail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151F8590-5926-490B-B1F0-37C306A63AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0754E01-B843-409F-81BE-47600DE363B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="3" xr2:uid="{9AA5CA3B-103F-4503-BB38-84DF181EF15E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" xr2:uid="{9AA5CA3B-103F-4503-BB38-84DF181EF15E}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="445">
   <si>
     <t>Manufacturer Part Number</t>
   </si>
@@ -414,9 +414,6 @@
     <t>DIODE SCHOTTKY 20V 500MA SOD123</t>
   </si>
   <si>
-    <t>Integrated Stepper Driver PCB</t>
-  </si>
-  <si>
     <t>3_3V, 5V, 24V</t>
   </si>
   <si>
@@ -724,9 +721,6 @@
   </si>
   <si>
     <t>Category</t>
-  </si>
-  <si>
-    <t>Main Electrical System Assembly</t>
   </si>
   <si>
     <t>Mechanical</t>
@@ -10290,8 +10284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2C5D0B-A61F-416F-933C-0297DCE53E09}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10315,7 +10309,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="33.75">
       <c r="A1" s="38" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -10330,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>3</v>
@@ -10351,19 +10345,19 @@
         <v>11</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L2" s="28">
         <f>SUM(Table13[Extended Price])</f>
-        <v>1583.4433625459321</v>
+        <v>1408.0033625459321</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="C3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -10377,12 +10371,12 @@
         <v>896.49961921259842</v>
       </c>
       <c r="I3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="18" thickBot="1">
       <c r="C4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -10396,79 +10390,55 @@
         <v>261.02616</v>
       </c>
       <c r="I4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L4" s="30"/>
     </row>
     <row r="5" spans="1:18" ht="27" thickTop="1">
-      <c r="C5" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="I5" t="s">
         <v>226</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7">
-        <f>'Electrical '!I60</f>
-        <v>105.52000000000001</v>
-      </c>
-      <c r="F5" s="7">
-        <f>Table13[[#This Row],[Unit Price]]*Table13[[#This Row],[Quantity]]</f>
-        <v>105.52000000000001</v>
-      </c>
-      <c r="I5" t="s">
-        <v>228</v>
-      </c>
       <c r="K5" s="39" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L5" s="39"/>
       <c r="M5" s="39" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="N5" s="39"/>
       <c r="P5" s="29" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="R5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="C6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" s="7">
-        <f>'Electrical '!I24</f>
-        <v>17.48</v>
-      </c>
-      <c r="F6" s="7">
-        <f>Table13[[#This Row],[Unit Price]]*Table13[[#This Row],[Quantity]]</f>
-        <v>69.92</v>
-      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
       <c r="I6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L6" s="25">
         <v>1.5</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N6" s="25">
         <f>L6</f>
         <v>1.5</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Q6">
         <f>N6*(N9+1)</f>
@@ -10481,7 +10451,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="C7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -10495,23 +10465,23 @@
         <v>34.43</v>
       </c>
       <c r="I7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K7" s="24" t="s">
         <v>228</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>230</v>
       </c>
       <c r="L7" s="25">
         <v>2</v>
       </c>
       <c r="M7" s="24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N7" s="25">
         <f t="shared" ref="N7:N8" si="0">L7</f>
         <v>2</v>
       </c>
       <c r="P7" s="24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q7">
         <f>N7*(N9+1)</f>
@@ -10524,7 +10494,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="C8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -10538,20 +10508,20 @@
         <v>216.04758333333342</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L8" s="25">
         <v>2</v>
       </c>
       <c r="M8" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N8" s="25">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q8">
         <f>N8*(N9+1)</f>
@@ -10566,7 +10536,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="M9" s="26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -10668,7 +10638,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="50.1" customHeight="1">
       <c r="A1" s="44" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -10703,19 +10673,19 @@
     </row>
     <row r="2" spans="1:32" ht="50.1" customHeight="1">
       <c r="A2" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>7</v>
@@ -10727,27 +10697,27 @@
         <v>11</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="50.1" customHeight="1">
       <c r="A3" s="34" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C3" s="34">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E3" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
@@ -10762,13 +10732,13 @@
         <v>0.51273000000000002</v>
       </c>
       <c r="H3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K3" s="32" t="str">
         <f>HYPERLINK("https://www.amazon.com/Aluminum-Extrusion-European-Standard-Anodized/dp/B08CN92SP1/ref=sr_1_7?crid=3VIGODRUEW0NZ&amp;keywords=150mm+2040&amp;qid=1645476496&amp;sprefix=150mm+2040%2Caps%2C147&amp;sr=8-7", "Amazon")</f>
@@ -10781,13 +10751,13 @@
     </row>
     <row r="4" spans="1:32" ht="50.1" customHeight="1">
       <c r="A4" s="34" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C4" s="31">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E4" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3pcU6xT", "Amazon")</f>
@@ -10802,19 +10772,19 @@
         <v>3.198</v>
       </c>
       <c r="H4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:32" ht="50.1" customHeight="1">
       <c r="A5" s="34" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C5" s="34">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E5" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
@@ -10829,22 +10799,22 @@
         <v>0.30384</v>
       </c>
       <c r="H5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:32" ht="50.1" customHeight="1">
       <c r="A6" s="34" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C6" s="34">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E6" s="32" t="str">
         <f>HYPERLINK("https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/970300581/6174852", "DigiKey")</f>
@@ -10858,7 +10828,7 @@
         <v>0.76</v>
       </c>
       <c r="H6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K6" s="32" t="str">
         <f t="shared" ref="K6" si="0">HYPERLINK("", "Amazon")</f>
@@ -10867,13 +10837,13 @@
     </row>
     <row r="7" spans="1:32" ht="50.1" customHeight="1">
       <c r="A7" s="34" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C7" s="34">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E7" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A218/", "McMaster")</f>
@@ -10888,10 +10858,10 @@
         <v>0.73760000000000003</v>
       </c>
       <c r="H7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K7" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3I2Pemt", "Amazon")</f>
@@ -10900,13 +10870,13 @@
     </row>
     <row r="8" spans="1:32" ht="50.1" customHeight="1">
       <c r="A8" s="34" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C8" s="34">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E8" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A223/", "McMaster")</f>
@@ -10921,10 +10891,10 @@
         <v>1.7775999999999998</v>
       </c>
       <c r="H8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K8" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3sVaTGL", "Amazon")</f>
@@ -10933,13 +10903,13 @@
     </row>
     <row r="9" spans="1:32" ht="50.1" customHeight="1">
       <c r="A9" s="34" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C9" s="34">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E9" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/90591A260/", "McMaster")</f>
@@ -10954,10 +10924,10 @@
         <v>7.1199999999999999E-2</v>
       </c>
       <c r="H9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K9" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3v5pm5K", "Amazon")</f>
@@ -11479,7 +11449,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="50.1" customHeight="1">
       <c r="A1" s="44" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -11514,19 +11484,19 @@
     </row>
     <row r="2" spans="1:32" ht="50.1" customHeight="1">
       <c r="A2" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>7</v>
@@ -11538,27 +11508,27 @@
         <v>11</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="50.1" customHeight="1">
       <c r="A3" s="31" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C3" s="31">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E3" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
@@ -11573,7 +11543,7 @@
         <v>0.51273000000000002</v>
       </c>
       <c r="H3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="7">
@@ -11583,13 +11553,13 @@
     </row>
     <row r="4" spans="1:32" ht="50.1" customHeight="1">
       <c r="A4" s="31" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C4" s="31">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E4" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3pcU6xT", "Amazon")</f>
@@ -11604,19 +11574,19 @@
         <v>1.599</v>
       </c>
       <c r="H4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:32" ht="50.1" customHeight="1">
       <c r="A5" s="31" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C5" s="31">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E5" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
@@ -11631,22 +11601,22 @@
         <v>0.30384</v>
       </c>
       <c r="H5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:32" ht="50.1" customHeight="1">
       <c r="A6" s="31" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C6" s="31">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E6" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3t3zuJQ", "F606ZZ")</f>
@@ -11664,13 +11634,13 @@
     </row>
     <row r="7" spans="1:32" ht="50.1" customHeight="1">
       <c r="A7" s="31" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C7" s="31">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E7" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
@@ -11685,19 +11655,19 @@
         <v>0.22788</v>
       </c>
       <c r="H7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:32" ht="50.1" customHeight="1">
       <c r="A8" s="31" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C8" s="31">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E8" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A223/", "McMaster")</f>
@@ -11712,10 +11682,10 @@
         <v>1.7775999999999998</v>
       </c>
       <c r="H8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K8" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3sVaTGL", "Amazon")</f>
@@ -12305,7 +12275,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="50.1" customHeight="1">
       <c r="A1" s="44" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -12340,19 +12310,19 @@
     </row>
     <row r="2" spans="1:32" ht="50.1" customHeight="1">
       <c r="A2" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>7</v>
@@ -12364,27 +12334,27 @@
         <v>11</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="50.1" customHeight="1">
       <c r="A3" s="34" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C3" s="34">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E3" s="32" t="str">
         <f t="shared" ref="E3" si="0">HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
@@ -12399,10 +12369,10 @@
         <v>0.37980000000000003</v>
       </c>
       <c r="H3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="7">
@@ -12412,13 +12382,13 @@
     </row>
     <row r="4" spans="1:32" ht="50.1" customHeight="1">
       <c r="A4" s="34" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C4" s="34">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E4" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
@@ -12433,22 +12403,22 @@
         <v>0.15192</v>
       </c>
       <c r="H4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:32" ht="50.1" customHeight="1">
       <c r="A5" s="34" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C5" s="34">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E5" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3t3zuJQ", "F606ZZ")</f>
@@ -12466,13 +12436,13 @@
     </row>
     <row r="6" spans="1:32" ht="50.1" customHeight="1">
       <c r="A6" s="34" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C6" s="34">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E6" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A223/", "McMaster")</f>
@@ -12487,10 +12457,10 @@
         <v>0.88879999999999992</v>
       </c>
       <c r="H6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K6" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3sVaTGL", "Amazon")</f>
@@ -12608,7 +12578,7 @@
     </row>
     <row r="22" spans="1:11" ht="50.1" customHeight="1">
       <c r="A22" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
@@ -13041,7 +13011,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="50.1" customHeight="1">
       <c r="A1" s="44" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -13076,19 +13046,19 @@
     </row>
     <row r="2" spans="1:32" ht="50.1" customHeight="1">
       <c r="A2" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>7</v>
@@ -13100,27 +13070,27 @@
         <v>11</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="50.1" customHeight="1">
       <c r="A3" s="31" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C3" s="31">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E3" s="32" t="str">
         <f t="shared" ref="E3" si="0">HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
@@ -13135,7 +13105,7 @@
         <v>0.41777999999999998</v>
       </c>
       <c r="H3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="7">
@@ -13145,13 +13115,13 @@
     </row>
     <row r="4" spans="1:32" ht="50.1" customHeight="1">
       <c r="A4" s="31" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C4" s="31">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E4" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
@@ -13166,19 +13136,19 @@
         <v>0.13292999999999999</v>
       </c>
       <c r="H4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:32" ht="50.1" customHeight="1">
       <c r="A5" s="34" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C5" s="31">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E5" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/62805K49/", "McMaster")</f>
@@ -13192,19 +13162,19 @@
         <v>5.72</v>
       </c>
       <c r="H5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:32" ht="50.1" customHeight="1">
       <c r="A6" s="31" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C6" s="31">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E6" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A222/", "McMaster")</f>
@@ -13219,13 +13189,13 @@
         <v>0.53239999999999998</v>
       </c>
       <c r="H6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K6" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/35ijWtt", "Amazon")</f>
@@ -13234,13 +13204,13 @@
     </row>
     <row r="7" spans="1:32" ht="50.1" customHeight="1">
       <c r="A7" s="31" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C7" s="31">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E7" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/90592A016/","McMaster")</f>
@@ -13255,13 +13225,13 @@
         <v>6.2400000000000004E-2</v>
       </c>
       <c r="H7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K7" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3JKgFBP","Amazon")</f>
@@ -13371,7 +13341,7 @@
     </row>
     <row r="22" spans="1:11" ht="50.1" customHeight="1">
       <c r="A22" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
@@ -13791,7 +13761,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="58.5" customHeight="1">
       <c r="A1" s="41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -13855,7 +13825,7 @@
         <v>14</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -14563,7 +14533,7 @@
         <v>32</v>
       </c>
       <c r="P17" s="36" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -14718,7 +14688,7 @@
     </row>
     <row r="24" spans="1:16" ht="27.75" customHeight="1">
       <c r="A24" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B24" s="40"/>
       <c r="C24" s="40"/>
@@ -14734,7 +14704,7 @@
     </row>
     <row r="25" spans="1:16" ht="47.25" customHeight="1">
       <c r="A25" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B25" s="42"/>
       <c r="C25" s="42"/>
@@ -14809,7 +14779,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>19</v>
@@ -14847,16 +14817,16 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>51</v>
@@ -14880,7 +14850,7 @@
         <v>41</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>23</v>
@@ -14894,16 +14864,16 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>19</v>
@@ -14924,10 +14894,10 @@
         <v>936348</v>
       </c>
       <c r="K29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>23</v>
@@ -14941,16 +14911,16 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>19</v>
@@ -14974,7 +14944,7 @@
         <v>30</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>23</v>
@@ -14997,7 +14967,7 @@
         <v>28</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>19</v>
@@ -15035,16 +15005,16 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>19</v>
@@ -15065,10 +15035,10 @@
         <v>78973</v>
       </c>
       <c r="K32" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L32" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>23</v>
@@ -15091,7 +15061,7 @@
         <v>49</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>51</v>
@@ -15129,16 +15099,16 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>51</v>
@@ -15162,7 +15132,7 @@
         <v>52</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>23</v>
@@ -15179,13 +15149,13 @@
         <v>5040771891</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>19</v>
@@ -15206,10 +15176,10 @@
         <v>2400</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>23</v>
@@ -15223,16 +15193,16 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>19</v>
@@ -15256,7 +15226,7 @@
         <v>115</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>25</v>
@@ -15270,16 +15240,16 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>19</v>
@@ -15300,10 +15270,10 @@
         <v>246</v>
       </c>
       <c r="K37" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="L37" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>23</v>
@@ -15317,16 +15287,16 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>19</v>
@@ -15347,10 +15317,10 @@
         <v>24018</v>
       </c>
       <c r="K38" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="L38" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>23</v>
@@ -15373,7 +15343,7 @@
         <v>83</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>19</v>
@@ -15420,7 +15390,7 @@
         <v>88</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>19</v>
@@ -15458,16 +15428,16 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>19</v>
@@ -15491,7 +15461,7 @@
         <v>21</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>23</v>
@@ -15505,16 +15475,16 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>51</v>
@@ -15535,10 +15505,10 @@
         <v>67015</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>54</v>
@@ -15552,16 +15522,16 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>19</v>
@@ -15582,10 +15552,10 @@
         <v>0</v>
       </c>
       <c r="K43" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L43" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>23</v>
@@ -15608,7 +15578,7 @@
         <v>113</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>19</v>
@@ -15646,16 +15616,16 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>96</v>
@@ -15679,7 +15649,7 @@
         <v>109</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>23</v>
@@ -15693,16 +15663,16 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>19</v>
@@ -15726,7 +15696,7 @@
         <v>109</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M46" s="2" t="s">
         <v>23</v>
@@ -15749,7 +15719,7 @@
         <v>119</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>19</v>
@@ -15787,22 +15757,22 @@
     </row>
     <row r="48" spans="1:15" ht="16.5" customHeight="1">
       <c r="A48" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -15820,7 +15790,7 @@
         <v>21</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>23</v>
@@ -15885,7 +15855,7 @@
     </row>
     <row r="52" spans="1:15" ht="27.75" customHeight="1">
       <c r="A52" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B52" s="40"/>
       <c r="C52" s="40"/>
@@ -15901,7 +15871,7 @@
     </row>
     <row r="53" spans="1:15" ht="41.25" customHeight="1">
       <c r="A53" s="43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B53" s="43"/>
       <c r="C53" s="43"/>
@@ -15967,16 +15937,16 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="C55" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>210</v>
-      </c>
       <c r="D55" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>51</v>
@@ -16000,7 +15970,7 @@
         <v>58</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M55" s="8" t="s">
         <v>54</v>
@@ -16014,17 +15984,17 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>212</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>213</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>20</v>
@@ -16044,7 +16014,7 @@
       </c>
       <c r="K56" s="8"/>
       <c r="L56" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M56" s="8" t="s">
         <v>23</v>
@@ -16109,7 +16079,7 @@
     </row>
     <row r="60" spans="1:15" ht="27.75" customHeight="1">
       <c r="A60" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B60" s="40"/>
       <c r="C60" s="40"/>
@@ -16260,7 +16230,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="50.1" customHeight="1">
       <c r="A1" s="44" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -16295,19 +16265,19 @@
     </row>
     <row r="2" spans="1:32" ht="50.1" customHeight="1">
       <c r="A2" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>7</v>
@@ -16319,27 +16289,27 @@
         <v>11</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="50.1" customHeight="1">
       <c r="A3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C3" s="31">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E3" s="32" t="str">
         <f>HYPERLINK("https://bit.ly/3vasq0u", "StepperOnline")</f>
@@ -16353,10 +16323,10 @@
         <v>54.77</v>
       </c>
       <c r="H3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="7">
@@ -16366,13 +16336,13 @@
     </row>
     <row r="4" spans="1:32" ht="50.1" customHeight="1">
       <c r="A4" s="31" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C4" s="31">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="5">
@@ -16383,22 +16353,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:32" ht="50.1" customHeight="1">
       <c r="A5" s="31" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C5" s="31">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="5">
@@ -16410,16 +16380,16 @@
         <v>17.48</v>
       </c>
       <c r="H5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:32" ht="50.1" customHeight="1">
       <c r="A6" s="31" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C6" s="31">
         <v>1</v>
@@ -16440,22 +16410,22 @@
         <v>53.691102362204731</v>
       </c>
       <c r="H6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:32" ht="50.1" customHeight="1">
       <c r="A7" s="31" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C7" s="31">
         <v>1</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E7" s="32" t="str">
         <f t="shared" ref="E7" si="0">HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
@@ -16470,23 +16440,23 @@
         <v>1.55718</v>
       </c>
       <c r="H7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:32" ht="50.1" customHeight="1">
       <c r="A8" s="34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C8" s="31">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E8" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/98952A059/","McMaster")</f>
@@ -16503,13 +16473,13 @@
     </row>
     <row r="9" spans="1:32" ht="50.1" customHeight="1">
       <c r="A9" s="34" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C9" s="31">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E9" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/95783A039/","McMaster")</f>
@@ -16526,13 +16496,13 @@
     </row>
     <row r="10" spans="1:32" ht="50.1" customHeight="1">
       <c r="A10" s="34" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C10" s="31">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E10" s="32" t="str">
         <f>HYPERLINK("https://bit.ly/3Hc5Mr5","Misumi")</f>
@@ -16546,19 +16516,19 @@
         <v>46.32</v>
       </c>
       <c r="H10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K10" s="32"/>
     </row>
     <row r="11" spans="1:32" ht="50.1" customHeight="1">
       <c r="A11" s="31" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C11" s="31">
         <v>1</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E11" s="32" t="str">
         <f t="shared" ref="E11" si="1">HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
@@ -16573,17 +16543,17 @@
         <v>0.15192</v>
       </c>
       <c r="H11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:32" ht="50.1" customHeight="1">
       <c r="A12" s="34" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C12" s="31">
         <v>1</v>
@@ -16606,13 +16576,13 @@
     </row>
     <row r="13" spans="1:32" ht="50.1" customHeight="1">
       <c r="A13" s="31" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C13" s="31">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E13" s="32" t="str">
         <f>HYPERLINK("https://www.amazon.com/gp/product/B07CXNK33Q/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;psc=1","Amazon")</f>
@@ -16626,22 +16596,22 @@
         <v>2.5</v>
       </c>
       <c r="H13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K13" s="32"/>
     </row>
     <row r="14" spans="1:32" ht="50.1" customHeight="1">
       <c r="A14" s="31" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C14" s="31">
         <v>1</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E14" s="32" t="str">
         <f t="shared" ref="E14" si="2">HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
@@ -16656,23 +16626,23 @@
         <v>0.34182000000000001</v>
       </c>
       <c r="H14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:32" ht="50.1" customHeight="1">
       <c r="A15" s="34" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C15" s="31">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E15" s="32" t="str">
         <f>HYPERLINK("https://shop.sdp-si.com/catalog/product/?id=A_6A55M028DF0912","SDPSI")</f>
@@ -16689,13 +16659,13 @@
     </row>
     <row r="16" spans="1:32" ht="50.1" customHeight="1">
       <c r="A16" s="34" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C16" s="31">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E16" s="32" t="str">
         <f>HYPERLINK("https://bit.ly/3BHYvxY","PolyBelt")</f>
@@ -16710,13 +16680,13 @@
         <v>20.497047244094492</v>
       </c>
       <c r="H16" t="s">
+        <v>347</v>
+      </c>
+      <c r="I16" t="s">
+        <v>348</v>
+      </c>
+      <c r="J16" t="s">
         <v>349</v>
-      </c>
-      <c r="I16" t="s">
-        <v>350</v>
-      </c>
-      <c r="J16" t="s">
-        <v>351</v>
       </c>
       <c r="K16" s="32" t="str">
         <f>HYPERLINK("https://www.ebay.com/itm/382865666347?var=651553605528","Ebay")</f>
@@ -16725,13 +16695,13 @@
     </row>
     <row r="17" spans="1:11" ht="50.1" customHeight="1">
       <c r="A17" s="31" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C17" s="31">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F17" s="35">
         <f>'Mechanical - Carriage Assembly'!L3</f>
@@ -16742,19 +16712,19 @@
         <v>107.97528</v>
       </c>
       <c r="H17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" ht="50.1" customHeight="1">
       <c r="A18" s="31" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C18" s="31">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E18" s="32" t="str">
         <f>HYPERLINK("https://bit.ly/3payYID", "Stepper Online")</f>
@@ -16768,19 +16738,19 @@
         <v>1.84</v>
       </c>
       <c r="H18" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11" ht="50.1" customHeight="1">
       <c r="A19" s="31" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C19" s="31">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E19" s="32" t="str">
         <f>HYPERLINK("https://www.digikey.com/en/products/detail/littelfuse-inc/59145-040/4771993","Digikey")</f>
@@ -16794,19 +16764,19 @@
         <v>4.95</v>
       </c>
       <c r="H19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:11" ht="50.1" customHeight="1">
       <c r="A20" s="31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C20" s="31">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E20" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/35hVTdS","Amazon")</f>
@@ -16820,19 +16790,19 @@
         <v>6.76</v>
       </c>
       <c r="H20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K20" s="32"/>
     </row>
     <row r="21" spans="1:11" ht="50.1" customHeight="1">
       <c r="A21" s="31" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C21" s="31">
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E21" s="32" t="str">
         <f t="shared" ref="E21:E24" si="3">HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
@@ -16847,23 +16817,23 @@
         <v>1.48122</v>
       </c>
       <c r="H21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:11" ht="50.1" customHeight="1">
       <c r="A22" s="31" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C22" s="31">
         <v>1</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E22" s="32" t="str">
         <f t="shared" si="3"/>
@@ -16878,23 +16848,23 @@
         <v>0.22788</v>
       </c>
       <c r="H22" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
     </row>
     <row r="23" spans="1:11" ht="50.1" customHeight="1">
       <c r="A23" s="31" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C23" s="31">
         <v>1</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E23" s="32" t="str">
         <f t="shared" si="3"/>
@@ -16909,23 +16879,23 @@
         <v>0.20888999999999999</v>
       </c>
       <c r="H23" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
     <row r="24" spans="1:11" ht="50.1" customHeight="1">
       <c r="A24" s="31" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C24" s="31">
         <v>1</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E24" s="32" t="str">
         <f t="shared" si="3"/>
@@ -16940,23 +16910,23 @@
         <v>0.30384</v>
       </c>
       <c r="H24" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
     <row r="25" spans="1:11" ht="50.1" customHeight="1">
       <c r="A25" s="31" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C25" s="31">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E25" s="32" t="str">
         <f>HYPERLINK("https://www.digikey.com/en/products/detail/littelfuse-inc/57145-000/43980","Digikey")</f>
@@ -16973,13 +16943,13 @@
     </row>
     <row r="26" spans="1:11" ht="50.1" customHeight="1">
       <c r="A26" s="34" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C26" s="31">
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="5">
@@ -16991,19 +16961,19 @@
         <v>20.596529999999998</v>
       </c>
       <c r="H26" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K26" s="32"/>
     </row>
     <row r="27" spans="1:11" ht="50.1" customHeight="1">
       <c r="A27" s="31" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C27" s="31">
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E27" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A207/", "McMaster")</f>
@@ -17018,19 +16988,19 @@
         <v>2.9393999999999996</v>
       </c>
       <c r="H27" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K27" s="32"/>
     </row>
     <row r="28" spans="1:11" ht="50.1" customHeight="1">
       <c r="A28" s="31" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C28" s="31">
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E28" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A210/", "McMaster")</f>
@@ -17045,19 +17015,19 @@
         <v>1.6015999999999999</v>
       </c>
       <c r="H28" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K28" s="32"/>
     </row>
     <row r="29" spans="1:11" ht="50.1" customHeight="1">
       <c r="A29" s="31" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C29" s="31">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E29" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A216/", "McMaster")</f>
@@ -17072,19 +17042,19 @@
         <v>0.30559999999999998</v>
       </c>
       <c r="H29" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K29" s="32"/>
     </row>
     <row r="30" spans="1:11" ht="50.1" customHeight="1">
       <c r="A30" s="31" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C30" s="31">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E30" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/94500A227/", "McMaster")</f>
@@ -17099,18 +17069,18 @@
         <v>0.61599999999999999</v>
       </c>
       <c r="H30" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="50.1" customHeight="1">
       <c r="A31" s="31" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C31" s="31">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E31" s="32" t="str">
         <f t="shared" ref="E31" si="4">HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
@@ -17125,22 +17095,22 @@
         <v>0.94950000000000001</v>
       </c>
       <c r="H31" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K31" s="32"/>
     </row>
     <row r="32" spans="1:11" ht="50.1" customHeight="1">
       <c r="A32" s="31" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C32" s="31">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E32" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A208/", "McMaster")</f>
@@ -17155,13 +17125,13 @@
         <v>0.65319999999999989</v>
       </c>
       <c r="H32" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K32" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3I9bwDb", "Amazon")</f>
@@ -17170,13 +17140,13 @@
     </row>
     <row r="33" spans="1:11" ht="50.1" customHeight="1">
       <c r="A33" s="31" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C33" s="31">
         <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E33" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3I8VKIx", "Amazon")</f>
@@ -17191,13 +17161,13 @@
         <v>4.1761999999999997</v>
       </c>
       <c r="H33" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I33" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J33" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K33" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/90510A232/", "McMaster")</f>
@@ -17206,13 +17176,13 @@
     </row>
     <row r="34" spans="1:11" ht="50.1" customHeight="1">
       <c r="A34" s="31" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C34" s="31">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E34" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/90591A260/", "McMaster")</f>
@@ -17227,10 +17197,10 @@
         <v>3.56E-2</v>
       </c>
       <c r="H34" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I34" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K34" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3v5pm5K", "Amazon")</f>
@@ -17239,16 +17209,16 @@
     </row>
     <row r="35" spans="1:11" ht="50.1" customHeight="1">
       <c r="A35" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B35" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E35" s="32" t="str">
         <f>HYPERLINK("https://shop.polybelt.com/650-5m-09-Urethane-Steel-Timing-Belt-130-Tooth-B650-5M-09CPS.htm", "PolyBelt")</f>
@@ -17262,7 +17232,7 @@
         <v>13.5</v>
       </c>
       <c r="H35" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K35" s="32"/>
     </row>
@@ -17990,7 +17960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CADD61D-F9D2-4804-993E-5F65E31FCDDD}">
   <dimension ref="A1:AF23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -18032,7 +18002,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="50.1" customHeight="1">
       <c r="A1" s="44" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -18067,19 +18037,19 @@
     </row>
     <row r="2" spans="1:32" ht="50.1" customHeight="1">
       <c r="A2" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>7</v>
@@ -18091,27 +18061,27 @@
         <v>11</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="50.1" customHeight="1">
       <c r="A3" s="34" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C3" s="34">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F3" s="5">
         <f>'Electrical '!I52</f>
@@ -18122,7 +18092,7 @@
         <v>34.43</v>
       </c>
       <c r="H3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="7">
@@ -18132,13 +18102,13 @@
     </row>
     <row r="4" spans="1:32" ht="50.1" customHeight="1">
       <c r="A4" s="34" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C4" s="34">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E4" s="32" t="str">
         <f>HYPERLINK("https://developer.nvidia.com/embedded/jetson-nano-2gb-developer-kit","Nvidia")</f>
@@ -18155,13 +18125,13 @@
     </row>
     <row r="5" spans="1:32" ht="50.1" customHeight="1">
       <c r="A5" s="34" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C5" s="34">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E5" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3t85BIe","Amazon")</f>
@@ -18179,13 +18149,13 @@
     </row>
     <row r="6" spans="1:32" ht="50.1" customHeight="1">
       <c r="A6" s="34" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C6" s="34">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E6" s="32" t="str">
         <f>HYPERLINK("https://bit.ly/3pgw6dg","Seahorse")</f>
@@ -18202,13 +18172,13 @@
     </row>
     <row r="7" spans="1:32" ht="50.1" customHeight="1">
       <c r="A7" s="34" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C7" s="34">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E7" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3JW5hmK","Amazon")</f>
@@ -18226,13 +18196,13 @@
     </row>
     <row r="8" spans="1:32" ht="50.1" customHeight="1">
       <c r="A8" s="34" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C8" s="34">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E8" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3JNUvPk", "Amazon")</f>
@@ -18249,13 +18219,13 @@
     </row>
     <row r="9" spans="1:32" ht="50.1" customHeight="1">
       <c r="A9" s="34" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C9" s="34">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E9" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
@@ -18270,19 +18240,19 @@
         <v>0.53171999999999997</v>
       </c>
       <c r="H9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:32" ht="50.1" customHeight="1">
       <c r="A10" s="34" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C10" s="34">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E10" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3M5yQ72", "Amazon")</f>
@@ -18300,13 +18270,13 @@
     </row>
     <row r="11" spans="1:32" ht="50.1" customHeight="1">
       <c r="A11" s="34" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C11" s="34">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E11" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/35rtwKr", "Amazon")</f>
@@ -18323,13 +18293,13 @@
     </row>
     <row r="12" spans="1:32" ht="50.1" customHeight="1">
       <c r="A12" s="34" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C12" s="34">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E12" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
@@ -18344,25 +18314,25 @@
         <v>0.51273000000000002</v>
       </c>
       <c r="H12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:32" ht="50.1" customHeight="1">
       <c r="A13" s="34" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C13" s="34">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E13" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/35x7YMk","Amazon")</f>
@@ -18380,13 +18350,13 @@
     </row>
     <row r="14" spans="1:32" ht="50.1" customHeight="1">
       <c r="A14" s="34" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C14" s="34">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E14" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/359tuHm", "Amazon")</f>
@@ -18404,13 +18374,13 @@
     </row>
     <row r="15" spans="1:32" ht="50.1" customHeight="1">
       <c r="A15" s="34" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C15" s="34">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E15" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3HoIvlN", "Amazon")</f>
@@ -18428,13 +18398,13 @@
     </row>
     <row r="16" spans="1:32" ht="50.1" customHeight="1">
       <c r="A16" s="34" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C16" s="34">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E16" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
@@ -18449,19 +18419,19 @@
         <v>0.81657000000000002</v>
       </c>
       <c r="H16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:11" ht="50.1" customHeight="1">
       <c r="A17" s="34" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C17" s="34">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E17" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
@@ -18476,19 +18446,19 @@
         <v>0.81657000000000002</v>
       </c>
       <c r="H17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" ht="50.1" customHeight="1">
       <c r="A18" s="34" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C18" s="34">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E18" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/94500A223/", "McMaster")</f>
@@ -18506,13 +18476,13 @@
     </row>
     <row r="19" spans="1:11" ht="50.1" customHeight="1">
       <c r="A19" s="34" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C19" s="34">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E19" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3pifPEE", "Amazon")</f>
@@ -18530,13 +18500,13 @@
     </row>
     <row r="20" spans="1:11" ht="50.1" customHeight="1">
       <c r="A20" s="34" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C20" s="34">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E20" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
@@ -18551,19 +18521,19 @@
         <v>1.02546</v>
       </c>
       <c r="H20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K20" s="32"/>
     </row>
     <row r="21" spans="1:11" ht="50.1" customHeight="1">
       <c r="A21" s="34" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C21" s="34">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E21" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3slfva4", "Amazon")</f>
@@ -18581,13 +18551,13 @@
     </row>
     <row r="22" spans="1:11" ht="50.1" customHeight="1">
       <c r="A22" s="34" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C22" s="34">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E22" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A216/", "McMaster")</f>
@@ -18602,19 +18572,19 @@
         <v>0.61119999999999997</v>
       </c>
       <c r="H22" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K22" s="32"/>
     </row>
     <row r="23" spans="1:11" ht="50.1" customHeight="1">
       <c r="A23" s="34" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C23" s="34">
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E23" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A208/", "McMaster")</f>
@@ -18629,13 +18599,13 @@
         <v>0.97979999999999978</v>
       </c>
       <c r="H23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I23" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K23" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3I9bwDb", "Amazon")</f>
@@ -19265,7 +19235,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="50.1" customHeight="1">
       <c r="A1" s="44" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -19300,19 +19270,19 @@
     </row>
     <row r="2" spans="1:32" ht="50.1" customHeight="1">
       <c r="A2" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>7</v>
@@ -19324,28 +19294,28 @@
         <v>11</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="50.1" customHeight="1">
       <c r="A3" s="31" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C3" s="31">
         <f>Overall!N9+1</f>
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="5">
@@ -19357,7 +19327,7 @@
         <v>60.720000000000006</v>
       </c>
       <c r="H3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="7">
@@ -19367,13 +19337,13 @@
     </row>
     <row r="4" spans="1:32" ht="50.1" customHeight="1">
       <c r="A4" s="31" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C4" s="31">
         <v>1</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E4" s="32" t="str">
         <f t="shared" ref="E4" si="0">HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
@@ -19388,23 +19358,23 @@
         <v>0.30384</v>
       </c>
       <c r="H4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:32" ht="50.1" customHeight="1">
       <c r="A5" s="31" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C5" s="31">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E5" s="32" t="str">
         <f>HYPERLINK("https://www.digikey.com/en/products/detail/littelfuse-inc/59145-040/4771993","Digikey")</f>
@@ -19418,19 +19388,19 @@
         <v>4.95</v>
       </c>
       <c r="H5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:32" ht="50.1" customHeight="1">
       <c r="A6" s="31" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C6" s="31">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E6" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3pcFWwW", "Amazon")</f>
@@ -19445,13 +19415,13 @@
         <v>3.3979999999999997</v>
       </c>
       <c r="H6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K6" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/35ijWtt", "Amazon")</f>
@@ -19460,13 +19430,13 @@
     </row>
     <row r="7" spans="1:32" ht="50.1" customHeight="1">
       <c r="A7" s="31" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C7" s="31">
         <v>10</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E7" s="32" t="str">
         <f t="shared" ref="E7" si="1">HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
@@ -19481,10 +19451,10 @@
         <v>2.4687000000000001</v>
       </c>
       <c r="H7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J7" s="32"/>
       <c r="K7" s="32" t="str">
@@ -19494,13 +19464,13 @@
     </row>
     <row r="8" spans="1:32" ht="50.1" customHeight="1">
       <c r="A8" s="31" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C8" s="31">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="5">
@@ -19608,7 +19578,7 @@
     </row>
     <row r="22" spans="1:11" ht="50.1" customHeight="1">
       <c r="A22" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
@@ -19807,7 +19777,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F3">
+  <conditionalFormatting sqref="F3 F6">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -20089,7 +20059,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="50.1" customHeight="1">
       <c r="A1" s="44" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -20124,19 +20094,19 @@
     </row>
     <row r="2" spans="1:32" ht="50.1" customHeight="1">
       <c r="A2" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>7</v>
@@ -20148,21 +20118,21 @@
         <v>11</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="50.1" customHeight="1">
       <c r="A3" s="31" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C3" s="31">
         <v>1</v>
@@ -20183,13 +20153,13 @@
         <v>4.7449999999999992</v>
       </c>
       <c r="H3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K3" s="32" t="str">
         <f>HYPERLINK("https://www.amazon.com/Aluminum-Extrusion-European-Standard-Anodized/dp/B08CN92SP1/ref=sr_1_7?crid=3VIGODRUEW0NZ&amp;keywords=150mm+2040&amp;qid=1645476496&amp;sprefix=150mm+2040%2Caps%2C147&amp;sr=8-7", "Amazon")</f>
@@ -20202,7 +20172,7 @@
     </row>
     <row r="4" spans="1:32" ht="50.1" customHeight="1">
       <c r="A4" s="31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C4" s="31">
         <v>4</v>
@@ -20222,13 +20192,13 @@
         <v>7.76</v>
       </c>
       <c r="H4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K4" s="32" t="str">
         <f>HYPERLINK("https://www.amazon.com/Aluminum-Extrusion-Corner-Bracket-Profile/dp/B08N16BKQS/ref=sr_1_7?crid=2K2OD6C5WR7GM&amp;keywords=right+angle+8020&amp;qid=1645476638&amp;sprefix=right+angle+8020%2Caps%2C149&amp;sr=8-7", "Amazon")</f>
@@ -20237,13 +20207,13 @@
     </row>
     <row r="5" spans="1:32" ht="50.1" customHeight="1">
       <c r="A5" s="31" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C5" s="31">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="5">
@@ -20255,22 +20225,22 @@
         <v>4.7893800000000004</v>
       </c>
       <c r="H5" t="s">
+        <v>276</v>
+      </c>
+      <c r="I5" t="s">
         <v>278</v>
-      </c>
-      <c r="I5" t="s">
-        <v>280</v>
       </c>
       <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:32" ht="50.1" customHeight="1">
       <c r="A6" s="31" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C6" s="31">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E6" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
@@ -20285,16 +20255,16 @@
         <v>0.48</v>
       </c>
       <c r="H6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:32" ht="50.1" customHeight="1">
       <c r="A7" s="34" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C7" s="31">
         <v>3</v>
@@ -20315,10 +20285,10 @@
         <v>20.939999999999998</v>
       </c>
       <c r="H7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K7" s="32" t="str">
         <f>HYPERLINK("https://www.amazon.com/European-Standard-Anodized-Aluminum-Extrusion/dp/B099N9QCTJ/ref=sr_1_4?crid=WNRTCAE6OMWK&amp;keywords=2040+300mm&amp;qid=1645478233&amp;sprefix=2040+300mm%2Caps%2C190&amp;sr=8-4", "Amazon")</f>
@@ -20327,13 +20297,13 @@
     </row>
     <row r="8" spans="1:32" ht="50.1" customHeight="1">
       <c r="A8" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C8" s="31">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E8" s="32" t="str">
         <f>HYPERLINK("https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/970300581/6174852", "DigiKey")</f>
@@ -20347,7 +20317,7 @@
         <v>3.04</v>
       </c>
       <c r="H8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K8" s="32" t="str">
         <f t="shared" ref="K8:K15" si="1">HYPERLINK("", "Amazon")</f>
@@ -20356,13 +20326,13 @@
     </row>
     <row r="9" spans="1:32" ht="50.1" customHeight="1">
       <c r="A9" s="31" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C9" s="31">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="5">
@@ -20374,10 +20344,10 @@
         <v>4.7893800000000004</v>
       </c>
       <c r="H9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K9" s="32" t="str">
         <f t="shared" si="1"/>
@@ -20386,13 +20356,13 @@
     </row>
     <row r="10" spans="1:32" ht="50.1" customHeight="1">
       <c r="A10" s="31" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C10" s="31">
         <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E10" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A208/", "McMaster")</f>
@@ -20407,13 +20377,13 @@
         <v>5.8787999999999991</v>
       </c>
       <c r="H10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K10" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3I9bwDb", "Amazon")</f>
@@ -20422,13 +20392,13 @@
     </row>
     <row r="11" spans="1:32" ht="50.1" customHeight="1">
       <c r="A11" s="31" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C11" s="31">
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E11" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3I8VKIx", "Amazon")</f>
@@ -20443,13 +20413,13 @@
         <v>8.7919999999999998</v>
       </c>
       <c r="H11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K11" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/90510A232/", "McMaster")</f>
@@ -20458,13 +20428,13 @@
     </row>
     <row r="12" spans="1:32" ht="50.1" customHeight="1">
       <c r="A12" s="31" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C12" s="31">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E12" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/5537T425/", "McMaster")</f>
@@ -20479,13 +20449,13 @@
         <v>3.5150000000000001</v>
       </c>
       <c r="H12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K12" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3s5sT1T", "Amazon")</f>
@@ -20494,13 +20464,13 @@
     </row>
     <row r="13" spans="1:32" ht="50.1" customHeight="1">
       <c r="A13" s="31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C13" s="31">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="5">
@@ -20512,7 +20482,7 @@
         <v>14.721939999999998</v>
       </c>
       <c r="H13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K13" s="32" t="str">
         <f t="shared" si="1"/>
@@ -20521,13 +20491,13 @@
     </row>
     <row r="14" spans="1:32" ht="50.1" customHeight="1">
       <c r="A14" s="34" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C14" s="31">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="5">
@@ -20539,7 +20509,7 @@
         <v>13.00104</v>
       </c>
       <c r="H14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K14" s="32" t="str">
         <f t="shared" si="1"/>
@@ -20548,13 +20518,13 @@
     </row>
     <row r="15" spans="1:32" ht="50.1" customHeight="1">
       <c r="A15" s="31" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C15" s="31">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="5">
@@ -20566,7 +20536,7 @@
         <v>14.721939999999998</v>
       </c>
       <c r="H15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K15" s="32" t="str">
         <f t="shared" si="1"/>
@@ -20575,13 +20545,13 @@
     </row>
     <row r="16" spans="1:32" ht="50.1" customHeight="1">
       <c r="A16" s="31" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C16" s="31">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E16" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A210/", "McMaster")</f>
@@ -20596,10 +20566,10 @@
         <v>0.80079999999999996</v>
       </c>
       <c r="H16" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I16" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K16" s="32"/>
     </row>
@@ -20792,7 +20762,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="50.1" customHeight="1">
       <c r="A1" s="44" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -20827,19 +20797,19 @@
     </row>
     <row r="2" spans="1:32" ht="50.1" customHeight="1">
       <c r="A2" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>7</v>
@@ -20851,27 +20821,27 @@
         <v>11</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="50.1" customHeight="1">
       <c r="A3" s="31" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C3" s="31">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E3" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/5537T425/", "McMaster")</f>
@@ -20886,13 +20856,13 @@
         <v>7.03</v>
       </c>
       <c r="H3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K3" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3s5sT1T", "Amazon")</f>
@@ -20905,7 +20875,7 @@
     </row>
     <row r="4" spans="1:32" ht="50.1" customHeight="1">
       <c r="A4" s="31" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C4" s="31">
         <v>1</v>
@@ -20926,10 +20896,10 @@
         <v>53.690000000000005</v>
       </c>
       <c r="H4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K4" s="32"/>
     </row>
@@ -21060,7 +21030,7 @@
     </row>
     <row r="22" spans="1:11" ht="50.1" customHeight="1">
       <c r="A22" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
@@ -21505,7 +21475,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="50.1" customHeight="1">
       <c r="A1" s="44" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -21540,19 +21510,19 @@
     </row>
     <row r="2" spans="1:32" ht="50.1" customHeight="1">
       <c r="A2" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>7</v>
@@ -21564,27 +21534,27 @@
         <v>11</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="50.1" customHeight="1">
       <c r="A3" s="31" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C3" s="31">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E3" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3JJ8RAm", "Amazon")</f>
@@ -21599,7 +21569,7 @@
         <v>1.5960000000000001</v>
       </c>
       <c r="H3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="7">
@@ -21609,13 +21579,13 @@
     </row>
     <row r="4" spans="1:32" ht="50.1" customHeight="1">
       <c r="A4" s="31" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C4" s="31">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E4" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A187/", "McMaster")</f>
@@ -21630,22 +21600,22 @@
         <v>0.28520000000000001</v>
       </c>
       <c r="H4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:32" ht="50.1" customHeight="1">
       <c r="A5" s="31" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C5" s="31">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E5" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3v8bl7r","Amazon")</f>
@@ -21663,13 +21633,13 @@
     </row>
     <row r="6" spans="1:32" ht="50.1" customHeight="1">
       <c r="A6" s="31" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C6" s="31">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="5">
@@ -21684,13 +21654,13 @@
     </row>
     <row r="7" spans="1:32" ht="50.1" customHeight="1">
       <c r="A7" s="31" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C7" s="31">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="5"/>
@@ -21702,13 +21672,13 @@
     </row>
     <row r="8" spans="1:32" ht="50.1" customHeight="1">
       <c r="A8" s="31" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C8" s="31">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="5">
@@ -21723,13 +21693,13 @@
     </row>
     <row r="9" spans="1:32" ht="50.1" customHeight="1">
       <c r="A9" s="31" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C9" s="31">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="5">
@@ -21744,13 +21714,13 @@
     </row>
     <row r="10" spans="1:32" ht="50.1" customHeight="1">
       <c r="A10" s="31" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C10" s="31">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="5">
@@ -21765,7 +21735,7 @@
     </row>
     <row r="11" spans="1:32" ht="50.1" customHeight="1">
       <c r="A11" s="31" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C11" s="31">
         <v>2</v>
@@ -21786,13 +21756,13 @@
         <v>10.98</v>
       </c>
       <c r="H11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K11" s="32" t="str">
         <f>HYPERLINK("https://www.amazon.com/Aluminum-Extrusion-European-Standard-Anodized/dp/B08CN92SP1/ref=sr_1_7?crid=3VIGODRUEW0NZ&amp;keywords=150mm+2040&amp;qid=1645476496&amp;sprefix=150mm+2040%2Caps%2C147&amp;sr=8-7", "Amazon")</f>
@@ -21801,13 +21771,13 @@
     </row>
     <row r="12" spans="1:32" ht="50.1" customHeight="1">
       <c r="A12" s="31" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C12" s="31">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="5">
@@ -21822,13 +21792,13 @@
     </row>
     <row r="13" spans="1:32" ht="50.1" customHeight="1">
       <c r="A13" s="31" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C13" s="31">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="5">
@@ -21843,13 +21813,13 @@
     </row>
     <row r="14" spans="1:32" ht="50.1" customHeight="1">
       <c r="A14" s="31" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C14" s="31">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E14" s="32" t="str">
         <f>HYPERLINK("https://www.amazon.com/gp/product/B07CXNK33Q/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;psc=1","Amazon")</f>
@@ -21863,22 +21833,22 @@
         <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:32" ht="50.1" customHeight="1">
       <c r="A15" s="34" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C15" s="31">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E15" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/95947A725/", "Amazon")</f>
@@ -21895,13 +21865,13 @@
     </row>
     <row r="16" spans="1:32" ht="50.1" customHeight="1">
       <c r="A16" s="31" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C16" s="31">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E16" s="32" t="str">
         <f>HYPERLINK("https://bit.ly/3t0jHvb", "StepperOnline")</f>
@@ -21918,13 +21888,13 @@
     </row>
     <row r="17" spans="1:11" ht="50.1" customHeight="1">
       <c r="A17" s="31" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C17" s="31">
         <v>1</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E17" s="32" t="str">
         <f t="shared" ref="E17:E18" si="0">HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
@@ -21939,23 +21909,23 @@
         <v>2.1268799999999999</v>
       </c>
       <c r="H17" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" ht="50.1" customHeight="1">
       <c r="A18" s="31" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C18" s="31">
         <v>2</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E18" s="32" t="str">
         <f t="shared" si="0"/>
@@ -21970,23 +21940,23 @@
         <v>0.53171999999999997</v>
       </c>
       <c r="H18" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11" ht="50.1" customHeight="1">
       <c r="A19" s="31" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C19" s="31">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E19" s="32" t="str">
         <f>HYPERLINK("https://www.digikey.com/en/products/detail/littelfuse-inc/57145-000/43980","Digikey")</f>
@@ -22000,19 +21970,19 @@
         <v>3.06</v>
       </c>
       <c r="H19" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:11" ht="50.1" customHeight="1">
       <c r="A20" s="31" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C20" s="31">
         <v>1</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E20" s="32" t="str">
         <f t="shared" ref="E20:E24" si="1">HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
@@ -22027,23 +21997,23 @@
         <v>0.20888999999999999</v>
       </c>
       <c r="H20" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
     </row>
     <row r="21" spans="1:11" ht="50.1" customHeight="1">
       <c r="A21" s="31" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C21" s="31">
         <v>1</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E21" s="32" t="str">
         <f t="shared" si="1"/>
@@ -22058,23 +22028,23 @@
         <v>0.32283000000000001</v>
       </c>
       <c r="H21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:11" ht="50.1" customHeight="1">
       <c r="A22" s="31" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C22" s="31">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E22" s="32"/>
       <c r="F22" s="5">
@@ -22089,13 +22059,13 @@
     </row>
     <row r="23" spans="1:11" ht="50.1" customHeight="1">
       <c r="A23" s="31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C23" s="31">
         <v>1</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E23" s="32" t="str">
         <f t="shared" si="1"/>
@@ -22110,23 +22080,23 @@
         <v>2.0509200000000001</v>
       </c>
       <c r="H23" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
     <row r="24" spans="1:11" ht="50.1" customHeight="1">
       <c r="A24" s="31" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C24" s="31">
         <v>2</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E24" s="32" t="str">
         <f t="shared" si="1"/>
@@ -22141,23 +22111,23 @@
         <v>0.26585999999999999</v>
       </c>
       <c r="H24" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
     <row r="25" spans="1:11" ht="50.1" customHeight="1">
       <c r="A25" s="31" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C25" s="31">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E25" s="32" t="str">
         <f>HYPERLINK("https://www.ebay.com/itm/392938210815", "Ebay")</f>
@@ -22177,7 +22147,7 @@
     </row>
     <row r="26" spans="1:11" ht="50.1" customHeight="1">
       <c r="A26" s="31" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C26" s="31">
         <v>1</v>
@@ -22194,7 +22164,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K26" s="32" t="str">
         <f t="shared" si="2"/>
@@ -22203,7 +22173,7 @@
     </row>
     <row r="27" spans="1:11" ht="50.1" customHeight="1">
       <c r="A27" s="31" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C27" s="31">
         <v>1</v>
@@ -22220,7 +22190,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K27" s="32" t="str">
         <f t="shared" si="2"/>
@@ -22229,13 +22199,13 @@
     </row>
     <row r="28" spans="1:11" ht="50.1" customHeight="1">
       <c r="A28" s="31" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C28" s="31">
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E28" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3I8VKIx", "Amazon")</f>
@@ -22250,13 +22220,13 @@
         <v>7.0335999999999999</v>
       </c>
       <c r="H28" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I28" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K28" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/90510A232/", "McMaster")</f>
@@ -22265,13 +22235,13 @@
     </row>
     <row r="29" spans="1:11" ht="50.1" customHeight="1">
       <c r="A29" s="31" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C29" s="31">
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E29" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A208/", "McMaster")</f>
@@ -22286,13 +22256,13 @@
         <v>4.8989999999999991</v>
       </c>
       <c r="H29" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I29" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K29" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3I9bwDb", "Amazon")</f>
@@ -22301,13 +22271,13 @@
     </row>
     <row r="30" spans="1:11" ht="50.1" customHeight="1">
       <c r="A30" s="31" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C30" s="31">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E30" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A216/", "McMaster")</f>
@@ -22322,19 +22292,19 @@
         <v>0.61119999999999997</v>
       </c>
       <c r="H30" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K30" s="32"/>
     </row>
     <row r="31" spans="1:11" ht="50.1" customHeight="1">
       <c r="A31" s="31" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C31" s="31">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E31" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A218/", "McMaster")</f>
@@ -22355,13 +22325,13 @@
     </row>
     <row r="32" spans="1:11" ht="50.1" customHeight="1">
       <c r="A32" s="31" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C32" s="31">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E32" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A214/", "McMaster")</f>
@@ -22382,13 +22352,13 @@
     </row>
     <row r="33" spans="1:11" ht="50.1" customHeight="1">
       <c r="A33" s="31" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C33" s="31">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E33" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/90591A260/", "McMaster")</f>
@@ -22403,10 +22373,10 @@
         <v>0.1424</v>
       </c>
       <c r="H33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I33" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K33" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3v5pm5K", "Amazon")</f>
@@ -22415,13 +22385,13 @@
     </row>
     <row r="34" spans="1:11" ht="50.1" customHeight="1">
       <c r="A34" s="31" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C34" s="31">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E34" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A475/", "McMaster")</f>
@@ -22436,22 +22406,22 @@
         <v>0.64</v>
       </c>
       <c r="H34" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I34" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K34" s="32"/>
     </row>
     <row r="35" spans="1:11" ht="50.1" customHeight="1">
       <c r="A35" s="31" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C35" s="31">
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E35" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3JSYdHx", "Amazon")</f>
@@ -22466,7 +22436,7 @@
         <v>0.26970000000000005</v>
       </c>
       <c r="H35" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K35" s="32"/>
     </row>
@@ -23548,7 +23518,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="50.1" customHeight="1">
       <c r="A1" s="44" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -23583,19 +23553,19 @@
     </row>
     <row r="2" spans="1:32" ht="50.1" customHeight="1">
       <c r="A2" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>7</v>
@@ -23607,27 +23577,27 @@
         <v>11</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="50.1" customHeight="1">
       <c r="A3" s="31" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C3" s="31">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E3" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3pcU6xT", "Amazon")</f>
@@ -23642,7 +23612,7 @@
         <v>1.599</v>
       </c>
       <c r="H3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="7">
@@ -23652,13 +23622,13 @@
     </row>
     <row r="4" spans="1:32" ht="50.1" customHeight="1">
       <c r="A4" s="31" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C4" s="31">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E4" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/91306A736/", "McMaster")</f>
@@ -23673,13 +23643,13 @@
         <v>0.55120000000000002</v>
       </c>
       <c r="H4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K4" s="32" t="str">
         <f>HYPERLINK("https://www.amazon.com/ZAYI-M5-0-8-Stainless-Finish%EF%BC%8CMetric-Fastener/dp/B09MRGZ473/ref=sr_1_3?crid=3FJWNU9KFFIX0&amp;keywords=M5+50mm&amp;qid=1645477676&amp;sprefix=m5+50mm%2Caps%2C146&amp;sr=8-3", "Amazon")</f>
@@ -23688,13 +23658,13 @@
     </row>
     <row r="5" spans="1:32" ht="50.1" customHeight="1">
       <c r="A5" s="31" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C5" s="31">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E5" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
@@ -23708,22 +23678,22 @@
         <v>1.899E-2</v>
       </c>
       <c r="H5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:32" ht="50.1" customHeight="1">
       <c r="A6" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C6" s="31">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E6" s="32" t="str">
         <f t="shared" ref="E6:E7" si="0">HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
@@ -23737,22 +23707,22 @@
         <v>1.899E-2</v>
       </c>
       <c r="H6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:32" ht="50.1" customHeight="1">
       <c r="A7" s="31" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C7" s="31">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E7" s="32" t="str">
         <f t="shared" si="0"/>
@@ -23767,22 +23737,22 @@
         <v>0.17091000000000001</v>
       </c>
       <c r="H7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:32" ht="50.1" customHeight="1">
       <c r="A8" s="31" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C8" s="31">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E8" s="32" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/90591A260/", "McMaster")</f>
@@ -23797,10 +23767,10 @@
         <v>3.56E-2</v>
       </c>
       <c r="H8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K8" s="32" t="str">
         <f>HYPERLINK("https://amzn.to/3v5pm5K", "Amazon")</f>

--- a/HyperRail_BOMv3.xlsx
+++ b/HyperRail_BOMv3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorian Brusind\Documents\GitHub\HyperRail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0754E01-B843-409F-81BE-47600DE363B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64435B68-A06A-4B92-B788-FD5687852FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" xr2:uid="{9AA5CA3B-103F-4503-BB38-84DF181EF15E}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="443">
   <si>
     <t>Manufacturer Part Number</t>
   </si>
@@ -648,9 +648,6 @@
     <t>IC USB-TO-UART BRIDGE 28VQFN</t>
   </si>
   <si>
-    <t>ESP32 GRBL Controller PCB</t>
-  </si>
-  <si>
     <t>Integrated Stepper Driver PCB BOM</t>
   </si>
   <si>
@@ -663,36 +660,15 @@
     <t>Subtotal</t>
   </si>
   <si>
-    <t>Box</t>
-  </si>
-  <si>
     <t>SENSOR REED SW SPST-NC W LEADS</t>
   </si>
   <si>
-    <t>BC-5SE100M</t>
-  </si>
-  <si>
-    <t>Bel Inc.</t>
-  </si>
-  <si>
-    <t>1847-1059-ND</t>
-  </si>
-  <si>
     <t>CABLE MOD 8P8C PLUG-PLUG 32.81'</t>
   </si>
   <si>
-    <t>945-13541-0000-000</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nvidia </t>
   </si>
   <si>
-    <t>Main SBC</t>
-  </si>
-  <si>
-    <t>Single Board Computer, NVidia Jetson Nano 2GB Development Kit</t>
-  </si>
-  <si>
     <t>Motor Connector Wire (30ft)</t>
   </si>
   <si>
@@ -721,12 +697,6 @@
   </si>
   <si>
     <t>Category</t>
-  </si>
-  <si>
-    <t>Mechanical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electrical </t>
   </si>
   <si>
     <t>Height (m)</t>
@@ -1393,6 +1363,30 @@
   </si>
   <si>
     <t>Bracket to hold Power Adapter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misc Wires </t>
+  </si>
+  <si>
+    <t>TZMOIK</t>
+  </si>
+  <si>
+    <t>B093LCQQFY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End Stop wiring </t>
+  </si>
+  <si>
+    <t>‎ B09BJ9DXKT</t>
+  </si>
+  <si>
+    <t>Conable</t>
+  </si>
+  <si>
+    <t>Motor Connector Wire (5ft)</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
 </sst>
 </file>
@@ -1731,7 +1725,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1755,7 +1749,6 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="6" applyFont="1" applyBorder="1"/>
@@ -1791,6 +1784,11 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -9837,7 +9835,7 @@
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{20A9B34A-0BDE-406C-9284-42396D12E1E8}" name="Manufacturer Part Number" dataDxfId="40"/>
     <tableColumn id="2" xr3:uid="{370D2A53-7D06-4073-A070-AAD23FF99906}" name="Manufacturer" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{C2834F26-8D66-4C19-8B65-AAA5D1688301}" name="Digi-Key Part Number" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{C2834F26-8D66-4C19-8B65-AAA5D1688301}" name="Link" dataDxfId="38"/>
     <tableColumn id="4" xr3:uid="{FB6416D0-BFFD-46A4-B485-8DCAF43A11AB}" name="Customer Reference" dataDxfId="37"/>
     <tableColumn id="5" xr3:uid="{56A695A0-C403-4B74-B146-F0D3B63EA053}" name="Packaging" dataDxfId="36"/>
     <tableColumn id="6" xr3:uid="{20E6FA99-F191-48F9-ACD1-BC6CF10711CE}" name="Part Status" dataDxfId="35"/>
@@ -10285,7 +10283,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10308,23 +10306,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="33.75">
-      <c r="A1" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="A1" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:18" ht="23.25">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>3</v>
@@ -10345,19 +10343,19 @@
         <v>11</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="L2" s="28">
+        <v>216</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="L2" s="27">
         <f>SUM(Table13[Extended Price])</f>
-        <v>1408.0033625459321</v>
+        <v>1427.5333625459321</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="C3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -10370,13 +10368,10 @@
         <f>Table13[[#This Row],[Unit Price]]*Table13[[#This Row],[Quantity]]</f>
         <v>896.49961921259842</v>
       </c>
-      <c r="I3" t="s">
-        <v>225</v>
-      </c>
     </row>
     <row r="4" spans="1:18" ht="18" thickBot="1">
       <c r="C4" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -10389,56 +10384,71 @@
         <f>Table13[[#This Row],[Unit Price]]*Table13[[#This Row],[Quantity]]</f>
         <v>261.02616</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="K4" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="L4" s="30"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" spans="1:18" ht="27" thickTop="1">
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="I5" t="s">
-        <v>226</v>
-      </c>
-      <c r="K5" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="N5" s="39"/>
-      <c r="P5" s="29" t="s">
-        <v>233</v>
+      <c r="C5" t="s">
+        <v>431</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <f>'Mechanical - Ebox_Assy'!L3</f>
+        <v>216.04758333333342</v>
+      </c>
+      <c r="F5" s="7">
+        <f>Table13[[#This Row],[Unit Price]]*Table13[[#This Row],[Quantity]]</f>
+        <v>216.04758333333342</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="N5" s="38"/>
+      <c r="P5" s="28" t="s">
+        <v>223</v>
       </c>
       <c r="R5" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="I6" t="s">
-        <v>226</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="L6" s="25">
+      <c r="C6" t="s">
+        <v>435</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="44">
+        <f>'Electrical '!I60</f>
+        <v>53.96</v>
+      </c>
+      <c r="F6" s="7">
+        <f>Table13[[#This Row],[Unit Price]]*Table13[[#This Row],[Quantity]]</f>
+        <v>53.96</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="L6" s="24">
         <v>1.5</v>
       </c>
-      <c r="M6" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="N6" s="25">
+      <c r="M6" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="N6" s="24">
         <f>L6</f>
         <v>1.5</v>
       </c>
-      <c r="P6" s="24" t="s">
-        <v>227</v>
+      <c r="P6" s="23" t="s">
+        <v>217</v>
       </c>
       <c r="Q6">
         <f>N6*(N9+1)</f>
@@ -10450,38 +10460,22 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="C7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="23">
-        <f>'Electrical '!I52</f>
-        <v>34.43</v>
-      </c>
-      <c r="F7" s="7">
-        <f>Table13[[#This Row],[Unit Price]]*Table13[[#This Row],[Quantity]]</f>
-        <v>34.43</v>
-      </c>
-      <c r="I7" t="s">
-        <v>226</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="L7" s="25">
+      <c r="E7" s="44"/>
+      <c r="K7" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="L7" s="24">
         <v>2</v>
       </c>
-      <c r="M7" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="N7" s="25">
+      <c r="M7" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="N7" s="24">
         <f t="shared" ref="N7:N8" si="0">L7</f>
         <v>2</v>
       </c>
-      <c r="P7" s="24" t="s">
-        <v>228</v>
+      <c r="P7" s="23" t="s">
+        <v>218</v>
       </c>
       <c r="Q7">
         <f>N7*(N9+1)</f>
@@ -10493,35 +10487,22 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="C8" t="s">
-        <v>441</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7">
-        <f>'Mechanical - Ebox_Assy'!L3</f>
-        <v>216.04758333333342</v>
-      </c>
-      <c r="F8" s="7">
-        <f>Table13[[#This Row],[Unit Price]]*Table13[[#This Row],[Quantity]]</f>
-        <v>216.04758333333342</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="L8" s="25">
+      <c r="E8" s="44"/>
+      <c r="K8" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="L8" s="24">
         <v>2</v>
       </c>
-      <c r="M8" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="N8" s="25">
+      <c r="M8" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="N8" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P8" s="24" t="s">
-        <v>229</v>
+      <c r="P8" s="23" t="s">
+        <v>219</v>
       </c>
       <c r="Q8">
         <f>N8*(N9+1)</f>
@@ -10535,8 +10516,8 @@
     <row r="9" spans="1:18">
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="M9" s="26" t="s">
-        <v>232</v>
+      <c r="M9" s="25" t="s">
+        <v>222</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -10548,32 +10529,44 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F9">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E9">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E8">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="colorScale" priority="161">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F6 F9">
+    <cfRule type="colorScale" priority="162">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E5 E9">
+    <cfRule type="colorScale" priority="166">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E5">
+    <cfRule type="colorScale" priority="169">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10637,23 +10630,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
+      <c r="A1" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
@@ -10673,19 +10666,19 @@
     </row>
     <row r="2" spans="1:32" ht="50.1" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>7</v>
@@ -10697,29 +10690,29 @@
         <v>11</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>275</v>
+        <v>248</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A3" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="C3" s="34">
+      <c r="A3" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="33">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E3" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
         <v>PETG</v>
       </c>
@@ -10732,15 +10725,15 @@
         <v>0.51273000000000002</v>
       </c>
       <c r="H3" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="I3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="J3" t="s">
-        <v>220</v>
-      </c>
-      <c r="K3" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="K3" s="31" t="str">
         <f>HYPERLINK("https://www.amazon.com/Aluminum-Extrusion-European-Standard-Anodized/dp/B08CN92SP1/ref=sr_1_7?crid=3VIGODRUEW0NZ&amp;keywords=150mm+2040&amp;qid=1645476496&amp;sprefix=150mm+2040%2Caps%2C147&amp;sr=8-7", "Amazon")</f>
         <v>Amazon</v>
       </c>
@@ -10750,16 +10743,16 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A4" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="C4" s="31">
+      <c r="A4" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="30">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E4" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E4" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3pcU6xT", "Amazon")</f>
         <v>Amazon</v>
       </c>
@@ -10772,21 +10765,21 @@
         <v>3.198</v>
       </c>
       <c r="H4" t="s">
-        <v>269</v>
-      </c>
-      <c r="K4" s="32"/>
+        <v>259</v>
+      </c>
+      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A5" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="C5" s="34">
+      <c r="A5" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" s="33">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E5" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E5" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
         <v>PETG</v>
       </c>
@@ -10799,24 +10792,24 @@
         <v>0.30384</v>
       </c>
       <c r="H5" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="I5" t="s">
-        <v>218</v>
-      </c>
-      <c r="K5" s="32"/>
+        <v>210</v>
+      </c>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A6" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="C6" s="34">
+      <c r="A6" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="33">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E6" s="32" t="str">
+        <v>271</v>
+      </c>
+      <c r="E6" s="31" t="str">
         <f>HYPERLINK("https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/970300581/6174852", "DigiKey")</f>
         <v>DigiKey</v>
       </c>
@@ -10828,24 +10821,24 @@
         <v>0.76</v>
       </c>
       <c r="H6" t="s">
-        <v>280</v>
-      </c>
-      <c r="K6" s="32" t="str">
+        <v>270</v>
+      </c>
+      <c r="K6" s="31" t="str">
         <f t="shared" ref="K6" si="0">HYPERLINK("", "Amazon")</f>
         <v>Amazon</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A7" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="C7" s="34">
+      <c r="A7" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="33">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>267</v>
-      </c>
-      <c r="E7" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="E7" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A218/", "McMaster")</f>
         <v>McMaster</v>
       </c>
@@ -10858,27 +10851,27 @@
         <v>0.73760000000000003</v>
       </c>
       <c r="H7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="I7" t="s">
-        <v>279</v>
-      </c>
-      <c r="K7" s="32" t="str">
+        <v>269</v>
+      </c>
+      <c r="K7" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3I2Pemt", "Amazon")</f>
         <v>Amazon</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A8" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="C8" s="34">
+      <c r="A8" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" s="33">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E8" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="E8" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A223/", "McMaster")</f>
         <v>McMaster</v>
       </c>
@@ -10891,27 +10884,27 @@
         <v>1.7775999999999998</v>
       </c>
       <c r="H8" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="I8" t="s">
-        <v>279</v>
-      </c>
-      <c r="K8" s="32" t="str">
+        <v>269</v>
+      </c>
+      <c r="K8" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3sVaTGL", "Amazon")</f>
         <v>Amazon</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A9" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="C9" s="34">
+      <c r="A9" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="33">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E9" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="E9" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/90591A260/", "McMaster")</f>
         <v>McMaster</v>
       </c>
@@ -10924,110 +10917,110 @@
         <v>7.1199999999999999E-2</v>
       </c>
       <c r="H9" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="I9" t="s">
-        <v>279</v>
-      </c>
-      <c r="K9" s="32" t="str">
+        <v>269</v>
+      </c>
+      <c r="K9" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3v5pm5K", "Amazon")</f>
         <v>Amazon</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="E10" s="32"/>
+      <c r="A10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="K10" s="32"/>
+      <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="E11" s="32"/>
+      <c r="A11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="K11" s="32"/>
+      <c r="K11" s="31"/>
     </row>
     <row r="12" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="E12" s="32"/>
+      <c r="A12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="K12" s="32"/>
+      <c r="K12" s="31"/>
     </row>
     <row r="13" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="E13" s="32"/>
+      <c r="A13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="K13" s="32"/>
+      <c r="K13" s="31"/>
     </row>
     <row r="14" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="E14" s="32"/>
+      <c r="A14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="K14" s="32"/>
+      <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="E15" s="32"/>
+      <c r="A15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="K15" s="32"/>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="E16" s="32"/>
+      <c r="A16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="K16" s="32"/>
+      <c r="K16" s="31"/>
     </row>
     <row r="17" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E17" s="32"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="K17" s="32"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E18" s="32"/>
+      <c r="E18" s="31"/>
       <c r="G18" s="5"/>
-      <c r="K18" s="32"/>
+      <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E19" s="32"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="K19" s="32"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E20" s="32"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="K20" s="32"/>
+      <c r="K20" s="31"/>
     </row>
     <row r="21" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E21" s="32"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="K21" s="32"/>
+      <c r="K21" s="31"/>
     </row>
     <row r="22" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
       <c r="I22" s="5"/>
     </row>
   </sheetData>
@@ -11448,23 +11441,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>412</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
+      <c r="A1" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
@@ -11484,19 +11477,19 @@
     </row>
     <row r="2" spans="1:32" ht="50.1" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>7</v>
@@ -11508,29 +11501,29 @@
         <v>11</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>275</v>
+        <v>248</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A3" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="C3" s="31">
+      <c r="A3" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="30">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E3" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
         <v>PETG</v>
       </c>
@@ -11543,25 +11536,25 @@
         <v>0.51273000000000002</v>
       </c>
       <c r="H3" t="s">
-        <v>297</v>
-      </c>
-      <c r="K3" s="32"/>
+        <v>287</v>
+      </c>
+      <c r="K3" s="31"/>
       <c r="L3" s="7">
         <f>SUM(RBA_47815[Extended Price])</f>
         <v>9.5010500000000011</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A4" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="C4" s="31">
+      <c r="A4" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="30">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E4" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E4" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3pcU6xT", "Amazon")</f>
         <v>Amazon</v>
       </c>
@@ -11574,21 +11567,21 @@
         <v>1.599</v>
       </c>
       <c r="H4" t="s">
-        <v>269</v>
-      </c>
-      <c r="K4" s="32"/>
+        <v>259</v>
+      </c>
+      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A5" s="31" t="s">
-        <v>413</v>
-      </c>
-      <c r="C5" s="31">
+      <c r="A5" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="C5" s="30">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E5" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E5" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
         <v>PETG</v>
       </c>
@@ -11601,24 +11594,24 @@
         <v>0.30384</v>
       </c>
       <c r="H5" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="I5" t="s">
-        <v>218</v>
-      </c>
-      <c r="K5" s="32"/>
+        <v>210</v>
+      </c>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A6" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="C6" s="31">
+      <c r="A6" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="C6" s="30">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
-      </c>
-      <c r="E6" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E6" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3t3zuJQ", "F606ZZ")</f>
         <v>F606ZZ</v>
       </c>
@@ -11630,19 +11623,19 @@
         <f>RBA_47815[[#This Row],[Unit Price]]*RBA_47815[[#This Row],[Quantity]]</f>
         <v>5.08</v>
       </c>
-      <c r="K6" s="32"/>
+      <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A7" s="31" t="s">
-        <v>414</v>
-      </c>
-      <c r="C7" s="31">
+      <c r="A7" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="C7" s="30">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E7" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E7" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
         <v>PETG</v>
       </c>
@@ -11655,21 +11648,21 @@
         <v>0.22788</v>
       </c>
       <c r="H7" t="s">
-        <v>297</v>
-      </c>
-      <c r="K7" s="32"/>
+        <v>287</v>
+      </c>
+      <c r="K7" s="31"/>
     </row>
     <row r="8" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A8" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="C8" s="31">
+      <c r="A8" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" s="30">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E8" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="E8" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A223/", "McMaster")</f>
         <v>McMaster</v>
       </c>
@@ -11682,118 +11675,118 @@
         <v>1.7775999999999998</v>
       </c>
       <c r="H8" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="I8" t="s">
-        <v>279</v>
-      </c>
-      <c r="K8" s="32" t="str">
+        <v>269</v>
+      </c>
+      <c r="K8" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3sVaTGL", "Amazon")</f>
         <v>Amazon</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="E9" s="32"/>
+      <c r="A9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="K9" s="32"/>
+      <c r="K9" s="31"/>
     </row>
     <row r="10" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="E10" s="32"/>
+      <c r="A10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="K10" s="32"/>
+      <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="E11" s="32"/>
+      <c r="A11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="K11" s="32"/>
+      <c r="K11" s="31"/>
     </row>
     <row r="12" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="E12" s="32"/>
+      <c r="A12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="K12" s="32"/>
+      <c r="K12" s="31"/>
     </row>
     <row r="13" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="E13" s="32"/>
+      <c r="A13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="K13" s="32"/>
+      <c r="K13" s="31"/>
     </row>
     <row r="14" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="E14" s="32"/>
+      <c r="A14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="K14" s="32"/>
+      <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="E15" s="32"/>
+      <c r="A15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="K15" s="32"/>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="E16" s="32"/>
+      <c r="A16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="K16" s="32"/>
+      <c r="K16" s="31"/>
     </row>
     <row r="17" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E17" s="32"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="K17" s="32"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E18" s="32"/>
+      <c r="E18" s="31"/>
       <c r="G18" s="5"/>
-      <c r="K18" s="32"/>
+      <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E19" s="32"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="K19" s="32"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E20" s="32"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="K20" s="32"/>
+      <c r="K20" s="31"/>
     </row>
     <row r="21" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E21" s="32"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="K21" s="32"/>
+      <c r="K21" s="31"/>
     </row>
     <row r="22" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
       <c r="I22" s="5"/>
     </row>
   </sheetData>
@@ -12274,23 +12267,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
+      <c r="A1" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
@@ -12310,19 +12303,19 @@
     </row>
     <row r="2" spans="1:32" ht="50.1" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>7</v>
@@ -12334,29 +12327,29 @@
         <v>11</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>275</v>
+        <v>248</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A3" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="C3" s="34">
+      <c r="A3" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" s="33">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E3" s="31" t="str">
         <f t="shared" ref="E3" si="0">HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
         <v>PETG</v>
       </c>
@@ -12369,28 +12362,28 @@
         <v>0.37980000000000003</v>
       </c>
       <c r="H3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I3" t="s">
-        <v>218</v>
-      </c>
-      <c r="K3" s="32"/>
+        <v>210</v>
+      </c>
+      <c r="K3" s="31"/>
       <c r="L3" s="7">
         <f>SUM(RBA_4789[Extended Price])</f>
         <v>6.5005199999999999</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A4" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="C4" s="34">
+      <c r="A4" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="33">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E4" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E4" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
         <v>PETG</v>
       </c>
@@ -12403,24 +12396,24 @@
         <v>0.15192</v>
       </c>
       <c r="H4" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="I4" t="s">
-        <v>218</v>
-      </c>
-      <c r="K4" s="32"/>
+        <v>210</v>
+      </c>
+      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A5" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="C5" s="34">
+      <c r="A5" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" s="33">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E5" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E5" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3t3zuJQ", "F606ZZ")</f>
         <v>F606ZZ</v>
       </c>
@@ -12432,19 +12425,19 @@
         <f>RBA_4789[[#This Row],[Unit Price]]*RBA_4789[[#This Row],[Quantity]]</f>
         <v>5.08</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A6" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="C6" s="34">
+      <c r="A6" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" s="33">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>267</v>
-      </c>
-      <c r="E6" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="E6" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A223/", "McMaster")</f>
         <v>McMaster</v>
       </c>
@@ -12457,136 +12450,136 @@
         <v>0.88879999999999992</v>
       </c>
       <c r="H6" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="I6" t="s">
-        <v>279</v>
-      </c>
-      <c r="K6" s="32" t="str">
+        <v>269</v>
+      </c>
+      <c r="K6" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3sVaTGL", "Amazon")</f>
         <v>Amazon</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="E7" s="32"/>
+      <c r="A7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="K7" s="32"/>
+      <c r="K7" s="31"/>
     </row>
     <row r="8" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="E8" s="32"/>
+      <c r="A8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="K8" s="32"/>
+      <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="E9" s="32"/>
+      <c r="A9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="K9" s="32"/>
+      <c r="K9" s="31"/>
     </row>
     <row r="10" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="E10" s="32"/>
+      <c r="A10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="K10" s="32"/>
+      <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="E11" s="32"/>
+      <c r="A11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="K11" s="32"/>
+      <c r="K11" s="31"/>
     </row>
     <row r="12" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="E12" s="32"/>
+      <c r="A12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="K12" s="32"/>
+      <c r="K12" s="31"/>
     </row>
     <row r="13" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="E13" s="32"/>
+      <c r="A13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="K13" s="32"/>
+      <c r="K13" s="31"/>
     </row>
     <row r="14" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="E14" s="32"/>
+      <c r="A14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="K14" s="32"/>
+      <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="E15" s="32"/>
+      <c r="A15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="K15" s="32"/>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="E16" s="32"/>
+      <c r="A16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="K16" s="32"/>
+      <c r="K16" s="31"/>
     </row>
     <row r="17" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E17" s="32"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="K17" s="32"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E18" s="32"/>
+      <c r="E18" s="31"/>
       <c r="G18" s="5"/>
-      <c r="K18" s="32"/>
+      <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E19" s="32"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="K19" s="32"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E20" s="32"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="K20" s="32"/>
+      <c r="K20" s="31"/>
     </row>
     <row r="21" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E21" s="32"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="K21" s="32"/>
+      <c r="K21" s="31"/>
     </row>
     <row r="22" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A22" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
+      <c r="A22" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
       <c r="I22" s="5">
         <f>SUM(RBA_4789[Extended Price])</f>
         <v>6.5005199999999999</v>
@@ -13010,23 +13003,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
+      <c r="A1" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
@@ -13046,19 +13039,19 @@
     </row>
     <row r="2" spans="1:32" ht="50.1" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>7</v>
@@ -13070,29 +13063,29 @@
         <v>11</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>275</v>
+        <v>248</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A3" s="31" t="s">
-        <v>358</v>
-      </c>
-      <c r="C3" s="31">
+      <c r="A3" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" s="30">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E3" s="31" t="str">
         <f t="shared" ref="E3" si="0">HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
         <v>PETG</v>
       </c>
@@ -13105,25 +13098,25 @@
         <v>0.41777999999999998</v>
       </c>
       <c r="H3" t="s">
-        <v>366</v>
-      </c>
-      <c r="K3" s="32"/>
+        <v>356</v>
+      </c>
+      <c r="K3" s="31"/>
       <c r="L3" s="7">
         <f>SUM(RBA_478911[Extended Price])</f>
         <v>6.8655099999999996</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A4" s="31" t="s">
-        <v>359</v>
-      </c>
-      <c r="C4" s="31">
+      <c r="A4" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="C4" s="30">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E4" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E4" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
         <v>PETG</v>
       </c>
@@ -13136,21 +13129,21 @@
         <v>0.13292999999999999</v>
       </c>
       <c r="H4" t="s">
-        <v>365</v>
-      </c>
-      <c r="K4" s="32"/>
+        <v>355</v>
+      </c>
+      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A5" s="34" t="s">
-        <v>360</v>
-      </c>
-      <c r="C5" s="31">
+      <c r="A5" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="C5" s="30">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E5" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="E5" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/62805K49/", "McMaster")</f>
         <v>McMaster</v>
       </c>
@@ -13162,21 +13155,21 @@
         <v>5.72</v>
       </c>
       <c r="H5" t="s">
-        <v>364</v>
-      </c>
-      <c r="K5" s="32"/>
+        <v>354</v>
+      </c>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A6" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="C6" s="31">
+      <c r="A6" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="C6" s="30">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>267</v>
-      </c>
-      <c r="E6" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="E6" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A222/", "McMaster")</f>
         <v>McMaster</v>
       </c>
@@ -13189,30 +13182,30 @@
         <v>0.53239999999999998</v>
       </c>
       <c r="H6" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="I6" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="J6" t="s">
-        <v>220</v>
-      </c>
-      <c r="K6" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="K6" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/35ijWtt", "Amazon")</f>
         <v>Amazon</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A7" s="31" t="s">
-        <v>362</v>
-      </c>
-      <c r="C7" s="31">
+      <c r="A7" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="C7" s="30">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>267</v>
-      </c>
-      <c r="E7" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="E7" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/90592A016/","McMaster")</f>
         <v>McMaster</v>
       </c>
@@ -13225,131 +13218,131 @@
         <v>6.2400000000000004E-2</v>
       </c>
       <c r="H7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="I7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="J7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K7" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="K7" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3JKgFBP","Amazon")</f>
         <v>Amazon</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="E8" s="32"/>
+      <c r="A8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="K8" s="32"/>
+      <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="E9" s="32"/>
+      <c r="A9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="K9" s="32"/>
+      <c r="K9" s="31"/>
     </row>
     <row r="10" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="E10" s="32"/>
+      <c r="A10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="K10" s="32"/>
+      <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="E11" s="32"/>
+      <c r="A11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="K11" s="32"/>
+      <c r="K11" s="31"/>
     </row>
     <row r="12" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="E12" s="32"/>
+      <c r="A12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="K12" s="32"/>
+      <c r="K12" s="31"/>
     </row>
     <row r="13" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="E13" s="32"/>
+      <c r="A13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="K13" s="32"/>
+      <c r="K13" s="31"/>
     </row>
     <row r="14" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="E14" s="32"/>
+      <c r="A14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="K14" s="32"/>
+      <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="E15" s="32"/>
+      <c r="A15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="K15" s="32"/>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="E16" s="32"/>
+      <c r="A16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="K16" s="32"/>
+      <c r="K16" s="31"/>
     </row>
     <row r="17" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E17" s="32"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="K17" s="32"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E18" s="32"/>
+      <c r="E18" s="31"/>
       <c r="G18" s="5"/>
-      <c r="K18" s="32"/>
+      <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E19" s="32"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="K19" s="32"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E20" s="32"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="K20" s="32"/>
+      <c r="K20" s="31"/>
     </row>
     <row r="21" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E21" s="32"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="K21" s="32"/>
+      <c r="K21" s="31"/>
     </row>
     <row r="22" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A22" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
+      <c r="A22" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
       <c r="I22" s="5">
         <f>SUM(RBA_478911[Extended Price])</f>
         <v>6.8655099999999996</v>
@@ -13733,7 +13726,7 @@
   <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:H60"/>
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13760,23 +13753,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="58.5" customHeight="1">
-      <c r="A1" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="A1" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
@@ -13825,7 +13818,7 @@
         <v>14</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -14487,53 +14480,53 @@
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="35">
         <v>1</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="36">
         <v>0</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="36">
         <v>0</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="35">
         <v>1001</v>
       </c>
-      <c r="K17" s="36" t="s">
+      <c r="K17" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="L17" s="36" t="s">
+      <c r="L17" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="M17" s="36" t="s">
+      <c r="M17" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="N17" s="36" t="s">
+      <c r="N17" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="O17" s="36" t="s">
+      <c r="O17" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="P17" s="36" t="s">
-        <v>354</v>
+      <c r="P17" s="35" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -14687,39 +14680,39 @@
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A24" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
+      <c r="A24" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
       <c r="I24" s="5">
         <f>SUM(Table1[Extended Price])</f>
         <v>17.48</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="47.25" customHeight="1">
-      <c r="A25" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
+      <c r="A25" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="3" t="s">
@@ -15854,39 +15847,39 @@
       <c r="O51" s="9"/>
     </row>
     <row r="52" spans="1:15" ht="27.75" customHeight="1">
-      <c r="A52" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
+      <c r="A52" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
       <c r="I52" s="7">
         <f>SUM(Table2[Extended Price])</f>
         <v>34.43</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="41.25" customHeight="1">
-      <c r="A53" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="43"/>
-      <c r="M53" s="43"/>
-      <c r="N53" s="43"/>
-      <c r="O53" s="43"/>
+      <c r="A53" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="42"/>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="11" t="s">
@@ -15896,7 +15889,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>2</v>
+        <v>442</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>3</v>
@@ -15936,32 +15929,35 @@
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="C55" s="46" t="str">
+        <f>HYPERLINK("https://www.amazon.com/Outdoor-Ethernet-Network-Internet-Waterproof/dp/B09BJ9DXKT/ref=sr_1_4?crid=UPB0B11XVW2J&amp;keywords=outdoor+ethernet+30ft&amp;qid=1646697389&amp;sprefix=outdoor+ethernet+30f%2Caps%2C134&amp;sr=8-4", "Amazon")</f>
+        <v>Amazon</v>
+      </c>
+      <c r="D55" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="12" t="s">
         <v>20</v>
       </c>
       <c r="G55" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H55" s="10">
-        <v>11.63</v>
+        <f>14.9/2</f>
+        <v>7.45</v>
       </c>
       <c r="I55" s="10">
-        <v>46.52</v>
+        <f>Table5[[#This Row],[Unit Price]]*Table5[[#This Row],[Quantity]]</f>
+        <v>22.35</v>
       </c>
       <c r="J55" s="8">
         <v>40</v>
@@ -15970,7 +15966,7 @@
         <v>58</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M55" s="8" t="s">
         <v>54</v>
@@ -15983,59 +15979,69 @@
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C56" s="8"/>
+      <c r="A56" s="45" t="s">
+        <v>437</v>
+      </c>
+      <c r="B56" t="s">
+        <v>436</v>
+      </c>
+      <c r="C56" s="46" t="str">
+        <f>HYPERLINK("https://www.amazon.com/gp/product/B093LCQQFY/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;psc=1", "Amazon")</f>
+        <v>Amazon</v>
+      </c>
       <c r="D56" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>20</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
       <c r="G56" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H56" s="10">
-        <v>59</v>
+        <v>7.99</v>
       </c>
       <c r="I56" s="10">
         <f>Table5[[#This Row],[Unit Price]]*Table5[[#This Row],[Quantity]]</f>
-        <v>59</v>
-      </c>
-      <c r="J56" s="8">
-        <v>2</v>
-      </c>
+        <v>23.97</v>
+      </c>
+      <c r="J56" s="8"/>
       <c r="K56" s="8"/>
-      <c r="L56" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="M56" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N56" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O56" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
+      <c r="A57" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="C57" s="46" t="str">
+        <f>HYPERLINK("https://www.amazon.com/Ethernet-Outdoor-Connector-Weatherproof-Resistant/dp/B07QLXC6QR/ref=sr_1_5?crid=2F6RVGF7SO42&amp;keywords=outdoor+ethernet+6ft&amp;qid=1646697348&amp;sprefix=outdoor+ethernet+6f%2Caps%2C124&amp;sr=8-5", "Amazon")</f>
+        <v>Amazon</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="8">
+        <v>1</v>
+      </c>
+      <c r="H57" s="10">
+        <f>7.64</f>
+        <v>7.64</v>
+      </c>
+      <c r="I57" s="10">
+        <f>Table5[[#This Row],[Unit Price]]*Table5[[#This Row],[Quantity]]</f>
+        <v>7.64</v>
+      </c>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
@@ -16078,19 +16084,19 @@
       <c r="O59" s="12"/>
     </row>
     <row r="60" spans="1:15" ht="27.75" customHeight="1">
-      <c r="A60" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
+      <c r="A60" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
       <c r="I60" s="7">
         <f>SUM(Table5[Extended Price])</f>
-        <v>105.52000000000001</v>
+        <v>53.96</v>
       </c>
     </row>
   </sheetData>
@@ -16103,7 +16109,7 @@
     <mergeCell ref="A52:H52"/>
   </mergeCells>
   <conditionalFormatting sqref="I27:I51">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16115,7 +16121,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H51">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16127,6 +16133,66 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I23">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H23">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55:I56">
+    <cfRule type="colorScale" priority="157">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55:H56">
+    <cfRule type="colorScale" priority="159">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -16138,32 +16204,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H23">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55:I56">
-    <cfRule type="colorScale" priority="153">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55:H56">
-    <cfRule type="colorScale" priority="155">
+  <conditionalFormatting sqref="H55:H57">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55:I57">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16229,23 +16283,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>301</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
+      <c r="A1" s="43" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
@@ -16265,19 +16319,19 @@
     </row>
     <row r="2" spans="1:32" ht="50.1" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>7</v>
@@ -16289,29 +16343,29 @@
         <v>11</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>275</v>
+        <v>248</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="50.1" customHeight="1">
       <c r="A3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C3" s="31">
+        <v>292</v>
+      </c>
+      <c r="C3" s="30">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>332</v>
-      </c>
-      <c r="E3" s="32" t="str">
+        <v>322</v>
+      </c>
+      <c r="E3" s="31" t="str">
         <f>HYPERLINK("https://bit.ly/3vasq0u", "StepperOnline")</f>
         <v>StepperOnline</v>
       </c>
@@ -16323,28 +16377,28 @@
         <v>54.77</v>
       </c>
       <c r="H3" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="I3" t="s">
-        <v>335</v>
-      </c>
-      <c r="K3" s="32"/>
+        <v>325</v>
+      </c>
+      <c r="K3" s="31"/>
       <c r="L3" s="7">
         <f>SUM(RBA_478910[Extended Price])</f>
         <v>448.24980960629921</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A4" s="31" t="s">
-        <v>303</v>
-      </c>
-      <c r="C4" s="31">
+      <c r="A4" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" s="30">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>332</v>
-      </c>
-      <c r="E4" s="32"/>
+        <v>322</v>
+      </c>
+      <c r="E4" s="31"/>
       <c r="F4" s="5">
         <v>0</v>
       </c>
@@ -16353,24 +16407,24 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="I4" t="s">
-        <v>336</v>
-      </c>
-      <c r="K4" s="32"/>
+        <v>326</v>
+      </c>
+      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A5" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="C5" s="31">
+      <c r="A5" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" s="30">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>331</v>
-      </c>
-      <c r="E5" s="32"/>
+        <v>321</v>
+      </c>
+      <c r="E5" s="31"/>
       <c r="F5" s="5">
         <f>'Electrical '!I24</f>
         <v>17.48</v>
@@ -16380,24 +16434,24 @@
         <v>17.48</v>
       </c>
       <c r="H5" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="I5" t="s">
-        <v>338</v>
-      </c>
-      <c r="K5" s="32"/>
+        <v>328</v>
+      </c>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A6" s="31" t="s">
-        <v>305</v>
-      </c>
-      <c r="C6" s="31">
+      <c r="A6" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="30">
         <v>1</v>
       </c>
       <c r="D6">
         <v>8020</v>
       </c>
-      <c r="E6" s="32" t="str">
+      <c r="E6" s="31" t="str">
         <f>HYPERLINK("https://8020.net/20-4040.html", "20-4040")</f>
         <v>20-4040</v>
       </c>
@@ -16410,24 +16464,24 @@
         <v>53.691102362204731</v>
       </c>
       <c r="H6" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="I6" t="s">
-        <v>339</v>
-      </c>
-      <c r="K6" s="32"/>
+        <v>329</v>
+      </c>
+      <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A7" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="C7" s="31">
+      <c r="A7" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" s="30">
         <v>1</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="E7" s="32" t="str">
+      <c r="D7" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="31" t="str">
         <f t="shared" ref="E7" si="0">HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
         <v>PETG</v>
       </c>
@@ -16440,25 +16494,25 @@
         <v>1.55718</v>
       </c>
       <c r="H7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
+        <v>210</v>
+      </c>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
     </row>
     <row r="8" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A8" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="C8" s="31">
+      <c r="A8" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="C8" s="30">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E8" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="E8" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/98952A059/","McMaster")</f>
         <v>McMaster</v>
       </c>
@@ -16469,19 +16523,19 @@
         <f>RBA_478910[[#This Row],[Unit Price]]*RBA_478910[[#This Row],[Quantity]]</f>
         <v>22.48</v>
       </c>
-      <c r="K8" s="32"/>
+      <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A9" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="C9" s="31">
+      <c r="A9" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="C9" s="30">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E9" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="E9" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/95783A039/","McMaster")</f>
         <v>McMaster</v>
       </c>
@@ -16492,19 +16546,19 @@
         <f>RBA_478910[[#This Row],[Unit Price]]*RBA_478910[[#This Row],[Quantity]]</f>
         <v>12</v>
       </c>
-      <c r="K9" s="32"/>
+      <c r="K9" s="31"/>
     </row>
     <row r="10" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A10" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="C10" s="31">
+      <c r="A10" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" s="30">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>341</v>
-      </c>
-      <c r="E10" s="32" t="str">
+        <v>331</v>
+      </c>
+      <c r="E10" s="31" t="str">
         <f>HYPERLINK("https://bit.ly/3Hc5Mr5","Misumi")</f>
         <v>Misumi</v>
       </c>
@@ -16516,21 +16570,21 @@
         <v>46.32</v>
       </c>
       <c r="H10" t="s">
-        <v>353</v>
-      </c>
-      <c r="K10" s="32"/>
+        <v>343</v>
+      </c>
+      <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A11" s="31" t="s">
-        <v>310</v>
-      </c>
-      <c r="C11" s="31">
+      <c r="A11" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="C11" s="30">
         <v>1</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="E11" s="32" t="str">
+      <c r="D11" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="31" t="str">
         <f t="shared" ref="E11" si="1">HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
         <v>PETG</v>
       </c>
@@ -16543,25 +16597,25 @@
         <v>0.15192</v>
       </c>
       <c r="H11" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I11" t="s">
-        <v>218</v>
-      </c>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
+        <v>210</v>
+      </c>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
     </row>
     <row r="12" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A12" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="C12" s="31">
+      <c r="A12" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C12" s="30">
         <v>1</v>
       </c>
       <c r="D12">
         <v>8020</v>
       </c>
-      <c r="E12" s="32" t="str">
+      <c r="E12" s="31" t="str">
         <f>HYPERLINK("https://8020.net/20-2568.html","8020")</f>
         <v>8020</v>
       </c>
@@ -16572,19 +16626,19 @@
         <f>RBA_478910[[#This Row],[Unit Price]]*RBA_478910[[#This Row],[Quantity]]</f>
         <v>28.24</v>
       </c>
-      <c r="K12" s="32"/>
+      <c r="K12" s="31"/>
     </row>
     <row r="13" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A13" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="C13" s="31">
+      <c r="A13" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="C13" s="30">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>220</v>
-      </c>
-      <c r="E13" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E13" s="31" t="str">
         <f>HYPERLINK("https://www.amazon.com/gp/product/B07CXNK33Q/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;psc=1","Amazon")</f>
         <v>Amazon</v>
       </c>
@@ -16596,24 +16650,24 @@
         <v>2.5</v>
       </c>
       <c r="H13" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="I13" t="s">
-        <v>344</v>
-      </c>
-      <c r="K13" s="32"/>
+        <v>334</v>
+      </c>
+      <c r="K13" s="31"/>
     </row>
     <row r="14" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A14" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="C14" s="31">
+      <c r="A14" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="C14" s="30">
         <v>1</v>
       </c>
-      <c r="D14" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="E14" s="32" t="str">
+      <c r="D14" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="31" t="str">
         <f t="shared" ref="E14" si="2">HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
         <v>PETG</v>
       </c>
@@ -16626,25 +16680,25 @@
         <v>0.34182000000000001</v>
       </c>
       <c r="H14" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I14" t="s">
-        <v>218</v>
-      </c>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
+        <v>210</v>
+      </c>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A15" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="C15" s="31">
+      <c r="A15" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15" s="30">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>345</v>
-      </c>
-      <c r="E15" s="32" t="str">
+        <v>335</v>
+      </c>
+      <c r="E15" s="31" t="str">
         <f>HYPERLINK("https://shop.sdp-si.com/catalog/product/?id=A_6A55M028DF0912","SDPSI")</f>
         <v>SDPSI</v>
       </c>
@@ -16655,19 +16709,19 @@
         <f>RBA_478910[[#This Row],[Unit Price]]*RBA_478910[[#This Row],[Quantity]]</f>
         <v>16.04</v>
       </c>
-      <c r="K15" s="32"/>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A16" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="C16" s="31">
+      <c r="A16" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="C16" s="30">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>346</v>
-      </c>
-      <c r="E16" s="32" t="str">
+        <v>336</v>
+      </c>
+      <c r="E16" s="31" t="str">
         <f>HYPERLINK("https://bit.ly/3BHYvxY","PolyBelt")</f>
         <v>PolyBelt</v>
       </c>
@@ -16680,30 +16734,30 @@
         <v>20.497047244094492</v>
       </c>
       <c r="H16" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="I16" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="J16" t="s">
-        <v>349</v>
-      </c>
-      <c r="K16" s="32" t="str">
+        <v>339</v>
+      </c>
+      <c r="K16" s="31" t="str">
         <f>HYPERLINK("https://www.ebay.com/itm/382865666347?var=651553605528","Ebay")</f>
         <v>Ebay</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A17" s="31" t="s">
-        <v>316</v>
-      </c>
-      <c r="C17" s="31">
+      <c r="A17" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" s="30">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>221</v>
-      </c>
-      <c r="F17" s="35">
+        <v>213</v>
+      </c>
+      <c r="F17" s="34">
         <f>'Mechanical - Carriage Assembly'!L3</f>
         <v>107.97528</v>
       </c>
@@ -16712,21 +16766,21 @@
         <v>107.97528</v>
       </c>
       <c r="H17" t="s">
-        <v>352</v>
-      </c>
-      <c r="K17" s="32"/>
+        <v>342</v>
+      </c>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A18" s="31" t="s">
-        <v>317</v>
-      </c>
-      <c r="C18" s="31">
+      <c r="A18" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="C18" s="30">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>332</v>
-      </c>
-      <c r="E18" s="32" t="str">
+        <v>322</v>
+      </c>
+      <c r="E18" s="31" t="str">
         <f>HYPERLINK("https://bit.ly/3payYID", "Stepper Online")</f>
         <v>Stepper Online</v>
       </c>
@@ -16738,21 +16792,21 @@
         <v>1.84</v>
       </c>
       <c r="H18" t="s">
-        <v>351</v>
-      </c>
-      <c r="K18" s="32"/>
+        <v>341</v>
+      </c>
+      <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A19" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="C19" s="31">
+      <c r="A19" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="C19" s="30">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>340</v>
-      </c>
-      <c r="E19" s="32" t="str">
+        <v>330</v>
+      </c>
+      <c r="E19" s="31" t="str">
         <f>HYPERLINK("https://www.digikey.com/en/products/detail/littelfuse-inc/59145-040/4771993","Digikey")</f>
         <v>Digikey</v>
       </c>
@@ -16764,21 +16818,21 @@
         <v>4.95</v>
       </c>
       <c r="H19" t="s">
-        <v>206</v>
-      </c>
-      <c r="K19" s="32"/>
+        <v>204</v>
+      </c>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A20" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="C20" s="31">
+      <c r="A20" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="C20" s="30">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>220</v>
-      </c>
-      <c r="E20" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E20" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/35hVTdS","Amazon")</f>
         <v>Amazon</v>
       </c>
@@ -16790,21 +16844,21 @@
         <v>6.76</v>
       </c>
       <c r="H20" t="s">
-        <v>350</v>
-      </c>
-      <c r="K20" s="32"/>
+        <v>340</v>
+      </c>
+      <c r="K20" s="31"/>
     </row>
     <row r="21" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A21" s="31" t="s">
-        <v>320</v>
-      </c>
-      <c r="C21" s="31">
+      <c r="A21" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="C21" s="30">
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>220</v>
-      </c>
-      <c r="E21" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E21" s="31" t="str">
         <f t="shared" ref="E21:E24" si="3">HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
         <v>PETG</v>
       </c>
@@ -16817,25 +16871,25 @@
         <v>1.48122</v>
       </c>
       <c r="H21" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="I21" t="s">
-        <v>218</v>
-      </c>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
+        <v>210</v>
+      </c>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
     </row>
     <row r="22" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A22" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="C22" s="31">
+      <c r="A22" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="C22" s="30">
         <v>1</v>
       </c>
-      <c r="D22" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="E22" s="32" t="str">
+      <c r="D22" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" s="31" t="str">
         <f t="shared" si="3"/>
         <v>PETG</v>
       </c>
@@ -16848,25 +16902,25 @@
         <v>0.22788</v>
       </c>
       <c r="H22" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="I22" t="s">
-        <v>218</v>
-      </c>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
+        <v>210</v>
+      </c>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
     </row>
     <row r="23" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A23" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="C23" s="31">
+      <c r="A23" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="C23" s="30">
         <v>1</v>
       </c>
-      <c r="D23" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="E23" s="32" t="str">
+      <c r="D23" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" s="31" t="str">
         <f t="shared" si="3"/>
         <v>PETG</v>
       </c>
@@ -16879,25 +16933,25 @@
         <v>0.20888999999999999</v>
       </c>
       <c r="H23" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="I23" t="s">
-        <v>218</v>
-      </c>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
+        <v>210</v>
+      </c>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
     </row>
     <row r="24" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A24" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="C24" s="31">
+      <c r="A24" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="C24" s="30">
         <v>1</v>
       </c>
-      <c r="D24" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="E24" s="32" t="str">
+      <c r="D24" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="E24" s="31" t="str">
         <f t="shared" si="3"/>
         <v>PETG</v>
       </c>
@@ -16910,25 +16964,25 @@
         <v>0.30384</v>
       </c>
       <c r="H24" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="I24" t="s">
-        <v>218</v>
-      </c>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
+        <v>210</v>
+      </c>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
     </row>
     <row r="25" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A25" s="31" t="s">
-        <v>324</v>
-      </c>
-      <c r="C25" s="31">
+      <c r="A25" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="C25" s="30">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>340</v>
-      </c>
-      <c r="E25" s="32" t="str">
+        <v>330</v>
+      </c>
+      <c r="E25" s="31" t="str">
         <f>HYPERLINK("https://www.digikey.com/en/products/detail/littelfuse-inc/57145-000/43980","Digikey")</f>
         <v>Digikey</v>
       </c>
@@ -16939,19 +16993,19 @@
         <f>RBA_478910[[#This Row],[Unit Price]]*RBA_478910[[#This Row],[Quantity]]</f>
         <v>3.06</v>
       </c>
-      <c r="K25" s="32"/>
+      <c r="K25" s="31"/>
     </row>
     <row r="26" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A26" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C26" s="31">
+      <c r="A26" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="C26" s="30">
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>221</v>
-      </c>
-      <c r="E26" s="32"/>
+        <v>213</v>
+      </c>
+      <c r="E26" s="31"/>
       <c r="F26" s="5">
         <f>'Mechanical - Bottom_Foot_Assemb'!L3</f>
         <v>6.8655099999999996</v>
@@ -16961,21 +17015,21 @@
         <v>20.596529999999998</v>
       </c>
       <c r="H26" t="s">
-        <v>369</v>
-      </c>
-      <c r="K26" s="32"/>
+        <v>359</v>
+      </c>
+      <c r="K26" s="31"/>
     </row>
     <row r="27" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A27" s="31" t="s">
-        <v>326</v>
-      </c>
-      <c r="C27" s="31">
+      <c r="A27" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="C27" s="30">
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>267</v>
-      </c>
-      <c r="E27" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="E27" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A207/", "McMaster")</f>
         <v>McMaster</v>
       </c>
@@ -16988,21 +17042,21 @@
         <v>2.9393999999999996</v>
       </c>
       <c r="H27" t="s">
-        <v>370</v>
-      </c>
-      <c r="K27" s="32"/>
+        <v>360</v>
+      </c>
+      <c r="K27" s="31"/>
     </row>
     <row r="28" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A28" s="31" t="s">
-        <v>327</v>
-      </c>
-      <c r="C28" s="31">
+      <c r="A28" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="C28" s="30">
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>267</v>
-      </c>
-      <c r="E28" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="E28" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A210/", "McMaster")</f>
         <v>McMaster</v>
       </c>
@@ -17015,21 +17069,21 @@
         <v>1.6015999999999999</v>
       </c>
       <c r="H28" t="s">
-        <v>371</v>
-      </c>
-      <c r="K28" s="32"/>
+        <v>361</v>
+      </c>
+      <c r="K28" s="31"/>
     </row>
     <row r="29" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A29" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="C29" s="31">
+      <c r="A29" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="C29" s="30">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>267</v>
-      </c>
-      <c r="E29" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="E29" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A216/", "McMaster")</f>
         <v>McMaster</v>
       </c>
@@ -17042,21 +17096,21 @@
         <v>0.30559999999999998</v>
       </c>
       <c r="H29" t="s">
-        <v>356</v>
-      </c>
-      <c r="K29" s="32"/>
+        <v>346</v>
+      </c>
+      <c r="K29" s="31"/>
     </row>
     <row r="30" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A30" s="31" t="s">
-        <v>329</v>
-      </c>
-      <c r="C30" s="31">
+      <c r="A30" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="C30" s="30">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>267</v>
-      </c>
-      <c r="E30" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="E30" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/94500A227/", "McMaster")</f>
         <v>McMaster</v>
       </c>
@@ -17069,20 +17123,20 @@
         <v>0.61599999999999999</v>
       </c>
       <c r="H30" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A31" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="C31" s="31">
+      <c r="A31" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="C31" s="30">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>220</v>
-      </c>
-      <c r="E31" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E31" s="31" t="str">
         <f t="shared" ref="E31" si="4">HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
         <v>PETG</v>
       </c>
@@ -17095,24 +17149,24 @@
         <v>0.94950000000000001</v>
       </c>
       <c r="H31" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I31" t="s">
-        <v>218</v>
-      </c>
-      <c r="K31" s="32"/>
+        <v>210</v>
+      </c>
+      <c r="K31" s="31"/>
     </row>
     <row r="32" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A32" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="C32" s="31">
+      <c r="A32" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" s="30">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>267</v>
-      </c>
-      <c r="E32" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="E32" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A208/", "McMaster")</f>
         <v>McMaster</v>
       </c>
@@ -17125,30 +17179,30 @@
         <v>0.65319999999999989</v>
       </c>
       <c r="H32" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="I32" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="J32" t="s">
-        <v>220</v>
-      </c>
-      <c r="K32" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="K32" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3I9bwDb", "Amazon")</f>
         <v>Amazon</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A33" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="C33" s="31">
+      <c r="A33" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="C33" s="30">
         <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>220</v>
-      </c>
-      <c r="E33" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E33" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3I8VKIx", "Amazon")</f>
         <v>Amazon</v>
       </c>
@@ -17161,30 +17215,30 @@
         <v>4.1761999999999997</v>
       </c>
       <c r="H33" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="I33" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="J33" t="s">
-        <v>267</v>
-      </c>
-      <c r="K33" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="K33" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/90510A232/", "McMaster")</f>
         <v>McMaster</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A34" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="C34" s="31">
+      <c r="A34" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="C34" s="30">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>267</v>
-      </c>
-      <c r="E34" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="E34" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/90591A260/", "McMaster")</f>
         <v>McMaster</v>
       </c>
@@ -17197,30 +17251,30 @@
         <v>3.56E-2</v>
       </c>
       <c r="H34" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="I34" t="s">
-        <v>279</v>
-      </c>
-      <c r="K34" s="32" t="str">
+        <v>269</v>
+      </c>
+      <c r="K34" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3v5pm5K", "Amazon")</f>
         <v>Amazon</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="50.1" customHeight="1">
       <c r="A35" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B35" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>346</v>
-      </c>
-      <c r="E35" s="32" t="str">
+        <v>336</v>
+      </c>
+      <c r="E35" s="31" t="str">
         <f>HYPERLINK("https://shop.polybelt.com/650-5m-09-Urethane-Steel-Timing-Belt-130-Tooth-B650-5M-09CPS.htm", "PolyBelt")</f>
         <v>PolyBelt</v>
       </c>
@@ -17232,9 +17286,9 @@
         <v>13.5</v>
       </c>
       <c r="H35" t="s">
-        <v>374</v>
-      </c>
-      <c r="K35" s="32"/>
+        <v>364</v>
+      </c>
+      <c r="K35" s="31"/>
     </row>
     <row r="36" spans="1:11" ht="50.1" customHeight="1">
       <c r="F36" s="5"/>
@@ -18001,23 +18055,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>420</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
+      <c r="A1" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
@@ -18037,19 +18091,19 @@
     </row>
     <row r="2" spans="1:32" ht="50.1" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>7</v>
@@ -18061,27 +18115,27 @@
         <v>11</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>275</v>
+        <v>248</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A3" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="C3" s="34">
+      <c r="A3" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="33">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F3" s="5">
         <f>'Electrical '!I52</f>
@@ -18092,25 +18146,25 @@
         <v>34.43</v>
       </c>
       <c r="H3" t="s">
-        <v>439</v>
-      </c>
-      <c r="K3" s="32"/>
+        <v>429</v>
+      </c>
+      <c r="K3" s="31"/>
       <c r="L3" s="7">
         <f>SUM(RBA_47816[Extended Price])</f>
         <v>216.04758333333342</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A4" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="C4" s="34">
+      <c r="A4" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="C4" s="33">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
-      </c>
-      <c r="E4" s="32" t="str">
+        <v>206</v>
+      </c>
+      <c r="E4" s="31" t="str">
         <f>HYPERLINK("https://developer.nvidia.com/embedded/jetson-nano-2gb-developer-kit","Nvidia")</f>
         <v>Nvidia</v>
       </c>
@@ -18121,19 +18175,19 @@
         <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
         <v>59.99</v>
       </c>
-      <c r="K4" s="32"/>
+      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A5" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="C5" s="34">
+      <c r="A5" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="C5" s="33">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E5" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E5" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3t85BIe","Amazon")</f>
         <v>Amazon</v>
       </c>
@@ -18145,19 +18199,19 @@
         <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
         <v>3.9950000000000001</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A6" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="C6" s="34">
+      <c r="A6" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="C6" s="33">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>440</v>
-      </c>
-      <c r="E6" s="32" t="str">
+        <v>430</v>
+      </c>
+      <c r="E6" s="31" t="str">
         <f>HYPERLINK("https://bit.ly/3pgw6dg","Seahorse")</f>
         <v>Seahorse</v>
       </c>
@@ -18168,19 +18222,19 @@
         <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
         <v>27.21</v>
       </c>
-      <c r="K6" s="32"/>
+      <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A7" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="C7" s="34">
+      <c r="A7" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="C7" s="33">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E7" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E7" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3JW5hmK","Amazon")</f>
         <v>Amazon</v>
       </c>
@@ -18192,19 +18246,19 @@
         <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
         <v>32.387999999999998</v>
       </c>
-      <c r="K7" s="32"/>
+      <c r="K7" s="31"/>
     </row>
     <row r="8" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A8" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="C8" s="34">
+      <c r="A8" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="C8" s="33">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E8" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E8" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3JNUvPk", "Amazon")</f>
         <v>Amazon</v>
       </c>
@@ -18215,19 +18269,19 @@
         <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
         <v>28.49</v>
       </c>
-      <c r="K8" s="32"/>
+      <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A9" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="C9" s="34">
+      <c r="A9" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="C9" s="33">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E9" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E9" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
         <v>PETG</v>
       </c>
@@ -18240,21 +18294,21 @@
         <v>0.53171999999999997</v>
       </c>
       <c r="H9" t="s">
-        <v>444</v>
-      </c>
-      <c r="K9" s="32"/>
+        <v>434</v>
+      </c>
+      <c r="K9" s="31"/>
     </row>
     <row r="10" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A10" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="C10" s="34">
+      <c r="A10" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="C10" s="33">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>220</v>
-      </c>
-      <c r="E10" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E10" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3M5yQ72", "Amazon")</f>
         <v>Amazon</v>
       </c>
@@ -18266,19 +18320,19 @@
         <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
         <v>6.9950000000000001</v>
       </c>
-      <c r="K10" s="32"/>
+      <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A11" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="C11" s="34">
+      <c r="A11" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="C11" s="33">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>220</v>
-      </c>
-      <c r="E11" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E11" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/35rtwKr", "Amazon")</f>
         <v>Amazon</v>
       </c>
@@ -18289,19 +18343,19 @@
         <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
         <v>11.99</v>
       </c>
-      <c r="K11" s="32"/>
+      <c r="K11" s="31"/>
     </row>
     <row r="12" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A12" s="34" t="s">
-        <v>429</v>
-      </c>
-      <c r="C12" s="34">
+      <c r="A12" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="C12" s="33">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>220</v>
-      </c>
-      <c r="E12" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E12" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
         <v>PETG</v>
       </c>
@@ -18314,27 +18368,27 @@
         <v>0.51273000000000002</v>
       </c>
       <c r="H12" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="I12" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="J12" t="s">
-        <v>220</v>
-      </c>
-      <c r="K12" s="32"/>
+        <v>212</v>
+      </c>
+      <c r="K12" s="31"/>
     </row>
     <row r="13" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A13" s="34" t="s">
-        <v>430</v>
-      </c>
-      <c r="C13" s="34">
+      <c r="A13" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="C13" s="33">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>220</v>
-      </c>
-      <c r="E13" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E13" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/35x7YMk","Amazon")</f>
         <v>Amazon</v>
       </c>
@@ -18346,19 +18400,19 @@
         <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
         <v>0.31980000000000003</v>
       </c>
-      <c r="K13" s="32"/>
+      <c r="K13" s="31"/>
     </row>
     <row r="14" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A14" s="34" t="s">
-        <v>431</v>
-      </c>
-      <c r="C14" s="34">
+      <c r="A14" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="C14" s="33">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>220</v>
-      </c>
-      <c r="E14" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E14" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/359tuHm", "Amazon")</f>
         <v>Amazon</v>
       </c>
@@ -18370,19 +18424,19 @@
         <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
         <v>1.1184000000000001</v>
       </c>
-      <c r="K14" s="32"/>
+      <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A15" s="34" t="s">
-        <v>432</v>
-      </c>
-      <c r="C15" s="34">
+      <c r="A15" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="C15" s="33">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E15" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E15" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3HoIvlN", "Amazon")</f>
         <v>Amazon</v>
       </c>
@@ -18394,19 +18448,19 @@
         <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
         <v>1.3053333333333332</v>
       </c>
-      <c r="K15" s="32"/>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A16" s="34" t="s">
-        <v>433</v>
-      </c>
-      <c r="C16" s="34">
+      <c r="A16" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="C16" s="33">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>220</v>
-      </c>
-      <c r="E16" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E16" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
         <v>PETG</v>
       </c>
@@ -18419,21 +18473,21 @@
         <v>0.81657000000000002</v>
       </c>
       <c r="H16" t="s">
-        <v>442</v>
-      </c>
-      <c r="K16" s="32"/>
+        <v>432</v>
+      </c>
+      <c r="K16" s="31"/>
     </row>
     <row r="17" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A17" s="34" t="s">
-        <v>434</v>
-      </c>
-      <c r="C17" s="34">
+      <c r="A17" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="C17" s="33">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>220</v>
-      </c>
-      <c r="E17" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E17" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
         <v>PETG</v>
       </c>
@@ -18446,21 +18500,21 @@
         <v>0.81657000000000002</v>
       </c>
       <c r="H17" t="s">
-        <v>443</v>
-      </c>
-      <c r="K17" s="32"/>
+        <v>433</v>
+      </c>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A18" s="34" t="s">
-        <v>435</v>
-      </c>
-      <c r="C18" s="34">
+      <c r="A18" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="C18" s="33">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>267</v>
-      </c>
-      <c r="E18" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="E18" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/94500A223/", "McMaster")</f>
         <v>McMaster</v>
       </c>
@@ -18472,19 +18526,19 @@
         <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
         <v>1.4951999999999999</v>
       </c>
-      <c r="K18" s="32"/>
+      <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A19" s="34" t="s">
-        <v>436</v>
-      </c>
-      <c r="C19" s="34">
+      <c r="A19" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="C19" s="33">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>220</v>
-      </c>
-      <c r="E19" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E19" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3pifPEE", "Amazon")</f>
         <v>Amazon</v>
       </c>
@@ -18496,19 +18550,19 @@
         <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
         <v>0.6472</v>
       </c>
-      <c r="K19" s="32"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A20" s="34" t="s">
-        <v>437</v>
-      </c>
-      <c r="C20" s="34">
+      <c r="A20" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="C20" s="33">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>220</v>
-      </c>
-      <c r="E20" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E20" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
         <v>PETG</v>
       </c>
@@ -18521,21 +18575,21 @@
         <v>1.02546</v>
       </c>
       <c r="H20" t="s">
-        <v>297</v>
-      </c>
-      <c r="K20" s="32"/>
+        <v>287</v>
+      </c>
+      <c r="K20" s="31"/>
     </row>
     <row r="21" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A21" s="34" t="s">
-        <v>438</v>
-      </c>
-      <c r="C21" s="34">
+      <c r="A21" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="C21" s="33">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>220</v>
-      </c>
-      <c r="E21" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E21" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3slfva4", "Amazon")</f>
         <v>Amazon</v>
       </c>
@@ -18547,19 +18601,19 @@
         <f>RBA_47816[[#This Row],[Unit Price]]*RBA_47816[[#This Row],[Quantity]]</f>
         <v>0.37959999999999999</v>
       </c>
-      <c r="K21" s="32"/>
+      <c r="K21" s="31"/>
     </row>
     <row r="22" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A22" s="34" t="s">
-        <v>405</v>
-      </c>
-      <c r="C22" s="34">
+      <c r="A22" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="C22" s="33">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>267</v>
-      </c>
-      <c r="E22" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="E22" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A216/", "McMaster")</f>
         <v>McMaster</v>
       </c>
@@ -18572,21 +18626,21 @@
         <v>0.61119999999999997</v>
       </c>
       <c r="H22" t="s">
-        <v>356</v>
-      </c>
-      <c r="K22" s="32"/>
+        <v>346</v>
+      </c>
+      <c r="K22" s="31"/>
     </row>
     <row r="23" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A23" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="C23" s="34">
+      <c r="A23" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="C23" s="33">
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>267</v>
-      </c>
-      <c r="E23" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="E23" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A208/", "McMaster")</f>
         <v>McMaster</v>
       </c>
@@ -18599,15 +18653,15 @@
         <v>0.97979999999999978</v>
       </c>
       <c r="H23" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="I23" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="J23" t="s">
-        <v>220</v>
-      </c>
-      <c r="K23" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="K23" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3I9bwDb", "Amazon")</f>
         <v>Amazon</v>
       </c>
@@ -19234,23 +19288,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>375</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
+      <c r="A1" s="43" t="s">
+        <v>365</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
@@ -19270,19 +19324,19 @@
     </row>
     <row r="2" spans="1:32" ht="50.1" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>7</v>
@@ -19294,30 +19348,30 @@
         <v>11</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>275</v>
+        <v>248</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A3" s="31" t="s">
-        <v>377</v>
-      </c>
-      <c r="C3" s="31">
+      <c r="A3" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="C3" s="30">
         <f>Overall!N9+1</f>
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E3" s="32"/>
+        <v>213</v>
+      </c>
+      <c r="E3" s="31"/>
       <c r="F3" s="5">
         <f>'Mechanical - Top_Rail_Section'!L3</f>
         <v>60.720000000000006</v>
@@ -19327,25 +19381,25 @@
         <v>60.720000000000006</v>
       </c>
       <c r="H3" t="s">
-        <v>366</v>
-      </c>
-      <c r="K3" s="32"/>
+        <v>356</v>
+      </c>
+      <c r="K3" s="31"/>
       <c r="L3" s="7">
         <f>SUM(RBA_4789115[Extended Price])</f>
         <v>261.02616</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A4" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="C4" s="31">
+      <c r="A4" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" s="30">
         <v>1</v>
       </c>
-      <c r="D4" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="E4" s="32" t="str">
+      <c r="D4" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="31" t="str">
         <f t="shared" ref="E4" si="0">HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
         <v>PETG</v>
       </c>
@@ -19358,25 +19412,25 @@
         <v>0.30384</v>
       </c>
       <c r="H4" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="I4" t="s">
-        <v>218</v>
-      </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
+        <v>210</v>
+      </c>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A5" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="C5" s="31">
+      <c r="A5" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" s="30">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>340</v>
-      </c>
-      <c r="E5" s="32" t="str">
+        <v>330</v>
+      </c>
+      <c r="E5" s="31" t="str">
         <f>HYPERLINK("https://www.digikey.com/en/products/detail/littelfuse-inc/59145-040/4771993","Digikey")</f>
         <v>Digikey</v>
       </c>
@@ -19388,21 +19442,21 @@
         <v>4.95</v>
       </c>
       <c r="H5" t="s">
-        <v>206</v>
-      </c>
-      <c r="K5" s="32"/>
+        <v>204</v>
+      </c>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A6" s="31" t="s">
-        <v>378</v>
-      </c>
-      <c r="C6" s="31">
+      <c r="A6" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="C6" s="30">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
-      </c>
-      <c r="E6" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E6" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3pcFWwW", "Amazon")</f>
         <v>Amazon</v>
       </c>
@@ -19415,30 +19469,30 @@
         <v>3.3979999999999997</v>
       </c>
       <c r="H6" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="I6" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="J6" t="s">
-        <v>220</v>
-      </c>
-      <c r="K6" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="K6" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/35ijWtt", "Amazon")</f>
         <v>Amazon</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A7" s="31" t="s">
-        <v>379</v>
-      </c>
-      <c r="C7" s="31">
+      <c r="A7" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" s="30">
         <v>10</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="E7" s="32" t="str">
+      <c r="D7" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="31" t="str">
         <f t="shared" ref="E7" si="1">HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
         <v>PETG</v>
       </c>
@@ -19451,28 +19505,28 @@
         <v>2.4687000000000001</v>
       </c>
       <c r="H7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="I7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32" t="str">
+        <v>210</v>
+      </c>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3JKgFBP","Amazon")</f>
         <v>Amazon</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A8" s="31" t="s">
-        <v>380</v>
-      </c>
-      <c r="C8" s="31">
+      <c r="A8" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="C8" s="30">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>221</v>
-      </c>
-      <c r="E8" s="32"/>
+        <v>213</v>
+      </c>
+      <c r="E8" s="31"/>
       <c r="F8" s="5">
         <f>'Mechanical - Yaxis_Carriage'!L3</f>
         <v>189.18561999999997</v>
@@ -19481,112 +19535,112 @@
         <f>RBA_4789115[[#This Row],[Unit Price]]*RBA_4789115[[#This Row],[Quantity]]</f>
         <v>189.18561999999997</v>
       </c>
-      <c r="K8" s="32"/>
+      <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="E9" s="32"/>
+      <c r="A9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="K9" s="32"/>
+      <c r="K9" s="31"/>
     </row>
     <row r="10" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="E10" s="32"/>
+      <c r="A10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="K10" s="32"/>
+      <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="E11" s="32"/>
+      <c r="A11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="K11" s="32"/>
+      <c r="K11" s="31"/>
     </row>
     <row r="12" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="E12" s="32"/>
+      <c r="A12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="K12" s="32"/>
+      <c r="K12" s="31"/>
     </row>
     <row r="13" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="E13" s="32"/>
+      <c r="A13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="K13" s="32"/>
+      <c r="K13" s="31"/>
     </row>
     <row r="14" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="E14" s="32"/>
+      <c r="A14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="K14" s="32"/>
+      <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="E15" s="32"/>
+      <c r="A15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="K15" s="32"/>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="E16" s="32"/>
+      <c r="A16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="K16" s="32"/>
+      <c r="K16" s="31"/>
     </row>
     <row r="17" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E17" s="32"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="K17" s="32"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E18" s="32"/>
+      <c r="E18" s="31"/>
       <c r="G18" s="5"/>
-      <c r="K18" s="32"/>
+      <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E19" s="32"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="K19" s="32"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E20" s="32"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="K20" s="32"/>
+      <c r="K20" s="31"/>
     </row>
     <row r="21" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E21" s="32"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="K21" s="32"/>
+      <c r="K21" s="31"/>
     </row>
     <row r="22" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A22" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
+      <c r="A22" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
       <c r="I22" s="5">
         <f>SUM(RBA_4789115[Extended Price])</f>
         <v>261.02616</v>
@@ -20058,23 +20112,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>236</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
+      <c r="A1" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
@@ -20094,19 +20148,19 @@
     </row>
     <row r="2" spans="1:32" ht="50.1" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>7</v>
@@ -20118,29 +20172,29 @@
         <v>11</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>275</v>
+        <v>248</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A3" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="31">
+      <c r="A3" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="30">
         <v>1</v>
       </c>
       <c r="D3">
         <v>8020</v>
       </c>
-      <c r="E3" s="32" t="str">
+      <c r="E3" s="31" t="str">
         <f>HYPERLINK("https://8020.net/20-2040.html", "20-2040")</f>
         <v>20-2040</v>
       </c>
@@ -20153,15 +20207,15 @@
         <v>4.7449999999999992</v>
       </c>
       <c r="H3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="I3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="J3" t="s">
-        <v>220</v>
-      </c>
-      <c r="K3" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="K3" s="31" t="str">
         <f>HYPERLINK("https://www.amazon.com/Aluminum-Extrusion-European-Standard-Anodized/dp/B08CN92SP1/ref=sr_1_7?crid=3VIGODRUEW0NZ&amp;keywords=150mm+2040&amp;qid=1645476496&amp;sprefix=150mm+2040%2Caps%2C147&amp;sr=8-7", "Amazon")</f>
         <v>Amazon</v>
       </c>
@@ -20171,16 +20225,16 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A4" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="C4" s="31">
+      <c r="A4" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="30">
         <v>4</v>
       </c>
       <c r="D4">
         <v>8020</v>
       </c>
-      <c r="E4" s="32" t="str">
+      <c r="E4" s="31" t="str">
         <f>HYPERLINK("https://8020.net/20-2040.html", "14056")</f>
         <v>14056</v>
       </c>
@@ -20192,30 +20246,30 @@
         <v>7.76</v>
       </c>
       <c r="H4" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="I4" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="J4" t="s">
-        <v>220</v>
-      </c>
-      <c r="K4" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="K4" s="31" t="str">
         <f>HYPERLINK("https://www.amazon.com/Aluminum-Extrusion-Corner-Bracket-Profile/dp/B08N16BKQS/ref=sr_1_7?crid=2K2OD6C5WR7GM&amp;keywords=right+angle+8020&amp;qid=1645476638&amp;sprefix=right+angle+8020%2Caps%2C149&amp;sr=8-7", "Amazon")</f>
         <v>Amazon</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A5" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="31">
+      <c r="A5" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="30">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E5" s="32"/>
+        <v>213</v>
+      </c>
+      <c r="E5" s="31"/>
       <c r="F5" s="5">
         <f>'Mechanical - Buffer'!L3</f>
         <v>2.3946900000000002</v>
@@ -20225,24 +20279,24 @@
         <v>4.7893800000000004</v>
       </c>
       <c r="H5" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="I5" t="s">
-        <v>278</v>
-      </c>
-      <c r="K5" s="32"/>
+        <v>268</v>
+      </c>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A6" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="C6" s="31">
+      <c r="A6" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="30">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
-      </c>
-      <c r="E6" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E6" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
         <v>PETG</v>
       </c>
@@ -20255,24 +20309,24 @@
         <v>0.48</v>
       </c>
       <c r="H6" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="I6" t="s">
-        <v>218</v>
-      </c>
-      <c r="K6" s="32"/>
+        <v>210</v>
+      </c>
+      <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A7" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="C7" s="31">
+      <c r="A7" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="30">
         <v>3</v>
       </c>
       <c r="D7">
         <v>8020</v>
       </c>
-      <c r="E7" s="32" t="str">
+      <c r="E7" s="31" t="str">
         <f t="shared" ref="E7" si="0">HYPERLINK("https://8020.net/20-2040.html", "20-2040")</f>
         <v>20-2040</v>
       </c>
@@ -20285,27 +20339,27 @@
         <v>20.939999999999998</v>
       </c>
       <c r="H7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="I7" t="s">
-        <v>256</v>
-      </c>
-      <c r="K7" s="32" t="str">
+        <v>246</v>
+      </c>
+      <c r="K7" s="31" t="str">
         <f>HYPERLINK("https://www.amazon.com/European-Standard-Anodized-Aluminum-Extrusion/dp/B099N9QCTJ/ref=sr_1_4?crid=WNRTCAE6OMWK&amp;keywords=2040+300mm&amp;qid=1645478233&amp;sprefix=2040+300mm%2Caps%2C190&amp;sr=8-4", "Amazon")</f>
         <v>Amazon</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A8" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" s="31">
+      <c r="A8" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="30">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E8" s="32" t="str">
+        <v>271</v>
+      </c>
+      <c r="E8" s="31" t="str">
         <f>HYPERLINK("https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/970300581/6174852", "DigiKey")</f>
         <v>DigiKey</v>
       </c>
@@ -20317,24 +20371,24 @@
         <v>3.04</v>
       </c>
       <c r="H8" t="s">
-        <v>280</v>
-      </c>
-      <c r="K8" s="32" t="str">
+        <v>270</v>
+      </c>
+      <c r="K8" s="31" t="str">
         <f t="shared" ref="K8:K15" si="1">HYPERLINK("", "Amazon")</f>
         <v>Amazon</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A9" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="C9" s="31">
+      <c r="A9" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" s="30">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>221</v>
-      </c>
-      <c r="E9" s="32"/>
+        <v>213</v>
+      </c>
+      <c r="E9" s="31"/>
       <c r="F9" s="5">
         <f>'Mechanical - Buffer'!L3</f>
         <v>2.3946900000000002</v>
@@ -20344,27 +20398,27 @@
         <v>4.7893800000000004</v>
       </c>
       <c r="H9" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="I9" t="s">
-        <v>278</v>
-      </c>
-      <c r="K9" s="32" t="str">
+        <v>268</v>
+      </c>
+      <c r="K9" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Amazon</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A10" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="C10" s="31">
+      <c r="A10" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="30">
         <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>267</v>
-      </c>
-      <c r="E10" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="E10" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A208/", "McMaster")</f>
         <v>McMaster</v>
       </c>
@@ -20377,30 +20431,30 @@
         <v>5.8787999999999991</v>
       </c>
       <c r="H10" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="I10" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="J10" t="s">
-        <v>220</v>
-      </c>
-      <c r="K10" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="K10" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3I9bwDb", "Amazon")</f>
         <v>Amazon</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A11" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="C11" s="31">
+      <c r="A11" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="30">
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>220</v>
-      </c>
-      <c r="E11" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E11" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3I8VKIx", "Amazon")</f>
         <v>Amazon</v>
       </c>
@@ -20413,30 +20467,30 @@
         <v>8.7919999999999998</v>
       </c>
       <c r="H11" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="I11" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="J11" t="s">
-        <v>267</v>
-      </c>
-      <c r="K11" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="K11" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/90510A232/", "McMaster")</f>
         <v>McMaster</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A12" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="C12" s="31">
+      <c r="A12" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="30">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E12" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="E12" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/5537T425/", "McMaster")</f>
         <v>McMaster</v>
       </c>
@@ -20449,30 +20503,30 @@
         <v>3.5150000000000001</v>
       </c>
       <c r="H12" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="I12" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J12" t="s">
-        <v>220</v>
-      </c>
-      <c r="K12" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="K12" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3s5sT1T", "Amazon")</f>
         <v>Amazon</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A13" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="C13" s="31">
+      <c r="A13" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="30">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>221</v>
-      </c>
-      <c r="E13" s="32"/>
+        <v>213</v>
+      </c>
+      <c r="E13" s="31"/>
       <c r="F13" s="5">
         <f>'Mechanical - X_CarriageFWD_V2_1'!L3</f>
         <v>7.3609699999999991</v>
@@ -20482,24 +20536,24 @@
         <v>14.721939999999998</v>
       </c>
       <c r="H13" t="s">
-        <v>237</v>
-      </c>
-      <c r="K13" s="32" t="str">
+        <v>227</v>
+      </c>
+      <c r="K13" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Amazon</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A14" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="C14" s="31">
+      <c r="A14" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" s="30">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>221</v>
-      </c>
-      <c r="E14" s="32"/>
+        <v>213</v>
+      </c>
+      <c r="E14" s="31"/>
       <c r="F14" s="5">
         <f>'Mechanical - X_CarriageFWDBeari'!L3</f>
         <v>6.5005199999999999</v>
@@ -20509,24 +20563,24 @@
         <v>13.00104</v>
       </c>
       <c r="H14" t="s">
-        <v>238</v>
-      </c>
-      <c r="K14" s="32" t="str">
+        <v>228</v>
+      </c>
+      <c r="K14" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Amazon</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A15" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="C15" s="31">
+      <c r="A15" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="C15" s="30">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>221</v>
-      </c>
-      <c r="E15" s="32"/>
+        <v>213</v>
+      </c>
+      <c r="E15" s="31"/>
       <c r="F15" s="5">
         <f>'Mechanical - X_CarriageFWD_V2_1'!L3</f>
         <v>7.3609699999999991</v>
@@ -20536,24 +20590,24 @@
         <v>14.721939999999998</v>
       </c>
       <c r="H15" t="s">
-        <v>298</v>
-      </c>
-      <c r="K15" s="32" t="str">
+        <v>288</v>
+      </c>
+      <c r="K15" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Amazon</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A16" s="31" t="s">
-        <v>327</v>
-      </c>
-      <c r="C16" s="31">
+      <c r="A16" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="C16" s="30">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>267</v>
-      </c>
-      <c r="E16" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="E16" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A210/", "McMaster")</f>
         <v>McMaster</v>
       </c>
@@ -20566,45 +20620,45 @@
         <v>0.80079999999999996</v>
       </c>
       <c r="H16" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="I16" t="s">
-        <v>376</v>
-      </c>
-      <c r="K16" s="32"/>
+        <v>366</v>
+      </c>
+      <c r="K16" s="31"/>
     </row>
     <row r="17" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E17" s="32"/>
+      <c r="E17" s="31"/>
       <c r="G17" s="5"/>
-      <c r="K17" s="32"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E18" s="32"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="K18" s="32"/>
+      <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E19" s="32"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="K19" s="32"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E20" s="32"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="K20" s="32"/>
+      <c r="K20" s="31"/>
     </row>
     <row r="21" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
       <c r="I21" s="5"/>
     </row>
   </sheetData>
@@ -20761,23 +20815,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>377</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
+      <c r="A1" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
@@ -20797,19 +20851,19 @@
     </row>
     <row r="2" spans="1:32" ht="50.1" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>7</v>
@@ -20821,29 +20875,29 @@
         <v>11</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J2" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A3" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="30">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>257</v>
       </c>
-      <c r="K2" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A3" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="C3" s="31">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E3" s="32" t="str">
+      <c r="E3" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/5537T425/", "McMaster")</f>
         <v>McMaster</v>
       </c>
@@ -20856,15 +20910,15 @@
         <v>7.03</v>
       </c>
       <c r="H3" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="I3" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J3" t="s">
-        <v>220</v>
-      </c>
-      <c r="K3" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="K3" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3s5sT1T", "Amazon")</f>
         <v>Amazon</v>
       </c>
@@ -20874,16 +20928,16 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A4" s="31" t="s">
-        <v>305</v>
-      </c>
-      <c r="C4" s="31">
+      <c r="A4" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="30">
         <v>1</v>
       </c>
       <c r="D4">
         <v>8020</v>
       </c>
-      <c r="E4" s="32" t="str">
+      <c r="E4" s="31" t="str">
         <f>HYPERLINK("https://8020.net/20-4040.html", "20-4040")</f>
         <v>20-4040</v>
       </c>
@@ -20896,149 +20950,149 @@
         <v>53.690000000000005</v>
       </c>
       <c r="H4" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="I4" t="s">
-        <v>256</v>
-      </c>
-      <c r="K4" s="32"/>
+        <v>246</v>
+      </c>
+      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="E5" s="32"/>
+      <c r="A5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="K5" s="32"/>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="E6" s="32"/>
+      <c r="A6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="K6" s="32"/>
+      <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="E7" s="32"/>
+      <c r="A7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="K7" s="32"/>
+      <c r="K7" s="31"/>
     </row>
     <row r="8" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="E8" s="32"/>
+      <c r="A8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="K8" s="32"/>
+      <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="E9" s="32"/>
+      <c r="A9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="K9" s="32"/>
+      <c r="K9" s="31"/>
     </row>
     <row r="10" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="E10" s="32"/>
+      <c r="A10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="K10" s="32"/>
+      <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="E11" s="32"/>
+      <c r="A11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="K11" s="32"/>
+      <c r="K11" s="31"/>
     </row>
     <row r="12" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="E12" s="32"/>
+      <c r="A12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="K12" s="32"/>
+      <c r="K12" s="31"/>
     </row>
     <row r="13" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="E13" s="32"/>
+      <c r="A13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="K13" s="32"/>
+      <c r="K13" s="31"/>
     </row>
     <row r="14" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="E14" s="32"/>
+      <c r="A14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="K14" s="32"/>
+      <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="E15" s="32"/>
+      <c r="A15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="K15" s="32"/>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="E16" s="32"/>
+      <c r="A16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="K16" s="32"/>
+      <c r="K16" s="31"/>
     </row>
     <row r="17" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E17" s="32"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="K17" s="32"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E18" s="32"/>
+      <c r="E18" s="31"/>
       <c r="G18" s="5"/>
-      <c r="K18" s="32"/>
+      <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E19" s="32"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="K19" s="32"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E20" s="32"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="K20" s="32"/>
+      <c r="K20" s="31"/>
     </row>
     <row r="21" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E21" s="32"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="K21" s="32"/>
+      <c r="K21" s="31"/>
     </row>
     <row r="22" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A22" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
+      <c r="A22" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
       <c r="I22" s="5">
         <f>SUM(RBA_478911512[Extended Price])</f>
         <v>60.720000000000006</v>
@@ -21474,23 +21528,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>377</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
+      <c r="A1" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
@@ -21510,19 +21564,19 @@
     </row>
     <row r="2" spans="1:32" ht="50.1" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>7</v>
@@ -21534,29 +21588,29 @@
         <v>11</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>275</v>
+        <v>248</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A3" s="31" t="s">
-        <v>386</v>
-      </c>
-      <c r="C3" s="31">
+      <c r="A3" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="C3" s="30">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E3" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3JJ8RAm", "Amazon")</f>
         <v>Amazon</v>
       </c>
@@ -21569,25 +21623,25 @@
         <v>1.5960000000000001</v>
       </c>
       <c r="H3" t="s">
-        <v>287</v>
-      </c>
-      <c r="K3" s="32"/>
+        <v>277</v>
+      </c>
+      <c r="K3" s="31"/>
       <c r="L3" s="7">
         <f>SUM(RBA_47891151213[Extended Price])</f>
         <v>189.18561999999997</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A4" s="31" t="s">
-        <v>387</v>
-      </c>
-      <c r="C4" s="31">
+      <c r="A4" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="C4" s="30">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>267</v>
-      </c>
-      <c r="E4" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="E4" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A187/", "McMaster")</f>
         <v>McMaster</v>
       </c>
@@ -21600,24 +21654,24 @@
         <v>0.28520000000000001</v>
       </c>
       <c r="H4" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="I4" t="s">
-        <v>256</v>
-      </c>
-      <c r="K4" s="32"/>
+        <v>246</v>
+      </c>
+      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A5" s="31" t="s">
-        <v>388</v>
-      </c>
-      <c r="C5" s="31">
+      <c r="A5" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="C5" s="30">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E5" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E5" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3v8bl7r","Amazon")</f>
         <v>Amazon</v>
       </c>
@@ -21629,19 +21683,19 @@
         <f>RBA_47891151213[[#This Row],[Unit Price]]*RBA_47891151213[[#This Row],[Quantity]]</f>
         <v>3.49</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A6" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="C6" s="31">
+      <c r="A6" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="C6" s="30">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E6" s="32"/>
+        <v>213</v>
+      </c>
+      <c r="E6" s="31"/>
       <c r="F6" s="5">
         <f>'Electrical '!I24</f>
         <v>17.48</v>
@@ -21650,37 +21704,37 @@
         <f>RBA_47891151213[[#This Row],[Unit Price]]*RBA_47891151213[[#This Row],[Quantity]]</f>
         <v>17.48</v>
       </c>
-      <c r="K6" s="32"/>
+      <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A7" s="31" t="s">
-        <v>389</v>
-      </c>
-      <c r="C7" s="31">
+      <c r="A7" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C7" s="30">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>409</v>
-      </c>
-      <c r="E7" s="32"/>
+        <v>399</v>
+      </c>
+      <c r="E7" s="31"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5">
         <f>RBA_47891151213[[#This Row],[Unit Price]]*RBA_47891151213[[#This Row],[Quantity]]</f>
         <v>0</v>
       </c>
-      <c r="K7" s="32"/>
+      <c r="K7" s="31"/>
     </row>
     <row r="8" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A8" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="C8" s="31">
+      <c r="A8" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="30">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>221</v>
-      </c>
-      <c r="E8" s="32"/>
+        <v>213</v>
+      </c>
+      <c r="E8" s="31"/>
       <c r="F8" s="5">
         <f>'Mechanical - Buffer'!L3</f>
         <v>2.3946900000000002</v>
@@ -21689,19 +21743,19 @@
         <f>RBA_47891151213[[#This Row],[Unit Price]]*RBA_47891151213[[#This Row],[Quantity]]</f>
         <v>2.3946900000000002</v>
       </c>
-      <c r="K8" s="32"/>
+      <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A9" s="31" t="s">
-        <v>390</v>
-      </c>
-      <c r="C9" s="31">
+      <c r="A9" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="C9" s="30">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>221</v>
-      </c>
-      <c r="E9" s="32"/>
+        <v>213</v>
+      </c>
+      <c r="E9" s="31"/>
       <c r="F9" s="5">
         <f>'Mechanical - X_CarriageFWD_V2_1'!L3</f>
         <v>7.3609699999999991</v>
@@ -21710,19 +21764,19 @@
         <f>RBA_47891151213[[#This Row],[Unit Price]]*RBA_47891151213[[#This Row],[Quantity]]</f>
         <v>7.3609699999999991</v>
       </c>
-      <c r="K9" s="32"/>
+      <c r="K9" s="31"/>
     </row>
     <row r="10" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A10" s="31" t="s">
-        <v>391</v>
-      </c>
-      <c r="C10" s="31">
+      <c r="A10" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="C10" s="30">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>221</v>
-      </c>
-      <c r="E10" s="32"/>
+        <v>213</v>
+      </c>
+      <c r="E10" s="31"/>
       <c r="F10" s="5">
         <f>'Mechanical - X_Carriage_v2_1'!L3</f>
         <v>9.5010500000000011</v>
@@ -21731,19 +21785,19 @@
         <f>RBA_47891151213[[#This Row],[Unit Price]]*RBA_47891151213[[#This Row],[Quantity]]</f>
         <v>9.5010500000000011</v>
       </c>
-      <c r="K10" s="32"/>
+      <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A11" s="31" t="s">
-        <v>392</v>
-      </c>
-      <c r="C11" s="31">
+      <c r="A11" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="C11" s="30">
         <v>2</v>
       </c>
       <c r="D11">
         <v>8020</v>
       </c>
-      <c r="E11" s="32" t="str">
+      <c r="E11" s="31" t="str">
         <f>HYPERLINK("https://8020.net/20-2040.html", "20-2040")</f>
         <v>20-2040</v>
       </c>
@@ -21756,30 +21810,30 @@
         <v>10.98</v>
       </c>
       <c r="H11" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="I11" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="J11" t="s">
-        <v>220</v>
-      </c>
-      <c r="K11" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="K11" s="31" t="str">
         <f>HYPERLINK("https://www.amazon.com/Aluminum-Extrusion-European-Standard-Anodized/dp/B08CN92SP1/ref=sr_1_7?crid=3VIGODRUEW0NZ&amp;keywords=150mm+2040&amp;qid=1645476496&amp;sprefix=150mm+2040%2Caps%2C147&amp;sr=8-7", "Amazon")</f>
         <v>Amazon</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A12" s="31" t="s">
-        <v>393</v>
-      </c>
-      <c r="C12" s="31">
+      <c r="A12" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="C12" s="30">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>221</v>
-      </c>
-      <c r="E12" s="32"/>
+        <v>213</v>
+      </c>
+      <c r="E12" s="31"/>
       <c r="F12" s="5">
         <f>'Mechanical - X_CarriageFWD_V2_1'!L3</f>
         <v>7.3609699999999991</v>
@@ -21788,19 +21842,19 @@
         <f>RBA_47891151213[[#This Row],[Unit Price]]*RBA_47891151213[[#This Row],[Quantity]]</f>
         <v>7.3609699999999991</v>
       </c>
-      <c r="K12" s="32"/>
+      <c r="K12" s="31"/>
     </row>
     <row r="13" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A13" s="31" t="s">
-        <v>394</v>
-      </c>
-      <c r="C13" s="31">
+      <c r="A13" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="C13" s="30">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>221</v>
-      </c>
-      <c r="E13" s="32"/>
+        <v>213</v>
+      </c>
+      <c r="E13" s="31"/>
       <c r="F13" s="5">
         <f>'Mechanical - X_Carriage_v2_1'!L3</f>
         <v>9.5010500000000011</v>
@@ -21809,19 +21863,19 @@
         <f>RBA_47891151213[[#This Row],[Unit Price]]*RBA_47891151213[[#This Row],[Quantity]]</f>
         <v>9.5010500000000011</v>
       </c>
-      <c r="K13" s="32"/>
+      <c r="K13" s="31"/>
     </row>
     <row r="14" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A14" s="31" t="s">
-        <v>395</v>
-      </c>
-      <c r="C14" s="31">
+      <c r="A14" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="C14" s="30">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>220</v>
-      </c>
-      <c r="E14" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E14" s="31" t="str">
         <f>HYPERLINK("https://www.amazon.com/gp/product/B07CXNK33Q/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;psc=1","Amazon")</f>
         <v>Amazon</v>
       </c>
@@ -21833,24 +21887,24 @@
         <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="I14" t="s">
-        <v>344</v>
-      </c>
-      <c r="K14" s="32"/>
+        <v>334</v>
+      </c>
+      <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A15" s="34" t="s">
-        <v>396</v>
-      </c>
-      <c r="C15" s="31">
+      <c r="A15" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="C15" s="30">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>267</v>
-      </c>
-      <c r="E15" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="E15" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/95947A725/", "Amazon")</f>
         <v>Amazon</v>
       </c>
@@ -21861,19 +21915,19 @@
         <f>RBA_47891151213[[#This Row],[Unit Price]]*RBA_47891151213[[#This Row],[Quantity]]</f>
         <v>8.08</v>
       </c>
-      <c r="K15" s="32"/>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A16" s="31" t="s">
-        <v>397</v>
-      </c>
-      <c r="C16" s="31">
+      <c r="A16" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="C16" s="30">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>410</v>
-      </c>
-      <c r="E16" s="32" t="str">
+        <v>400</v>
+      </c>
+      <c r="E16" s="31" t="str">
         <f>HYPERLINK("https://bit.ly/3t0jHvb", "StepperOnline")</f>
         <v>StepperOnline</v>
       </c>
@@ -21884,19 +21938,19 @@
         <f>RBA_47891151213[[#This Row],[Unit Price]]*RBA_47891151213[[#This Row],[Quantity]]</f>
         <v>9.91</v>
       </c>
-      <c r="K16" s="32"/>
+      <c r="K16" s="31"/>
     </row>
     <row r="17" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A17" s="31" t="s">
-        <v>398</v>
-      </c>
-      <c r="C17" s="31">
+      <c r="A17" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="C17" s="30">
         <v>1</v>
       </c>
-      <c r="D17" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="E17" s="32" t="str">
+      <c r="D17" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="E17" s="31" t="str">
         <f t="shared" ref="E17:E18" si="0">HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
         <v>PETG</v>
       </c>
@@ -21909,25 +21963,25 @@
         <v>2.1268799999999999</v>
       </c>
       <c r="H17" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="I17" t="s">
-        <v>218</v>
-      </c>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
+        <v>210</v>
+      </c>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A18" s="31" t="s">
-        <v>399</v>
-      </c>
-      <c r="C18" s="31">
+      <c r="A18" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="C18" s="30">
         <v>2</v>
       </c>
-      <c r="D18" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="E18" s="32" t="str">
+      <c r="D18" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="E18" s="31" t="str">
         <f t="shared" si="0"/>
         <v>PETG</v>
       </c>
@@ -21940,25 +21994,25 @@
         <v>0.53171999999999997</v>
       </c>
       <c r="H18" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="I18" t="s">
-        <v>218</v>
-      </c>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
+        <v>210</v>
+      </c>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A19" s="31" t="s">
-        <v>324</v>
-      </c>
-      <c r="C19" s="31">
+      <c r="A19" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="C19" s="30">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>340</v>
-      </c>
-      <c r="E19" s="32" t="str">
+        <v>330</v>
+      </c>
+      <c r="E19" s="31" t="str">
         <f>HYPERLINK("https://www.digikey.com/en/products/detail/littelfuse-inc/57145-000/43980","Digikey")</f>
         <v>Digikey</v>
       </c>
@@ -21970,21 +22024,21 @@
         <v>3.06</v>
       </c>
       <c r="H19" t="s">
-        <v>417</v>
-      </c>
-      <c r="K19" s="32"/>
+        <v>407</v>
+      </c>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A20" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="C20" s="31">
+      <c r="A20" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="C20" s="30">
         <v>1</v>
       </c>
-      <c r="D20" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="E20" s="32" t="str">
+      <c r="D20" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="E20" s="31" t="str">
         <f t="shared" ref="E20:E24" si="1">HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
         <v>PETG</v>
       </c>
@@ -21997,25 +22051,25 @@
         <v>0.20888999999999999</v>
       </c>
       <c r="H20" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="I20" t="s">
-        <v>218</v>
-      </c>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
+        <v>210</v>
+      </c>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
     </row>
     <row r="21" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A21" s="31" t="s">
-        <v>400</v>
-      </c>
-      <c r="C21" s="31">
+      <c r="A21" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="C21" s="30">
         <v>1</v>
       </c>
-      <c r="D21" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="E21" s="32" t="str">
+      <c r="D21" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="E21" s="31" t="str">
         <f t="shared" si="1"/>
         <v>PETG</v>
       </c>
@@ -22028,25 +22082,25 @@
         <v>0.32283000000000001</v>
       </c>
       <c r="H21" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="I21" t="s">
-        <v>218</v>
-      </c>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
+        <v>210</v>
+      </c>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
     </row>
     <row r="22" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A22" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="C22" s="31">
+      <c r="A22" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="C22" s="30">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>221</v>
-      </c>
-      <c r="E22" s="32"/>
+        <v>213</v>
+      </c>
+      <c r="E22" s="31"/>
       <c r="F22" s="5">
         <f>'Mechanical - Buffer'!L3</f>
         <v>2.3946900000000002</v>
@@ -22055,19 +22109,19 @@
         <f>RBA_47891151213[[#This Row],[Unit Price]]*RBA_47891151213[[#This Row],[Quantity]]</f>
         <v>2.3946900000000002</v>
       </c>
-      <c r="K22" s="32"/>
+      <c r="K22" s="31"/>
     </row>
     <row r="23" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A23" s="31" t="s">
-        <v>401</v>
-      </c>
-      <c r="C23" s="31">
+      <c r="A23" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="C23" s="30">
         <v>1</v>
       </c>
-      <c r="D23" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="E23" s="32" t="str">
+      <c r="D23" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" s="31" t="str">
         <f t="shared" si="1"/>
         <v>PETG</v>
       </c>
@@ -22080,25 +22134,25 @@
         <v>2.0509200000000001</v>
       </c>
       <c r="H23" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="I23" t="s">
-        <v>218</v>
-      </c>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
+        <v>210</v>
+      </c>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
     </row>
     <row r="24" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A24" s="31" t="s">
-        <v>359</v>
-      </c>
-      <c r="C24" s="31">
+      <c r="A24" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="C24" s="30">
         <v>2</v>
       </c>
-      <c r="D24" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="E24" s="32" t="str">
+      <c r="D24" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="E24" s="31" t="str">
         <f t="shared" si="1"/>
         <v>PETG</v>
       </c>
@@ -22111,25 +22165,25 @@
         <v>0.26585999999999999</v>
       </c>
       <c r="H24" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="I24" t="s">
-        <v>218</v>
-      </c>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
+        <v>210</v>
+      </c>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
     </row>
     <row r="25" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A25" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="C25" s="31">
+      <c r="A25" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="C25" s="30">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>349</v>
-      </c>
-      <c r="E25" s="32" t="str">
+        <v>339</v>
+      </c>
+      <c r="E25" s="31" t="str">
         <f>HYPERLINK("https://www.ebay.com/itm/392938210815", "Ebay")</f>
         <v>Ebay</v>
       </c>
@@ -22140,19 +22194,19 @@
         <f>RBA_47891151213[[#This Row],[Unit Price]]*RBA_47891151213[[#This Row],[Quantity]]</f>
         <v>69.959999999999994</v>
       </c>
-      <c r="K25" s="32" t="str">
+      <c r="K25" s="31" t="str">
         <f t="shared" ref="K25:K32" si="2">HYPERLINK("https://www.amazon.com/Aluminum-Extrusion-European-Standard-Anodized/dp/B08CN92SP1/ref=sr_1_7?crid=3VIGODRUEW0NZ&amp;keywords=150mm+2040&amp;qid=1645476496&amp;sprefix=150mm+2040%2Caps%2C147&amp;sr=8-7", "Amazon")</f>
         <v>Amazon</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A26" s="31" t="s">
-        <v>403</v>
-      </c>
-      <c r="C26" s="31">
+      <c r="A26" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="C26" s="30">
         <v>1</v>
       </c>
-      <c r="E26" s="32" t="str">
+      <c r="E26" s="31" t="str">
         <f t="shared" ref="E26:E27" si="3">HYPERLINK("https://8020.net/20-2040.html", "20-2040")</f>
         <v>20-2040</v>
       </c>
@@ -22164,21 +22218,21 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>411</v>
-      </c>
-      <c r="K26" s="32" t="str">
+        <v>401</v>
+      </c>
+      <c r="K26" s="31" t="str">
         <f t="shared" si="2"/>
         <v>Amazon</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A27" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="C27" s="31">
+      <c r="A27" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="C27" s="30">
         <v>1</v>
       </c>
-      <c r="E27" s="32" t="str">
+      <c r="E27" s="31" t="str">
         <f t="shared" si="3"/>
         <v>20-2040</v>
       </c>
@@ -22190,24 +22244,24 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>411</v>
-      </c>
-      <c r="K27" s="32" t="str">
+        <v>401</v>
+      </c>
+      <c r="K27" s="31" t="str">
         <f t="shared" si="2"/>
         <v>Amazon</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A28" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="C28" s="31">
+      <c r="A28" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" s="30">
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>220</v>
-      </c>
-      <c r="E28" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E28" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3I8VKIx", "Amazon")</f>
         <v>Amazon</v>
       </c>
@@ -22220,30 +22274,30 @@
         <v>7.0335999999999999</v>
       </c>
       <c r="H28" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="I28" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="J28" t="s">
-        <v>267</v>
-      </c>
-      <c r="K28" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="K28" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/90510A232/", "McMaster")</f>
         <v>McMaster</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A29" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="C29" s="31">
+      <c r="A29" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="C29" s="30">
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>267</v>
-      </c>
-      <c r="E29" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="E29" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A208/", "McMaster")</f>
         <v>McMaster</v>
       </c>
@@ -22256,30 +22310,30 @@
         <v>4.8989999999999991</v>
       </c>
       <c r="H29" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="I29" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="J29" t="s">
-        <v>220</v>
-      </c>
-      <c r="K29" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="K29" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3I9bwDb", "Amazon")</f>
         <v>Amazon</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A30" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="C30" s="31">
+      <c r="A30" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="C30" s="30">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>267</v>
-      </c>
-      <c r="E30" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="E30" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A216/", "McMaster")</f>
         <v>McMaster</v>
       </c>
@@ -22292,21 +22346,21 @@
         <v>0.61119999999999997</v>
       </c>
       <c r="H30" t="s">
-        <v>356</v>
-      </c>
-      <c r="K30" s="32"/>
+        <v>346</v>
+      </c>
+      <c r="K30" s="31"/>
     </row>
     <row r="31" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A31" s="31" t="s">
-        <v>291</v>
-      </c>
-      <c r="C31" s="31">
+      <c r="A31" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="C31" s="30">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>267</v>
-      </c>
-      <c r="E31" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="E31" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A218/", "McMaster")</f>
         <v>McMaster</v>
       </c>
@@ -22318,22 +22372,22 @@
         <f>RBA_47891151213[[#This Row],[Unit Price]]*RBA_47891151213[[#This Row],[Quantity]]</f>
         <v>0.73760000000000003</v>
       </c>
-      <c r="K31" s="32" t="str">
+      <c r="K31" s="31" t="str">
         <f t="shared" si="2"/>
         <v>Amazon</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A32" s="31" t="s">
-        <v>405</v>
-      </c>
-      <c r="C32" s="31">
+      <c r="A32" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="C32" s="30">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>267</v>
-      </c>
-      <c r="E32" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="E32" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A214/", "McMaster")</f>
         <v>McMaster</v>
       </c>
@@ -22345,22 +22399,22 @@
         <f>RBA_47891151213[[#This Row],[Unit Price]]*RBA_47891151213[[#This Row],[Quantity]]</f>
         <v>0.99040000000000006</v>
       </c>
-      <c r="K32" s="32" t="str">
+      <c r="K32" s="31" t="str">
         <f t="shared" si="2"/>
         <v>Amazon</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A33" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="C33" s="31">
+      <c r="A33" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="C33" s="30">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>267</v>
-      </c>
-      <c r="E33" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="E33" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/90591A260/", "McMaster")</f>
         <v>McMaster</v>
       </c>
@@ -22373,27 +22427,27 @@
         <v>0.1424</v>
       </c>
       <c r="H33" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="I33" t="s">
-        <v>279</v>
-      </c>
-      <c r="K33" s="32" t="str">
+        <v>269</v>
+      </c>
+      <c r="K33" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3v5pm5K", "Amazon")</f>
         <v>Amazon</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A34" s="31" t="s">
-        <v>406</v>
-      </c>
-      <c r="C34" s="31">
+      <c r="A34" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="C34" s="30">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>267</v>
-      </c>
-      <c r="E34" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="E34" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/92095A475/", "McMaster")</f>
         <v>McMaster</v>
       </c>
@@ -22406,24 +22460,24 @@
         <v>0.64</v>
       </c>
       <c r="H34" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="I34" t="s">
-        <v>256</v>
-      </c>
-      <c r="K34" s="32"/>
+        <v>246</v>
+      </c>
+      <c r="K34" s="31"/>
     </row>
     <row r="35" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A35" s="31" t="s">
-        <v>407</v>
-      </c>
-      <c r="C35" s="31">
+      <c r="A35" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="C35" s="30">
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>220</v>
-      </c>
-      <c r="E35" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E35" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3JSYdHx", "Amazon")</f>
         <v>Amazon</v>
       </c>
@@ -22436,9 +22490,9 @@
         <v>0.26970000000000005</v>
       </c>
       <c r="H35" t="s">
-        <v>419</v>
-      </c>
-      <c r="K35" s="32"/>
+        <v>409</v>
+      </c>
+      <c r="K35" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -23517,23 +23571,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
+      <c r="A1" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
@@ -23553,19 +23607,19 @@
     </row>
     <row r="2" spans="1:32" ht="50.1" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>7</v>
@@ -23577,29 +23631,29 @@
         <v>11</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>275</v>
+        <v>248</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A3" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="C3" s="31">
+      <c r="A3" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="30">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E3" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3pcU6xT", "Amazon")</f>
         <v>Amazon</v>
       </c>
@@ -23612,25 +23666,25 @@
         <v>1.599</v>
       </c>
       <c r="H3" t="s">
-        <v>269</v>
-      </c>
-      <c r="K3" s="32"/>
+        <v>259</v>
+      </c>
+      <c r="K3" s="31"/>
       <c r="L3" s="7">
         <f>SUM(RBA_47[Extended Price])</f>
         <v>2.3946900000000002</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A4" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="C4" s="31">
+      <c r="A4" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" s="30">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>267</v>
-      </c>
-      <c r="E4" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="E4" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/91306A736/", "McMaster")</f>
         <v>McMaster</v>
       </c>
@@ -23643,30 +23697,30 @@
         <v>0.55120000000000002</v>
       </c>
       <c r="H4" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="I4" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="J4" t="s">
-        <v>220</v>
-      </c>
-      <c r="K4" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="K4" s="31" t="str">
         <f>HYPERLINK("https://www.amazon.com/ZAYI-M5-0-8-Stainless-Finish%EF%BC%8CMetric-Fastener/dp/B09MRGZ473/ref=sr_1_3?crid=3FJWNU9KFFIX0&amp;keywords=M5+50mm&amp;qid=1645477676&amp;sprefix=m5+50mm%2Caps%2C146&amp;sr=8-3", "Amazon")</f>
         <v>Amazon</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A5" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="C5" s="31">
+      <c r="A5" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="30">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E5" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E5" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
         <v>PETG</v>
       </c>
@@ -23678,24 +23732,24 @@
         <v>1.899E-2</v>
       </c>
       <c r="H5" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="I5" t="s">
-        <v>218</v>
-      </c>
-      <c r="K5" s="32"/>
+        <v>210</v>
+      </c>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A6" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="C6" s="31">
+      <c r="A6" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="30">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
-      </c>
-      <c r="E6" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E6" s="31" t="str">
         <f t="shared" ref="E6:E7" si="0">HYPERLINK("https://amzn.to/3p4Z7Zp", "PETG")</f>
         <v>PETG</v>
       </c>
@@ -23707,24 +23761,24 @@
         <v>1.899E-2</v>
       </c>
       <c r="H6" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="I6" t="s">
-        <v>218</v>
-      </c>
-      <c r="K6" s="32"/>
+        <v>210</v>
+      </c>
+      <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A7" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="C7" s="31">
+      <c r="A7" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="30">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E7" s="32" t="str">
+        <v>212</v>
+      </c>
+      <c r="E7" s="31" t="str">
         <f t="shared" si="0"/>
         <v>PETG</v>
       </c>
@@ -23737,24 +23791,24 @@
         <v>0.17091000000000001</v>
       </c>
       <c r="H7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K7" s="32"/>
+        <v>210</v>
+      </c>
+      <c r="K7" s="31"/>
     </row>
     <row r="8" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A8" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="C8" s="31">
+      <c r="A8" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="30">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E8" s="32" t="str">
+        <v>257</v>
+      </c>
+      <c r="E8" s="31" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/90591A260/", "McMaster")</f>
         <v>McMaster</v>
       </c>
@@ -23767,119 +23821,119 @@
         <v>3.56E-2</v>
       </c>
       <c r="H8" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="I8" t="s">
-        <v>279</v>
-      </c>
-      <c r="K8" s="32" t="str">
+        <v>269</v>
+      </c>
+      <c r="K8" s="31" t="str">
         <f>HYPERLINK("https://amzn.to/3v5pm5K", "Amazon")</f>
         <v>Amazon</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="E9" s="32"/>
+      <c r="A9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="K9" s="32"/>
+      <c r="K9" s="31"/>
     </row>
     <row r="10" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="E10" s="32"/>
+      <c r="A10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="K10" s="32"/>
+      <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="E11" s="32"/>
+      <c r="A11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="K11" s="32"/>
+      <c r="K11" s="31"/>
     </row>
     <row r="12" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="E12" s="32"/>
+      <c r="A12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="K12" s="32"/>
+      <c r="K12" s="31"/>
     </row>
     <row r="13" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="E13" s="32"/>
+      <c r="A13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="K13" s="32"/>
+      <c r="K13" s="31"/>
     </row>
     <row r="14" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="E14" s="32"/>
+      <c r="A14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="K14" s="32"/>
+      <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="E15" s="32"/>
+      <c r="A15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="K15" s="32"/>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="E16" s="32"/>
+      <c r="A16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="K16" s="32"/>
+      <c r="K16" s="31"/>
     </row>
     <row r="17" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E17" s="32"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="K17" s="32"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E18" s="32"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="K18" s="32"/>
+      <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E19" s="32"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="K19" s="32"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E20" s="32"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="K20" s="32"/>
+      <c r="K20" s="31"/>
     </row>
     <row r="21" spans="1:11" ht="50.1" customHeight="1">
-      <c r="E21" s="32"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="K21" s="32"/>
+      <c r="K21" s="31"/>
     </row>
     <row r="22" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
       <c r="I22" s="5"/>
     </row>
   </sheetData>
